--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G6" t="n">
         <v>4.2</v>
@@ -1219,7 +1219,7 @@
         <v>2.38</v>
       </c>
       <c r="J6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>3.4</v>
@@ -1348,16 +1348,16 @@
         <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q8" t="n">
         <v>2.36</v>
@@ -1624,7 +1624,7 @@
         <v>3.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K9" t="n">
         <v>3.3</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
         <v>2.5</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G10" t="n">
         <v>2.62</v>
       </c>
       <c r="H10" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J10" t="n">
         <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="G11" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
         <v>4.5</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.74</v>
+        <v>2.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,28 +2716,28 @@
         <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="T17" t="n">
         <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,28 +2746,28 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y17" t="n">
         <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
         <v>500</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
         <v>8.800000000000001</v>
@@ -2779,10 +2779,10 @@
         <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK17" t="n">
         <v>18</v>
@@ -2791,7 +2791,7 @@
         <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
         <v>9.800000000000001</v>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H18" t="n">
         <v>4.1</v>
@@ -2860,7 +2860,7 @@
         <v>2.18</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R18" t="n">
         <v>1.45</v>
@@ -2881,16 +2881,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z18" t="n">
         <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2899,10 +2899,10 @@
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF18" t="n">
         <v>13.5</v>
@@ -2917,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK18" t="n">
         <v>20</v>
@@ -2926,13 +2926,13 @@
         <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
         <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G19" t="n">
         <v>1.79</v>
@@ -2971,7 +2971,7 @@
         <v>5.5</v>
       </c>
       <c r="I19" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J19" t="n">
         <v>3.85</v>
@@ -2983,28 +2983,28 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P19" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S19" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U19" t="n">
         <v>1.99</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y19" t="n">
         <v>17.5</v>
@@ -3025,19 +3025,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AC19" t="n">
         <v>8.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="n">
         <v>10.5</v>
@@ -3049,7 +3049,7 @@
         <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
         <v>18.5</v>
@@ -3058,13 +3058,13 @@
         <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO19" t="n">
         <v>110</v>
@@ -3103,10 +3103,10 @@
         <v>1.39</v>
       </c>
       <c r="H20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I20" t="n">
         <v>9.6</v>
-      </c>
-      <c r="I20" t="n">
-        <v>10</v>
       </c>
       <c r="J20" t="n">
         <v>5.8</v>
@@ -3139,10 +3139,10 @@
         <v>2.44</v>
       </c>
       <c r="T20" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3175,13 +3175,13 @@
         <v>150</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
         <v>110</v>
@@ -3193,7 +3193,7 @@
         <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>110</v>
@@ -3373,13 +3373,13 @@
         <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
         <v>4.1</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G23" t="n">
         <v>3.05</v>
       </c>
       <c r="H23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I23" t="n">
         <v>2.86</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>3.45</v>
@@ -3649,7 +3649,7 @@
         <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
         <v>3.75</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
         <v>1.78</v>
@@ -3778,7 +3778,7 @@
         <v>1.19</v>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="I25" t="n">
         <v>24</v>
@@ -3787,7 +3787,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>2.04</v>
       </c>
       <c r="T25" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3829,10 +3829,10 @@
         <v>980</v>
       </c>
       <c r="Y25" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AA25" t="n">
         <v>1000</v>
@@ -3853,7 +3853,7 @@
         <v>10.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH25" t="n">
         <v>980</v>
@@ -3868,7 +3868,7 @@
         <v>16</v>
       </c>
       <c r="AL25" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM25" t="n">
         <v>220</v>
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="G26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K26" t="n">
         <v>4.9</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
         <v>1.61</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I29" t="n">
         <v>3.4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.3</v>
       </c>
       <c r="J29" t="n">
         <v>3.1</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G30" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I30" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4585,19 +4585,19 @@
         <v>1.69</v>
       </c>
       <c r="G31" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="H31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I31" t="n">
         <v>5.9</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>2.12</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
         <v>4.3</v>
@@ -4750,7 +4750,7 @@
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R32" t="n">
         <v>1.37</v>
@@ -4861,7 +4861,7 @@
         <v>1.77</v>
       </c>
       <c r="I33" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J33" t="n">
         <v>4.1</v>
@@ -4876,28 +4876,28 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>2.08</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R33" t="n">
         <v>1.41</v>
       </c>
       <c r="S33" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T33" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4918,7 +4918,7 @@
         <v>18.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>9</v>
@@ -4933,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="AG33" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH33" t="n">
         <v>19.5</v>
@@ -4942,7 +4942,7 @@
         <v>36</v>
       </c>
       <c r="AJ33" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AK33" t="n">
         <v>65</v>
@@ -4954,10 +4954,10 @@
         <v>110</v>
       </c>
       <c r="AN33" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="34">
@@ -4990,13 +4990,13 @@
         <v>2.38</v>
       </c>
       <c r="G34" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J34" t="n">
         <v>3.15</v>
@@ -5017,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q34" t="n">
         <v>2.18</v>
@@ -5125,10 +5125,10 @@
         <v>2.44</v>
       </c>
       <c r="G35" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
@@ -5137,7 +5137,7 @@
         <v>2.94</v>
       </c>
       <c r="K35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>1.76</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO37"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Al Ahly Cairo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AC Ospitaletto</t>
+          <t>Ismaily</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.04</v>
       </c>
-      <c r="G2" t="n">
+      <c r="W2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="X2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="Y2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Triestina</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L3" t="n">
         <v>1.01</v>
       </c>
-      <c r="K3" t="n">
-        <v>950</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -928,12 +928,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>AC Ospitaletto</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.07</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
@@ -1063,12 +1063,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Triestina</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.7</v>
+        <v>1.04</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.35</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>2.42</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>950</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="G8" t="n">
-        <v>3.95</v>
+        <v>2.48</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.72</v>
+        <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.36</v>
+        <v>2.82</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.58</v>
+        <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>2.84</v>
+        <v>4.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="J9" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,42 +1733,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.46</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.86</v>
+        <v>5.1</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.54</v>
+        <v>1.6</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.48</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.69</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.4</v>
+        <v>2.26</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>2.44</v>
       </c>
       <c r="J11" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.6</v>
+        <v>2.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>2.72</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="G13" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="H13" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>3.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2278,12 +2278,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -2413,31 +2413,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.68</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.24</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,61 +2683,61 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
-        <v>6.8</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>3.7</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.02</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,64 +2746,64 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,61 +2818,61 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.02</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K18" t="n">
-        <v>3.95</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.18</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2881,64 +2881,64 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,61 +2953,61 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.79</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>3.9</v>
+        <v>950</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3016,64 +3016,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,61 +3088,61 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.38</v>
+        <v>1.04</v>
       </c>
       <c r="G20" t="n">
-        <v>1.39</v>
+        <v>1000</v>
       </c>
       <c r="H20" t="n">
-        <v>9.199999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,61 +3223,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.59</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,64 +3286,64 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,66 +3353,66 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P22" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,64 +3421,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,66 +3488,66 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.86</v>
+        <v>1.77</v>
       </c>
       <c r="G23" t="n">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="H23" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="I23" t="n">
-        <v>2.86</v>
+        <v>5.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,64 +3556,64 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,66 +3623,66 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S24" t="n">
         <v>2.44</v>
       </c>
-      <c r="G24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,64 +3691,64 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,66 +3758,66 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>1.19</v>
+        <v>1000</v>
       </c>
       <c r="H25" t="n">
-        <v>19.5</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="J25" t="n">
-        <v>9.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>3.15</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AH25" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AI25" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,31 +3898,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="H26" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="I26" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.31</v>
+        <v>2.84</v>
       </c>
       <c r="G27" t="n">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="H27" t="n">
-        <v>9.4</v>
+        <v>2.62</v>
       </c>
       <c r="I27" t="n">
-        <v>11.5</v>
+        <v>2.86</v>
       </c>
       <c r="J27" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>2.44</v>
       </c>
       <c r="G28" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="I28" t="n">
-        <v>2.24</v>
+        <v>3.1</v>
       </c>
       <c r="J28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.38</v>
+        <v>2.06</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.66</v>
+        <v>1.16</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>1.18</v>
       </c>
       <c r="H29" t="n">
-        <v>2.72</v>
+        <v>19.5</v>
       </c>
       <c r="I29" t="n">
+        <v>24</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>11</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>230</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>380</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>260</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN29" t="n">
         <v>3.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30">
@@ -4438,31 +4438,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
-        <v>2.16</v>
+        <v>1.64</v>
       </c>
       <c r="H30" t="n">
-        <v>3.85</v>
+        <v>6.2</v>
       </c>
       <c r="I30" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="J30" t="n">
-        <v>3.45</v>
+        <v>4.4</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="G31" t="n">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="H31" t="n">
-        <v>4.5</v>
+        <v>9.4</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>11.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="K31" t="n">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,66 +4703,66 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="H32" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="I32" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -4771,64 +4771,64 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ32" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AK32" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,42 +4838,42 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>2.64</v>
       </c>
       <c r="G33" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1.77</v>
+        <v>2.72</v>
       </c>
       <c r="I33" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="J33" t="n">
-        <v>4.1</v>
+        <v>2.84</v>
       </c>
       <c r="K33" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4882,22 +4882,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -4906,64 +4906,64 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AH33" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI33" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL33" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AM33" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN33" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO33" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,36 +4973,36 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.38</v>
+        <v>1.95</v>
       </c>
       <c r="G34" t="n">
-        <v>2.54</v>
+        <v>2.18</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="I34" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,36 +5108,36 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.44</v>
+        <v>1.69</v>
       </c>
       <c r="G35" t="n">
-        <v>2.64</v>
+        <v>1.86</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.94</v>
+        <v>3.9</v>
       </c>
       <c r="K35" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>1.65</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,67 +5243,67 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.5</v>
+        <v>3.45</v>
       </c>
       <c r="G36" t="n">
-        <v>1.55</v>
+        <v>3.65</v>
       </c>
       <c r="H36" t="n">
-        <v>8.4</v>
+        <v>2.1</v>
       </c>
       <c r="I36" t="n">
-        <v>9.800000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="J36" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="K36" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="Q36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.1</v>
       </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -5311,192 +5311,732 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sunderland</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4</v>
+      </c>
+      <c r="K37" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N37" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cruzeiro MG</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K39" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H40" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I40" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>Aguilas Doradas</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F41" t="n">
         <v>1.65</v>
       </c>
-      <c r="G37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H37" t="n">
+      <c r="G41" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.7</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>6.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K41" t="n">
         <v>4.3</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="n">
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AO43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="G2" t="n">
         <v>1.3</v>
       </c>
       <c r="H2" t="n">
-        <v>16.5</v>
+        <v>5.3</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
         <v>5.7</v>
@@ -703,25 +703,25 @@
         <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>1.94</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -826,7 +826,7 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O3" t="n">
         <v>1.47</v>
@@ -871,7 +871,7 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
         <v>13</v>
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1084,100 +1084,100 @@
         <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K5" t="n">
         <v>950</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
         <v>1.24</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1219,100 +1219,100 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1354,106 +1354,106 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K7" t="n">
         <v>950</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Go Ahead Eagles</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.32</v>
+        <v>2.76</v>
       </c>
       <c r="G8" t="n">
-        <v>2.48</v>
+        <v>2.84</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>2.78</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.32</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.82</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>3.7</v>
       </c>
       <c r="G9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
         <v>2.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J9" t="n">
         <v>3.1</v>
@@ -1630,16 +1630,16 @@
         <v>3.4</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P9" t="n">
         <v>1.61</v>
@@ -1648,76 +1648,76 @@
         <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1738,37 +1738,37 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Masry</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Wadi Degla</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>2.32</v>
       </c>
       <c r="G10" t="n">
-        <v>2.34</v>
+        <v>2.54</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.6</v>
+        <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,42 +1868,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Calcio Avellino SSD</t>
+          <t>Al-Masry</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Wadi Degla</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>2.26</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.44</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Calcio Avellino SSD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Spezia</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P12" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.58</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>2.84</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>2.72</v>
       </c>
       <c r="J13" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>3.3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
         <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.01</v>
       </c>
-      <c r="K14" t="n">
-        <v>950</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P14" t="n">
-        <v>1.24</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.01</v>
       </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2425,10 +2425,10 @@
         <v>2.46</v>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="H15" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="I15" t="n">
         <v>2.94</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G16" t="n">
         <v>1.77</v>
@@ -2566,10 +2566,10 @@
         <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
         <v>4.7</v>
@@ -2590,7 +2590,7 @@
         <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
         <v>3.7</v>
@@ -2818,16 +2818,16 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G18" t="n">
         <v>1000</v>
@@ -2836,10 +2836,10 @@
         <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>950</v>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,61 +3223,61 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1.6</v>
+        <v>1000</v>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>1.01</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.95</v>
+        <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3358,61 +3358,61 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>1.57</v>
       </c>
       <c r="G22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S22" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="U22" t="n">
-        <v>2.3</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3421,58 +3421,58 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AA22" t="n">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH22" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AJ22" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,61 +3493,61 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="J23" t="n">
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>1.94</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3556,58 +3556,58 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC23" t="n">
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AE23" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM23" t="n">
         <v>80</v>
       </c>
-      <c r="AF23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>120</v>
-      </c>
       <c r="AN23" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
@@ -3628,61 +3628,61 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.39</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.78</v>
       </c>
       <c r="H24" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I24" t="n">
-        <v>9.6</v>
+        <v>5.7</v>
       </c>
       <c r="J24" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="K24" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>5.7</v>
+        <v>3.75</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>2.66</v>
+        <v>1.94</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="R24" t="n">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="S24" t="n">
-        <v>2.44</v>
+        <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="U24" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3691,64 +3691,64 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="AA24" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="AB24" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN24" t="n">
         <v>12</v>
       </c>
-      <c r="AK24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM24" t="n">
+      <c r="AO24" t="n">
         <v>110</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,61 +3763,61 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="G25" t="n">
-        <v>1000</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.04</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I25" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="J25" t="n">
-        <v>1.01</v>
+        <v>5.7</v>
       </c>
       <c r="K25" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3826,64 +3826,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,36 +3893,36 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.71</v>
+        <v>1.04</v>
       </c>
       <c r="G26" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="H26" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>3.8</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.89</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="G27" t="n">
-        <v>3.05</v>
+        <v>1.81</v>
       </c>
       <c r="H27" t="n">
-        <v>2.62</v>
+        <v>5.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.86</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -4072,10 +4072,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -4168,31 +4168,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.44</v>
+        <v>2.88</v>
       </c>
       <c r="G28" t="n">
-        <v>2.64</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -4207,10 +4207,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -4303,61 +4303,61 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.16</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>1.18</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>19.5</v>
+        <v>2.84</v>
       </c>
       <c r="I29" t="n">
-        <v>24</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>9.4</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="R29" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -4366,64 +4366,64 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL29" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AO29" t="n">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,61 +4438,61 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Boreham Wood</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Yeovil</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="G30" t="n">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="H30" t="n">
-        <v>6.2</v>
+        <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>7.2</v>
+        <v>26</v>
       </c>
       <c r="J30" t="n">
-        <v>4.4</v>
+        <v>9.6</v>
       </c>
       <c r="K30" t="n">
-        <v>4.9</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.69</v>
+        <v>1.38</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -4501,58 +4501,58 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31">
@@ -4573,31 +4573,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Boreham Wood</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Yeovil</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -4612,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4708,31 +4708,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.3</v>
+        <v>1.69</v>
       </c>
       <c r="G32" t="n">
-        <v>3.85</v>
+        <v>1.92</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02</v>
+        <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.24</v>
+        <v>5.9</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -4843,31 +4843,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.64</v>
+        <v>3.4</v>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="H33" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="I33" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="J33" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -4882,10 +4882,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -4978,31 +4978,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.85</v>
+        <v>2.72</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.45</v>
+        <v>2.84</v>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="G35" t="n">
-        <v>1.86</v>
+        <v>2.18</v>
       </c>
       <c r="H35" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -5152,10 +5152,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.2</v>
+        <v>1.87</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -5243,66 +5243,66 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.45</v>
+        <v>1.31</v>
       </c>
       <c r="G36" t="n">
-        <v>3.65</v>
+        <v>1.39</v>
       </c>
       <c r="H36" t="n">
-        <v>2.1</v>
+        <v>9.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.14</v>
+        <v>11.5</v>
       </c>
       <c r="J36" t="n">
-        <v>3.85</v>
+        <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -5311,64 +5311,64 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN36" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="AO36" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,66 +5378,66 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5.1</v>
+        <v>1.78</v>
       </c>
       <c r="G37" t="n">
-        <v>5.2</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
-        <v>1.77</v>
+        <v>4.6</v>
       </c>
       <c r="I37" t="n">
-        <v>1.78</v>
+        <v>4.9</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K37" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.87</v>
+        <v>1.64</v>
       </c>
       <c r="R37" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -5446,64 +5446,64 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AK37" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AL37" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN37" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO37" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5513,66 +5513,66 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2.36</v>
+        <v>3.45</v>
       </c>
       <c r="G38" t="n">
-        <v>2.56</v>
+        <v>3.65</v>
       </c>
       <c r="H38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S38" t="n">
         <v>3.25</v>
       </c>
-      <c r="I38" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K38" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
+      <c r="T38" t="n">
         <v>1.74</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -5581,64 +5581,64 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AL38" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,66 +5648,66 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.44</v>
+        <v>5.1</v>
       </c>
       <c r="G39" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>1.78</v>
       </c>
       <c r="I39" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J39" t="n">
         <v>4</v>
       </c>
-      <c r="J39" t="n">
-        <v>2.96</v>
-      </c>
       <c r="K39" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.62</v>
+        <v>1.87</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -5716,58 +5716,58 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD39" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AO39" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="40">
@@ -5783,36 +5783,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.51</v>
+        <v>2.38</v>
       </c>
       <c r="G40" t="n">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="H40" t="n">
-        <v>8.4</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="J40" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K40" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -5827,10 +5827,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5908,135 +5908,405 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H42" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>Aguilas Doradas</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F43" t="n">
         <v>1.65</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G43" t="n">
         <v>1.79</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H43" t="n">
         <v>5.7</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I43" t="n">
         <v>6.8</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J43" t="n">
         <v>3.6</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K43" t="n">
         <v>4.3</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>1.75</v>
       </c>
-      <c r="Q41" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
+      <c r="Q43" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>5.3</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>6.6</v>
@@ -691,13 +691,13 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
         <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
@@ -712,13 +712,13 @@
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="W2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="X2" t="n">
         <v>20</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="I3" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -832,40 +832,40 @@
         <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="X3" t="n">
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
         <v>17</v>
@@ -877,7 +877,7 @@
         <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>48</v>
@@ -892,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="n">
         <v>110</v>
@@ -904,10 +904,10 @@
         <v>220</v>
       </c>
       <c r="AN3" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1477,37 +1477,37 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1576,10 +1576,10 @@
         <v>38</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="G9" t="n">
         <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="I9" t="n">
         <v>2.32</v>
@@ -1627,22 +1627,22 @@
         <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
         <v>1.47</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="Q9" t="n">
         <v>2.4</v>
@@ -1651,10 +1651,10 @@
         <v>1.22</v>
       </c>
       <c r="S9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U9" t="n">
         <v>1.86</v>
@@ -1663,7 +1663,7 @@
         <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X9" t="n">
         <v>11.5</v>
@@ -1675,13 +1675,13 @@
         <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD9" t="n">
         <v>11.5</v>
@@ -1690,22 +1690,22 @@
         <v>30</v>
       </c>
       <c r="AF9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
         <v>80</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J11" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1945,7 +1945,7 @@
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB11" t="n">
         <v>8.6</v>
@@ -1954,7 +1954,7 @@
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2041,10 +2041,10 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>3.55</v>
       </c>
       <c r="O12" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,10 +2053,10 @@
         <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>2.68</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2068,55 +2068,55 @@
         <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2155,109 +2155,109 @@
         <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
         <v>2.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.02</v>
+        <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
@@ -2308,13 +2308,13 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="O14" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="P14" t="n">
         <v>1.58</v>
@@ -2323,67 +2323,67 @@
         <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
@@ -2440,94 +2440,94 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
         <v>2.58</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2566,7 +2566,7 @@
         <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2575,94 +2575,94 @@
         <v>4.7</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.46</v>
       </c>
-      <c r="Q16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
@@ -2710,16 +2710,16 @@
         <v>3.65</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
         <v>2.16</v>
@@ -2728,76 +2728,76 @@
         <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2845,94 +2845,94 @@
         <v>950</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
         <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2974,100 +2974,100 @@
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
         <v>950</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3109,100 +3109,100 @@
         <v>1000</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P20" t="n">
         <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3244,100 +3244,100 @@
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P21" t="n">
         <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="G22" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H22" t="n">
         <v>7</v>
@@ -3385,7 +3385,7 @@
         <v>4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
@@ -3397,10 +3397,10 @@
         <v>1.34</v>
       </c>
       <c r="P22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
         <v>1.36</v>
@@ -3409,43 +3409,43 @@
         <v>3.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y22" t="n">
         <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA22" t="n">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AB22" t="n">
         <v>7.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG22" t="n">
         <v>9.800000000000001</v>
@@ -3454,25 +3454,25 @@
         <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL22" t="n">
         <v>40</v>
       </c>
       <c r="AM22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO22" t="n">
         <v>160</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3520,7 +3520,7 @@
         <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3532,7 +3532,7 @@
         <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="Q23" t="n">
         <v>1.81</v>
@@ -3550,19 +3550,19 @@
         <v>2.3</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
         <v>80</v>
@@ -3574,10 +3574,10 @@
         <v>8.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF23" t="n">
         <v>13</v>
@@ -3589,13 +3589,13 @@
         <v>16.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ23" t="n">
         <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="n">
         <v>32</v>
@@ -3607,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
@@ -3655,19 +3655,19 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O24" t="n">
         <v>1.34</v>
       </c>
       <c r="P24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q24" t="n">
         <v>2.04</v>
@@ -3679,46 +3679,46 @@
         <v>3.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y24" t="n">
         <v>18</v>
       </c>
       <c r="Z24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA24" t="n">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="AB24" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD24" t="n">
         <v>21</v>
       </c>
       <c r="AE24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG24" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3727,22 +3727,22 @@
         <v>80</v>
       </c>
       <c r="AJ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK24" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>38</v>
       </c>
       <c r="AM24" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
         <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.39</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.4</v>
       </c>
       <c r="H25" t="n">
         <v>9.199999999999999</v>
@@ -3790,13 +3790,13 @@
         <v>5.8</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -3808,7 +3808,7 @@
         <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>2.44</v>
@@ -3820,10 +3820,10 @@
         <v>2.12</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="X25" t="n">
         <v>26</v>
@@ -3832,28 +3832,28 @@
         <v>36</v>
       </c>
       <c r="Z25" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA25" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AB25" t="n">
         <v>10.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -3862,7 +3862,7 @@
         <v>100</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -3871,13 +3871,13 @@
         <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
         <v>4.9</v>
       </c>
       <c r="AO25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
@@ -3919,22 +3919,22 @@
         <v>1000</v>
       </c>
       <c r="J26" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K26" t="n">
         <v>950</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
         <v>1.24</v>
@@ -3943,76 +3943,76 @@
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G27" t="n">
         <v>1.81</v>
@@ -4054,100 +4054,100 @@
         <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>4.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P27" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4180,109 +4180,109 @@
         <v>2.88</v>
       </c>
       <c r="G28" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.25</v>
       </c>
       <c r="K28" t="n">
         <v>3.45</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4318,106 +4318,106 @@
         <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K29" t="n">
         <v>3.75</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4450,13 +4450,13 @@
         <v>1.15</v>
       </c>
       <c r="G30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H30" t="n">
         <v>20</v>
       </c>
       <c r="I30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J30" t="n">
         <v>9.6</v>
@@ -4465,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
@@ -4477,13 +4477,13 @@
         <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
         <v>1.38</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4495,10 +4495,10 @@
         <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="X30" t="n">
         <v>980</v>
@@ -4507,7 +4507,7 @@
         <v>95</v>
       </c>
       <c r="Z30" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4519,10 +4519,10 @@
         <v>24</v>
       </c>
       <c r="AD30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -4534,7 +4534,7 @@
         <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="AJ30" t="n">
         <v>10</v>
@@ -4543,16 +4543,16 @@
         <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AN30" t="n">
         <v>3.35</v>
       </c>
       <c r="AO30" t="n">
-        <v>460</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31">
@@ -4585,31 +4585,31 @@
         <v>1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="H31" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="K31" t="n">
         <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P31" t="n">
         <v>2.22</v>
@@ -4618,76 +4618,76 @@
         <v>1.69</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4720,109 +4720,109 @@
         <v>1.69</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="H32" t="n">
         <v>4.5</v>
       </c>
       <c r="I32" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
         <v>4.7</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P32" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q32" t="n">
         <v>1.65</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK32" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AM32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G33" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I33" t="n">
         <v>2.24</v>
@@ -4870,16 +4870,16 @@
         <v>4.4</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P33" t="n">
         <v>2.38</v>
@@ -4888,76 +4888,76 @@
         <v>1.61</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4990,109 +4990,109 @@
         <v>2.64</v>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I34" t="n">
         <v>3.4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>3.6</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="P34" t="n">
         <v>1.7</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG34" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK34" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G35" t="n">
         <v>2.18</v>
@@ -5131,7 +5131,7 @@
         <v>3.85</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5140,94 +5140,94 @@
         <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5269,100 +5269,100 @@
         <v>11.5</v>
       </c>
       <c r="J36" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K36" t="n">
         <v>6.8</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P36" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM36" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN36" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -5410,16 +5410,16 @@
         <v>4.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
         <v>2.4</v>
@@ -5428,76 +5428,76 @@
         <v>1.64</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI37" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN37" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G38" t="n">
         <v>3.65</v>
       </c>
       <c r="H38" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I38" t="n">
         <v>2.14</v>
       </c>
       <c r="J38" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K38" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
@@ -5557,7 +5557,7 @@
         <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q38" t="n">
         <v>1.84</v>
@@ -5566,7 +5566,7 @@
         <v>1.37</v>
       </c>
       <c r="S38" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T38" t="n">
         <v>1.74</v>
@@ -5575,31 +5575,31 @@
         <v>2.12</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X38" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="Y38" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z38" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA38" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB38" t="n">
         <v>14</v>
       </c>
       <c r="AC38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD38" t="n">
         <v>11</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>12</v>
       </c>
       <c r="AE38" t="n">
         <v>980</v>
@@ -5611,28 +5611,28 @@
         <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ38" t="n">
         <v>70</v>
       </c>
       <c r="AK38" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL38" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AM38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN38" t="n">
         <v>980</v>
       </c>
       <c r="AO38" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="39">
@@ -5668,19 +5668,19 @@
         <v>5.2</v>
       </c>
       <c r="H39" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5698,28 +5698,28 @@
         <v>1.87</v>
       </c>
       <c r="R39" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U39" t="n">
         <v>2.14</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X39" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y39" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z39" t="n">
         <v>11</v>
@@ -5731,28 +5731,28 @@
         <v>19</v>
       </c>
       <c r="AC39" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AG39" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ39" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AK39" t="n">
         <v>65</v>
@@ -5761,10 +5761,10 @@
         <v>65</v>
       </c>
       <c r="AM39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AO39" t="n">
         <v>10.5</v>
@@ -5938,13 +5938,13 @@
         <v>2.66</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I41" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K41" t="n">
         <v>3.3</v>
@@ -5962,10 +5962,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -6097,10 +6097,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>1.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO43"/>
+  <dimension ref="A1:AO46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.03</v>
+        <v>1.9</v>
       </c>
       <c r="O2" t="n">
         <v>1.31</v>
@@ -826,16 +826,16 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
         <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
@@ -1501,13 +1501,13 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1525,7 +1525,7 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
         <v>1.53</v>
@@ -1579,7 +1579,7 @@
         <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO8" t="n">
         <v>18</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Egyptian Premier</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sudtirol</t>
+          <t>Zamalek</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AC Monza</t>
+          <t>Smouha</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.85</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>2.16</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>2.32</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.76</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="R9" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Egyptian Premier</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zamalek</t>
+          <t>Sudtirol</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Smouha</t>
+          <t>AC Monza</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.32</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.4</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.32</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
         <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2041,10 +2041,10 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>3.55</v>
+        <v>2.02</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,10 +2053,10 @@
         <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="S12" t="n">
-        <v>2.68</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
         <v>1.01</v>
@@ -2065,58 +2065,58 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2176,7 +2176,7 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
@@ -2185,7 +2185,7 @@
         <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
@@ -2200,10 +2200,10 @@
         <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
@@ -2212,16 +2212,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
@@ -2236,28 +2236,28 @@
         <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
         <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
-        <v>2.84</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
         <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
@@ -2311,16 +2311,16 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="O14" t="n">
         <v>1.49</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
         <v>1.18</v>
@@ -2329,19 +2329,19 @@
         <v>4.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.97</v>
       </c>
       <c r="U14" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2350,7 +2350,7 @@
         <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
         <v>11.5</v>
@@ -2368,7 +2368,7 @@
         <v>23</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2377,7 +2377,7 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="n">
         <v>50</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,55 +2413,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>St Gallen</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.62</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>2.74</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>1.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="P15" t="n">
-        <v>2.58</v>
+        <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2548,31 +2548,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>St Gallen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>1.77</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
-        <v>5.4</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2584,85 +2584,85 @@
         <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>2.28</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>1.69</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>1.77</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.7</v>
+        <v>5.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.23</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11</v>
       </c>
-      <c r="AD17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>16</v>
-      </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO17" t="n">
         <v>44</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,67 +2818,67 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>3.65</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>1.24</v>
+        <v>2.16</v>
       </c>
       <c r="O18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.38</v>
       </c>
-      <c r="P18" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2986,22 +2986,22 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="P19" t="n">
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3088,12 +3088,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -3121,22 +3121,22 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="O20" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
         <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>1.01</v>
@@ -3223,16 +3223,16 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G21" t="n">
         <v>1000</v>
@@ -3241,10 +3241,10 @@
         <v>1.04</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="O21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P21" t="n">
         <v>1.24</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.18</v>
       </c>
       <c r="S21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="T21" t="n">
         <v>1.01</v>
@@ -3280,7 +3280,7 @@
         <v>1.01</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
         <v>1.01</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6</v>
+        <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J22" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L22" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.96</v>
+        <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.02</v>
+        <v>1.41</v>
       </c>
       <c r="R22" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>3.6</v>
+        <v>1.41</v>
       </c>
       <c r="T22" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U22" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>2.66</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,121 +3493,121 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2.02</v>
       </c>
-      <c r="H23" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.81</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="V23" t="n">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
       <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>17</v>
       </c>
-      <c r="Y23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>19</v>
-      </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24">
@@ -3628,25 +3628,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nottm Forest</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="J24" t="n">
         <v>3.85</v>
@@ -3655,94 +3655,94 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AO24" t="n">
         <v>40</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Man City</t>
+          <t>Nottm Forest</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.38</v>
+        <v>1.77</v>
       </c>
       <c r="G25" t="n">
-        <v>1.39</v>
+        <v>1.78</v>
       </c>
       <c r="H25" t="n">
-        <v>9.199999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="I25" t="n">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>2.44</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="V25" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>3.55</v>
+        <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AA25" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Man City</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.04</v>
+        <v>1.38</v>
       </c>
       <c r="G26" t="n">
-        <v>1000</v>
+        <v>1.39</v>
       </c>
       <c r="H26" t="n">
-        <v>1.04</v>
+        <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J26" t="n">
-        <v>1.02</v>
+        <v>5.7</v>
       </c>
       <c r="K26" t="n">
-        <v>950</v>
+        <v>5.8</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>1.03</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>1.24</v>
+        <v>2.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="T26" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,60 +4028,60 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dundee</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.72</v>
+        <v>1.04</v>
       </c>
       <c r="G27" t="n">
-        <v>1.81</v>
+        <v>1000</v>
       </c>
       <c r="H27" t="n">
-        <v>5.2</v>
+        <v>1.04</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>4.1</v>
+        <v>950</v>
       </c>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>3.15</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.86</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4090,55 +4090,55 @@
         <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
         <v>1000</v>
@@ -4168,112 +4168,112 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Dundee</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.88</v>
+        <v>1.74</v>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>1.76</v>
       </c>
       <c r="H28" t="n">
-        <v>2.64</v>
+        <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
-        <v>3.45</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>3.55</v>
+        <v>1.98</v>
       </c>
       <c r="T28" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="X28" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK28" t="n">
         <v>25</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AL28" t="n">
         <v>50</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>65</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
@@ -4303,115 +4303,115 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G29" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K29" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="L29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O29" t="n">
         <v>1.36</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P29" t="n">
-        <v>2.16</v>
+        <v>1.76</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
         <v>1.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="V29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.48</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Z29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AA29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI29" t="n">
         <v>70</v>
       </c>
-      <c r="AB29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>55</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AM29" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.15</v>
+        <v>2.48</v>
       </c>
       <c r="G30" t="n">
-        <v>1.17</v>
+        <v>2.66</v>
       </c>
       <c r="H30" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y30" t="n">
         <v>20</v>
       </c>
-      <c r="I30" t="n">
-        <v>25</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>11</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X30" t="n">
-        <v>980</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>95</v>
-      </c>
       <c r="Z30" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AC30" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>410</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI30" t="n">
         <v>55</v>
       </c>
-      <c r="AI30" t="n">
-        <v>290</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM30" t="n">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4708,118 +4708,118 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sutton Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Braintree</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.69</v>
+        <v>1.16</v>
       </c>
       <c r="G32" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="H32" t="n">
-        <v>4.5</v>
+        <v>21</v>
       </c>
       <c r="I32" t="n">
-        <v>5.8</v>
+        <v>32</v>
       </c>
       <c r="J32" t="n">
-        <v>3.95</v>
+        <v>9.6</v>
       </c>
       <c r="K32" t="n">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N32" t="n">
-        <v>2.2</v>
+        <v>7.6</v>
       </c>
       <c r="O32" t="n">
-        <v>1.21</v>
+        <v>1.14</v>
       </c>
       <c r="P32" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="S32" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="V32" t="n">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="W32" t="n">
-        <v>2.1</v>
+        <v>6.8</v>
       </c>
       <c r="X32" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>95</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>280</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC32" t="n">
         <v>29</v>
       </c>
-      <c r="Y32" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z32" t="n">
+      <c r="AD32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>450</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH32" t="n">
         <v>55</v>
       </c>
-      <c r="AA32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>25</v>
-      </c>
       <c r="AI32" t="n">
-        <v>75</v>
+        <v>320</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AL32" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM32" t="n">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>3.35</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4843,115 +4843,115 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aldershot</t>
+          <t>Sutton Utd</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Southend</t>
+          <t>Braintree</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>3.8</v>
+        <v>1.86</v>
       </c>
       <c r="H33" t="n">
-        <v>2.06</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.24</v>
+        <v>5.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.54</v>
+        <v>1.21</v>
       </c>
       <c r="S33" t="n">
-        <v>2.34</v>
+        <v>1.65</v>
       </c>
       <c r="T33" t="n">
-        <v>1.41</v>
+        <v>1.01</v>
       </c>
       <c r="U33" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.35</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -4978,115 +4978,115 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Brackley Town</t>
+          <t>Aldershot</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FC Halifax Town</t>
+          <t>Southend</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.64</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.74</v>
+        <v>2.06</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>2.24</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.54</v>
       </c>
       <c r="S34" t="n">
-        <v>3.5</v>
+        <v>2.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="U34" t="n">
-        <v>1.66</v>
+        <v>2.08</v>
       </c>
       <c r="V34" t="n">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE34" t="n">
         <v>28</v>
       </c>
-      <c r="AA34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF34" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="AG34" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AH34" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI34" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK34" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL34" t="n">
         <v>50</v>
       </c>
-      <c r="AL34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM34" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN34" t="n">
         <v>1000</v>
@@ -5113,31 +5113,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Brackley Town</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Forest Green</t>
+          <t>FC Halifax Town</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.94</v>
+        <v>2.64</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="I35" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
@@ -5146,22 +5146,22 @@
         <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>1.88</v>
+        <v>1.58</v>
       </c>
       <c r="O35" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="R35" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="T35" t="n">
         <v>1.01</v>
@@ -5170,55 +5170,55 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="W35" t="n">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
       <c r="X35" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="AA35" t="n">
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AD35" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG35" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>15.5</v>
       </c>
       <c r="AH35" t="n">
         <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK35" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AL35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM35" t="n">
         <v>1000</v>
@@ -5248,127 +5248,127 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>York City</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hartlepool</t>
+          <t>Forest Green</t>
         </is>
       </c>
       <c r="F36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O36" t="n">
         <v>1.31</v>
       </c>
-      <c r="G36" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K36" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.16</v>
-      </c>
       <c r="P36" t="n">
-        <v>2.62</v>
+        <v>1.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.49</v>
+        <v>1.91</v>
       </c>
       <c r="R36" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="S36" t="n">
-        <v>2.22</v>
+        <v>2.94</v>
       </c>
       <c r="T36" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U36" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V36" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="W36" t="n">
-        <v>3.55</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Y36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z36" t="n">
         <v>46</v>
       </c>
-      <c r="Z36" t="n">
-        <v>120</v>
-      </c>
       <c r="AA36" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AD36" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AE36" t="n">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="n">
-        <v>11</v>
+        <v>18.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="AK36" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="AL36" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AM36" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Dutch Eredivisie</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -5378,132 +5378,132 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>York City</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>FC Utrecht</t>
+          <t>Hartlepool</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.78</v>
+        <v>1.31</v>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.39</v>
       </c>
       <c r="H37" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.9</v>
+        <v>11.5</v>
       </c>
       <c r="J37" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="K37" t="n">
-        <v>4.5</v>
+        <v>6.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P37" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.64</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S37" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="T37" t="n">
-        <v>1.54</v>
+        <v>1.85</v>
       </c>
       <c r="U37" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>2.24</v>
+        <v>3.55</v>
       </c>
       <c r="X37" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Y37" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="AA37" t="n">
-        <v>120</v>
+        <v>390</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>13</v>
       </c>
-      <c r="AG37" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="AO37" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Dutch Eredivisie</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -5518,127 +5518,127 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Motherwell</t>
+          <t>NEC Nijmegen</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>FC Utrecht</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3.5</v>
+        <v>1.78</v>
       </c>
       <c r="G38" t="n">
-        <v>3.65</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>2.12</v>
+        <v>4.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="J38" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.84</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="S38" t="n">
-        <v>3.2</v>
+        <v>2.64</v>
       </c>
       <c r="T38" t="n">
-        <v>1.74</v>
+        <v>1.54</v>
       </c>
       <c r="U38" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.87</v>
+        <v>1.26</v>
       </c>
       <c r="W38" t="n">
-        <v>1.37</v>
+        <v>2.24</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Z38" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AA38" t="n">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="n">
         <v>14</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AE38" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AF38" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL38" t="n">
         <v>36</v>
       </c>
-      <c r="AJ38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>55</v>
-      </c>
       <c r="AM38" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -5648,132 +5648,132 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Motherwell</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="R39" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="U39" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>2.24</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
-        <v>1.23</v>
+        <v>1.38</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z39" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD39" t="n">
         <v>11</v>
       </c>
-      <c r="AA39" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AE39" t="n">
-        <v>17.5</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM39" t="n">
         <v>100</v>
       </c>
       <c r="AN39" t="n">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -5783,132 +5783,132 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cruzeiro MG</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.38</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>2.58</v>
+        <v>5.2</v>
       </c>
       <c r="H40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N40" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S40" t="n">
         <v>3.25</v>
       </c>
-      <c r="I40" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazilian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5918,126 +5918,126 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chapecoense</t>
+          <t>Genesis Huracan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>CD Motagua</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.44</v>
+        <v>1.04</v>
       </c>
       <c r="G41" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="H41" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>2.98</v>
+        <v>1.02</v>
       </c>
       <c r="K41" t="n">
-        <v>3.3</v>
+        <v>1000</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42">
@@ -6053,260 +6053,665 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Atletico MG</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Remo</t>
+          <t>Cruzeiro MG</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.51</v>
+        <v>2.36</v>
       </c>
       <c r="G42" t="n">
-        <v>1.55</v>
+        <v>2.54</v>
       </c>
       <c r="H42" t="n">
-        <v>8.199999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>9.4</v>
+        <v>3.7</v>
       </c>
       <c r="J42" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
-        <v>4.5</v>
+        <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P42" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF42" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM42" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AO42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Chapecoense</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Atletico MG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Remo</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H44" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I44" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="X44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>390</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>190</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>180</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>260</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Atletico Choloma</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>Colombian Primera A</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>2026-02-11</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>Aguilas Doradas</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F46" t="n">
         <v>1.65</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G46" t="n">
         <v>1.79</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>5.7</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>6.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J46" t="n">
         <v>3.6</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K46" t="n">
         <v>4.3</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N46" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R43" t="n">
+      <c r="P46" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R46" t="n">
         <v>0</v>
       </c>
-      <c r="S43" t="n">
+      <c r="S46" t="n">
         <v>0</v>
       </c>
-      <c r="T43" t="n">
+      <c r="T46" t="n">
         <v>0</v>
       </c>
-      <c r="U43" t="n">
+      <c r="U46" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
+      <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="n">
+      <c r="W46" t="n">
         <v>0</v>
       </c>
-      <c r="X43" t="n">
+      <c r="X46" t="n">
         <v>0</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="Y46" t="n">
         <v>0</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="Z46" t="n">
         <v>0</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AA46" t="n">
         <v>0</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AB46" t="n">
         <v>0</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AC46" t="n">
         <v>0</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AD46" t="n">
         <v>0</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AE46" t="n">
         <v>0</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AF46" t="n">
         <v>0</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AG46" t="n">
         <v>0</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AH46" t="n">
         <v>0</v>
       </c>
-      <c r="AI43" t="n">
+      <c r="AI46" t="n">
         <v>0</v>
       </c>
-      <c r="AJ43" t="n">
+      <c r="AJ46" t="n">
         <v>0</v>
       </c>
-      <c r="AK43" t="n">
+      <c r="AK46" t="n">
         <v>0</v>
       </c>
-      <c r="AL43" t="n">
+      <c r="AL46" t="n">
         <v>0</v>
       </c>
-      <c r="AM43" t="n">
+      <c r="AM46" t="n">
         <v>0</v>
       </c>
-      <c r="AN43" t="n">
+      <c r="AN46" t="n">
         <v>0</v>
       </c>
-      <c r="AO43" t="n">
+      <c r="AO46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -688,31 +688,31 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>3.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
@@ -721,22 +721,22 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.800000000000001</v>
+        <v>6.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,10 +757,10 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,16 +808,16 @@
         <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,88 +826,88 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.36</v>
+        <v>2.16</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>4.7</v>
       </c>
       <c r="T3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W3" t="n">
         <v>1.18</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y3" t="n">
         <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE3" t="n">
         <v>25</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>29</v>
       </c>
       <c r="AF3" t="n">
         <v>48</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AK3" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1501,28 +1501,28 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
         <v>1.61</v>
@@ -1534,25 +1534,25 @@
         <v>22</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA8" t="n">
         <v>38</v>
       </c>
       <c r="AB8" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
@@ -1561,10 +1561,10 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
         <v>44</v>
@@ -1573,16 +1573,16 @@
         <v>28</v>
       </c>
       <c r="AL8" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>2.76</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>950</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,22 +1750,22 @@
         <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1795,52 +1795,52 @@
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD10" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13</v>
-      </c>
       <c r="AE10" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
         <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
         <v>95</v>
@@ -1849,7 +1849,7 @@
         <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO10" t="n">
         <v>32</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="H11" t="n">
         <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.05</v>
+        <v>2.36</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1936,40 +1936,40 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1981,10 +1981,10 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.25</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2038,13 +2038,13 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.02</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,22 +2053,22 @@
         <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W12" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2080,22 +2080,22 @@
         <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB12" t="n">
         <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
         <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
         <v>1000</v>
@@ -2104,22 +2104,22 @@
         <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G13" t="n">
         <v>3.65</v>
@@ -2161,7 +2161,7 @@
         <v>2.54</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
@@ -2176,46 +2176,46 @@
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AA13" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2227,25 +2227,25 @@
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
@@ -2257,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.7</v>
       </c>
       <c r="H14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>3.3</v>
@@ -2308,91 +2308,91 @@
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.59</v>
       </c>
-      <c r="Q14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.57</v>
-      </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG14" t="n">
         <v>13</v>
       </c>
-      <c r="Z14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AO14" t="n">
         <v>65</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2584,25 +2584,25 @@
         <v>5.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T16" t="n">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
@@ -2731,10 +2731,10 @@
         <v>1.61</v>
       </c>
       <c r="S17" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
         <v>2.36</v>
@@ -2743,7 +2743,7 @@
         <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X17" t="n">
         <v>25</v>
@@ -2764,10 +2764,10 @@
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
         <v>13</v>
@@ -2776,19 +2776,19 @@
         <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM17" t="n">
         <v>70</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H18" t="n">
         <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>3.65</v>
@@ -2851,7 +2851,7 @@
         <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>2.16</v>
+        <v>4.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.23</v>
@@ -2866,67 +2866,67 @@
         <v>1.21</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
         <v>1.38</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.6</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.61</v>
       </c>
       <c r="H23" t="n">
         <v>6.8</v>
@@ -3520,13 +3520,13 @@
         <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
@@ -3535,28 +3535,28 @@
         <v>1.96</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="T23" t="n">
         <v>2.06</v>
       </c>
       <c r="U23" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V23" t="n">
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3655,7 +3655,7 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3664,7 +3664,7 @@
         <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P24" t="n">
         <v>2.18</v>
@@ -3673,10 +3673,10 @@
         <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
@@ -3790,13 +3790,13 @@
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
@@ -3805,13 +3805,13 @@
         <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R25" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
@@ -3826,7 +3826,7 @@
         <v>2.28</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y25" t="n">
         <v>18</v>
@@ -3838,10 +3838,10 @@
         <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
@@ -3919,10 +3919,10 @@
         <v>9.6</v>
       </c>
       <c r="J26" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K26" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="L26" t="n">
         <v>1.28</v>
@@ -3931,7 +3931,7 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
@@ -3943,7 +3943,7 @@
         <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S26" t="n">
         <v>2.44</v>
@@ -3952,7 +3952,7 @@
         <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3970,7 +3970,7 @@
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
@@ -4198,43 +4198,43 @@
         <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
         <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.25</v>
       </c>
       <c r="S28" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U28" t="n">
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
         <v>2.3</v>
       </c>
       <c r="X28" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z28" t="n">
         <v>55</v>
@@ -4243,25 +4243,25 @@
         <v>1000</v>
       </c>
       <c r="AB28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC28" t="n">
-        <v>12</v>
-      </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>100</v>
       </c>
       <c r="AF28" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AG28" t="n">
         <v>12.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>100</v>
@@ -4270,10 +4270,10 @@
         <v>22</v>
       </c>
       <c r="AK28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
@@ -4318,10 +4318,10 @@
         <v>3.05</v>
       </c>
       <c r="H29" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="J29" t="n">
         <v>3.25</v>
@@ -4336,28 +4336,28 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U29" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="V29" t="n">
         <v>1.53</v>
@@ -4366,7 +4366,7 @@
         <v>1.48</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
         <v>13</v>
@@ -4378,7 +4378,7 @@
         <v>50</v>
       </c>
       <c r="AB29" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AC29" t="n">
         <v>9.6</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AH29" t="n">
         <v>26</v>
@@ -4456,7 +4456,7 @@
         <v>2.82</v>
       </c>
       <c r="I30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4477,16 +4477,16 @@
         <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="R30" t="n">
         <v>1.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="T30" t="n">
         <v>1.01</v>
@@ -4504,49 +4504,49 @@
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
@@ -4582,112 +4582,112 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="I31" t="n">
         <v>7.4</v>
       </c>
       <c r="J31" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>2.22</v>
+        <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P31" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="S31" t="n">
-        <v>2.42</v>
+        <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL31" t="n">
         <v>36</v>
       </c>
-      <c r="Z31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>48</v>
-      </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -4720,13 +4720,13 @@
         <v>1.16</v>
       </c>
       <c r="G32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H32" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J32" t="n">
         <v>9.6</v>
@@ -4753,7 +4753,7 @@
         <v>1.37</v>
       </c>
       <c r="R32" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
@@ -4768,16 +4768,16 @@
         <v>1.03</v>
       </c>
       <c r="W32" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X32" t="n">
         <v>980</v>
       </c>
       <c r="Y32" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Z32" t="n">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
@@ -4786,43 +4786,43 @@
         <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AD32" t="n">
         <v>85</v>
       </c>
       <c r="AE32" t="n">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="AF32" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AI32" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AJ32" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK32" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL32" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM32" t="n">
         <v>280</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33">
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,22 +4876,22 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="R33" t="n">
-        <v>1.21</v>
+        <v>1.39</v>
       </c>
       <c r="S33" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>1.01</v>
@@ -4900,58 +4900,58 @@
         <v>1.01</v>
       </c>
       <c r="V33" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -4993,10 +4993,10 @@
         <v>3.9</v>
       </c>
       <c r="H34" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
@@ -5011,34 +5011,34 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>4.6</v>
+        <v>2.22</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="R34" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="S34" t="n">
-        <v>2.46</v>
+        <v>2.24</v>
       </c>
       <c r="T34" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="U34" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="W34" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X34" t="n">
         <v>30</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H35" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M35" t="n">
         <v>1.01</v>
@@ -5152,13 +5152,13 @@
         <v>1.37</v>
       </c>
       <c r="P35" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S35" t="n">
         <v>3.5</v>
@@ -5170,16 +5170,16 @@
         <v>1.01</v>
       </c>
       <c r="V35" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
         <v>28</v>
@@ -5188,13 +5188,13 @@
         <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
@@ -5203,7 +5203,7 @@
         <v>26</v>
       </c>
       <c r="AG35" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
         <v>28</v>
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H36" t="n">
         <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J36" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S36" t="n">
         <v>3.4</v>
       </c>
-      <c r="K36" t="n">
-        <v>4</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="T36" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.27</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.24</v>
       </c>
       <c r="W36" t="n">
         <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI36" t="n">
         <v>75</v>
       </c>
-      <c r="AF36" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>90</v>
-      </c>
       <c r="AJ36" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G37" t="n">
         <v>1.39</v>
@@ -5404,40 +5404,40 @@
         <v>11.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K37" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R37" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
         <v>1.09</v>
@@ -5446,22 +5446,22 @@
         <v>3.55</v>
       </c>
       <c r="X37" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA37" t="n">
         <v>390</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD37" t="n">
         <v>44</v>
@@ -5476,7 +5476,7 @@
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI37" t="n">
         <v>130</v>
@@ -5485,19 +5485,19 @@
         <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
         <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
         <v>1.8</v>
@@ -5542,10 +5542,10 @@
         <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5557,82 +5557,82 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T38" t="n">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="U38" t="n">
         <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
         <v>2.24</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AA38" t="n">
         <v>120</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF38" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG38" t="n">
         <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
         <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5662,7 +5662,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G39" t="n">
         <v>3.6</v>
@@ -5671,16 +5671,16 @@
         <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
         <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5692,34 +5692,34 @@
         <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="U39" t="n">
         <v>2.12</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="W39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>14.5</v>
@@ -5728,28 +5728,28 @@
         <v>28</v>
       </c>
       <c r="AB39" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
         <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
         <v>70</v>
@@ -5761,13 +5761,13 @@
         <v>55</v>
       </c>
       <c r="AM39" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN39" t="n">
         <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="40">
@@ -5815,13 +5815,13 @@
         <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O40" t="n">
         <v>1.29</v>
@@ -5836,10 +5836,10 @@
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T40" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U40" t="n">
         <v>2.14</v>
@@ -5851,7 +5851,7 @@
         <v>1.23</v>
       </c>
       <c r="X40" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y40" t="n">
         <v>9.199999999999999</v>
@@ -5872,7 +5872,7 @@
         <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>38</v>
@@ -6070,7 +6070,7 @@
         <v>2.36</v>
       </c>
       <c r="G42" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="H42" t="n">
         <v>3.35</v>
@@ -6079,7 +6079,7 @@
         <v>3.7</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6088,16 +6088,16 @@
         <v>1.47</v>
       </c>
       <c r="M42" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N42" t="n">
         <v>3.15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q42" t="n">
         <v>2.18</v>
@@ -6121,7 +6121,7 @@
         <v>1.64</v>
       </c>
       <c r="X42" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6133,16 +6133,16 @@
         <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC42" t="n">
         <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF42" t="n">
         <v>15.5</v>
@@ -6151,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
         <v>60</v>
@@ -6169,10 +6169,10 @@
         <v>140</v>
       </c>
       <c r="AN42" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6205,31 +6205,31 @@
         <v>2.44</v>
       </c>
       <c r="G43" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L43" t="n">
         <v>1.56</v>
       </c>
       <c r="M43" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>1.54</v>
+        <v>2.6</v>
       </c>
       <c r="O43" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P43" t="n">
         <v>1.53</v>
@@ -6238,76 +6238,76 @@
         <v>2.6</v>
       </c>
       <c r="R43" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="S43" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="T43" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V43" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W43" t="n">
         <v>1.6</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y43" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA43" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD43" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>65</v>
       </c>
       <c r="AF43" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI43" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ43" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO43" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44">
@@ -6340,7 +6340,7 @@
         <v>1.49</v>
       </c>
       <c r="G44" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H44" t="n">
         <v>8.199999999999999</v>
@@ -6361,10 +6361,10 @@
         <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P44" t="n">
         <v>1.83</v>
@@ -6373,28 +6373,28 @@
         <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.35</v>
+        <v>3.85</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V44" t="n">
         <v>1.11</v>
       </c>
       <c r="W44" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="X44" t="n">
         <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
         <v>80</v>
@@ -6403,19 +6403,19 @@
         <v>390</v>
       </c>
       <c r="AB44" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="AC44" t="n">
         <v>11</v>
       </c>
       <c r="AD44" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE44" t="n">
         <v>190</v>
       </c>
       <c r="AF44" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG44" t="n">
         <v>12</v>
@@ -6484,7 +6484,7 @@
         <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
         <v>1000</v>
@@ -6499,19 +6499,19 @@
         <v>1.24</v>
       </c>
       <c r="O45" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="P45" t="n">
         <v>1.24</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="R45" t="n">
         <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="T45" t="n">
         <v>1.01</v>
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G46" t="n">
         <v>1.79</v>
@@ -6619,22 +6619,22 @@
         <v>6.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K46" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="n">
         <v>1.76</v>
@@ -6643,76 +6643,76 @@
         <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO46"/>
+  <dimension ref="A1:AO50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -691,16 +691,16 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.32</v>
@@ -709,10 +709,10 @@
         <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
         <v>1.06</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G3" t="n">
         <v>6.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,34 +826,34 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="Q3" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T3" t="n">
         <v>2.16</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.12</v>
-      </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="W3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X3" t="n">
         <v>10.5</v>
@@ -871,7 +871,7 @@
         <v>16</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -880,7 +880,7 @@
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="n">
         <v>25</v>
@@ -892,22 +892,22 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
+        <v>220</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>140</v>
+      </c>
+      <c r="AM3" t="n">
         <v>230</v>
       </c>
-      <c r="AK3" t="n">
-        <v>140</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>250</v>
-      </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="4">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1234,19 +1234,19 @@
         <v>1.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="T6" t="n">
         <v>1.01</v>
@@ -1333,12 +1333,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1369,19 +1369,19 @@
         <v>1.25</v>
       </c>
       <c r="O7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1480,10 +1480,10 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
         <v>2.62</v>
@@ -1513,22 +1513,22 @@
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S8" t="n">
         <v>2.58</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1540,10 +1540,10 @@
         <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
@@ -1561,7 +1561,7 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
@@ -1576,13 +1576,13 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>1.46</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
@@ -1627,7 +1627,7 @@
         <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
@@ -1762,10 +1762,10 @@
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="G11" t="n">
         <v>2.58</v>
@@ -1891,19 +1891,19 @@
         <v>3.85</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>15.5</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -1963,7 +1963,7 @@
         <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -2026,7 +2026,7 @@
         <v>2.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2038,40 +2038,40 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="T12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V12" t="n">
         <v>1.67</v>
       </c>
-      <c r="U12" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.68</v>
-      </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1000</v>
@@ -2119,10 +2119,10 @@
         <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
         <v>2.54</v>
@@ -2182,10 +2182,10 @@
         <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
@@ -2197,13 +2197,13 @@
         <v>1.92</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
         <v>1.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X13" t="n">
         <v>9.800000000000001</v>
@@ -2212,7 +2212,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>50</v>
@@ -2233,7 +2233,7 @@
         <v>970</v>
       </c>
       <c r="AG13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>970</v>
@@ -2287,10 +2287,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
@@ -2299,10 +2299,10 @@
         <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,34 +2314,34 @@
         <v>2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>
@@ -2353,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2365,7 +2365,7 @@
         <v>50</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -2449,19 +2449,19 @@
         <v>1.25</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P15" t="n">
         <v>1.24</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2560,19 +2560,19 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2596,10 +2596,10 @@
         <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
         <v>2.58</v>
@@ -2611,52 +2611,52 @@
         <v>1.64</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH16" t="n">
         <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
         <v>1000</v>
@@ -2683,103 +2683,103 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Zurich</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.69</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>1.77</v>
+        <v>2.46</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
-        <v>2.58</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
         <v>970</v>
@@ -2788,22 +2788,22 @@
         <v>970</v>
       </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,115 +2818,115 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G18" t="n">
-        <v>2.4</v>
+        <v>1000</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
-        <v>3.65</v>
+        <v>950</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.4</v>
+        <v>1.03</v>
       </c>
       <c r="O18" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W18" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2953,12 +2953,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2989,19 +2989,19 @@
         <v>1.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.02</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
         <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="R19" t="n">
         <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="T19" t="n">
         <v>1.01</v>
@@ -3088,16 +3088,16 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="G20" t="n">
         <v>1000</v>
@@ -3106,10 +3106,10 @@
         <v>1.04</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
@@ -3121,31 +3121,31 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>1.03</v>
+        <v>1.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="P20" t="n">
         <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.38</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
       </c>
       <c r="S20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
         <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.01</v>
       </c>
       <c r="W20" t="n">
         <v>1.01</v>
@@ -3208,7 +3208,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>FC Zurich</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.06</v>
+        <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>1.77</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>4.7</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.25</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.61</v>
       </c>
       <c r="S21" t="n">
-        <v>1.38</v>
+        <v>2.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="U21" t="n">
-        <v>1.01</v>
+        <v>2.36</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG21" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
@@ -3358,12 +3358,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -3394,19 +3394,19 @@
         <v>1.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>1.24</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3511,7 +3511,7 @@
         <v>6.8</v>
       </c>
       <c r="I23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3529,7 +3529,7 @@
         <v>3.75</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
         <v>1.96</v>
@@ -3556,7 +3556,7 @@
         <v>2.66</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3655,7 +3655,7 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3673,16 +3673,16 @@
         <v>1.82</v>
       </c>
       <c r="R24" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3790,19 +3790,19 @@
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
         <v>2.06</v>
@@ -3811,7 +3811,7 @@
         <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
@@ -3829,7 +3829,7 @@
         <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z25" t="n">
         <v>40</v>
@@ -3838,7 +3838,7 @@
         <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
         <v>9.800000000000001</v>
@@ -3859,7 +3859,7 @@
         <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
         <v>18</v>
@@ -3931,7 +3931,7 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.19</v>
@@ -3970,7 +3970,7 @@
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4069,19 +4069,19 @@
         <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="P27" t="n">
         <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="T27" t="n">
         <v>1.01</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
@@ -4225,7 +4225,7 @@
         <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
         <v>2.3</v>
@@ -4303,115 +4303,115 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kilmarnock</t>
+          <t>Dundee Utd</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Aberdeen</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.86</v>
+        <v>2.38</v>
       </c>
       <c r="G29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.05</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.25</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>2.96</v>
+        <v>4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>1.26</v>
+        <v>2.06</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>3.7</v>
+        <v>2.92</v>
       </c>
       <c r="T29" t="n">
-        <v>1.82</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="W29" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AF29" t="n">
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN29" t="n">
         <v>1000</v>
@@ -4438,121 +4438,121 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dundee Utd</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aberdeen</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.48</v>
+        <v>1.16</v>
       </c>
       <c r="G30" t="n">
-        <v>2.66</v>
+        <v>1.18</v>
       </c>
       <c r="H30" t="n">
-        <v>2.82</v>
+        <v>21</v>
       </c>
       <c r="I30" t="n">
+        <v>27</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>980</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>85</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>260</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>420</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN30" t="n">
         <v>3.1</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31">
@@ -4585,19 +4585,19 @@
         <v>1.53</v>
       </c>
       <c r="G31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4615,7 +4615,7 @@
         <v>2.16</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R31" t="n">
         <v>1.46</v>
@@ -4624,7 +4624,7 @@
         <v>2.74</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U31" t="n">
         <v>1.98</v>
@@ -4708,121 +4708,121 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Kilmarnock</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.16</v>
+        <v>2.84</v>
       </c>
       <c r="G32" t="n">
-        <v>1.18</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>2.64</v>
       </c>
       <c r="I32" t="n">
-        <v>27</v>
+        <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>9.6</v>
+        <v>2.86</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N32" t="n">
-        <v>7.6</v>
+        <v>2.96</v>
       </c>
       <c r="O32" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>1.26</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.37</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.88</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>2.16</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="V32" t="n">
-        <v>1.03</v>
+        <v>1.48</v>
       </c>
       <c r="W32" t="n">
-        <v>6.6</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="Z32" t="n">
-        <v>260</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB32" t="n">
         <v>12.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="AE32" t="n">
-        <v>430</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
-        <v>8.800000000000001</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH32" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>300</v>
+        <v>55</v>
       </c>
       <c r="AJ32" t="n">
-        <v>8.800000000000001</v>
+        <v>65</v>
       </c>
       <c r="AK32" t="n">
-        <v>13.5</v>
+        <v>44</v>
       </c>
       <c r="AL32" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>520</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
@@ -4870,40 +4870,40 @@
         <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q33" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T33" t="n">
         <v>1.56</v>
       </c>
-      <c r="R33" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.01</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>1.16</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -4990,7 +4990,7 @@
         <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H34" t="n">
         <v>2.02</v>
@@ -5011,34 +5011,34 @@
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S34" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="T34" t="n">
         <v>1.46</v>
       </c>
       <c r="U34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V34" t="n">
         <v>1.79</v>
       </c>
       <c r="W34" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X34" t="n">
         <v>30</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="n">
         <v>2.18</v>
@@ -5266,7 +5266,7 @@
         <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -5287,10 +5287,10 @@
         <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R36" t="n">
         <v>1.32</v>
@@ -5308,52 +5308,52 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="G37" t="n">
         <v>1.39</v>
@@ -5401,7 +5401,7 @@
         <v>9.4</v>
       </c>
       <c r="I37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
         <v>5.5</v>
@@ -5416,28 +5416,28 @@
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5.5</v>
+        <v>2.28</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P37" t="n">
-        <v>2.54</v>
+        <v>1.51</v>
       </c>
       <c r="Q37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R37" t="n">
         <v>1.51</v>
       </c>
-      <c r="R37" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S37" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="U37" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="V37" t="n">
         <v>1.09</v>
@@ -5446,58 +5446,58 @@
         <v>3.55</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z37" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA37" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AE37" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI37" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AO37" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38">
@@ -5557,7 +5557,7 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
@@ -5566,7 +5566,7 @@
         <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T38" t="n">
         <v>1.66</v>
@@ -5617,7 +5617,7 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK38" t="n">
         <v>17</v>
@@ -5662,40 +5662,40 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G39" t="n">
         <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="I39" t="n">
         <v>2.14</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
@@ -5704,16 +5704,16 @@
         <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="U39" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V39" t="n">
         <v>1.87</v>
       </c>
       <c r="W39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -5743,19 +5743,19 @@
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
         <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
         <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
         <v>55</v>
@@ -5764,10 +5764,10 @@
         <v>95</v>
       </c>
       <c r="AN39" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G40" t="n">
         <v>5.2</v>
@@ -5806,7 +5806,7 @@
         <v>1.79</v>
       </c>
       <c r="I40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5827,7 +5827,7 @@
         <v>1.29</v>
       </c>
       <c r="P40" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q40" t="n">
         <v>1.87</v>
@@ -5836,7 +5836,7 @@
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
         <v>1.83</v>
@@ -5851,7 +5851,7 @@
         <v>1.23</v>
       </c>
       <c r="X40" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y40" t="n">
         <v>9.199999999999999</v>
@@ -5863,7 +5863,7 @@
         <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="G42" t="n">
         <v>2.58</v>
@@ -6091,7 +6091,7 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.15</v>
+        <v>2.82</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="G43" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
         <v>3.65</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
@@ -6226,37 +6226,37 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P43" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="R43" t="n">
         <v>1.19</v>
       </c>
       <c r="S43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T43" t="n">
         <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
         <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="X43" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
         <v>9.6</v>
@@ -6268,25 +6268,25 @@
         <v>75</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
         <v>80</v>
@@ -6295,10 +6295,10 @@
         <v>40</v>
       </c>
       <c r="AK43" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
@@ -6307,7 +6307,7 @@
         <v>40</v>
       </c>
       <c r="AO43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="G44" t="n">
         <v>1.54</v>
@@ -6349,10 +6349,10 @@
         <v>9.4</v>
       </c>
       <c r="J44" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K44" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.45</v>
@@ -6367,22 +6367,22 @@
         <v>1.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U44" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="V44" t="n">
         <v>1.11</v>
@@ -6391,10 +6391,10 @@
         <v>2.84</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z44" t="n">
         <v>80</v>
@@ -6403,7 +6403,7 @@
         <v>390</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AC44" t="n">
         <v>11</v>
@@ -6418,7 +6418,7 @@
         <v>8.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH44" t="n">
         <v>32</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="G46" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="H46" t="n">
-        <v>5.7</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="K46" t="n">
         <v>4.2</v>
@@ -6628,25 +6628,25 @@
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N46" t="n">
-        <v>3.05</v>
+        <v>1.25</v>
       </c>
       <c r="O46" t="n">
         <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.08</v>
+        <v>1.35</v>
       </c>
       <c r="R46" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S46" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="T46" t="n">
         <v>1.8</v>
@@ -6655,64 +6655,604 @@
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W46" t="n">
-        <v>2.26</v>
+        <v>2.08</v>
       </c>
       <c r="X46" t="n">
         <v>970</v>
       </c>
       <c r="Y46" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Brazilian Serie A</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Vasco da Gama</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X48" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Internacional de Bogotá</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X49" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD49" t="n">
         <v>970</v>
       </c>
-      <c r="Z46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AC46" t="n">
+      <c r="AE49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF49" t="n">
         <v>970</v>
       </c>
-      <c r="AD46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG46" t="n">
+      <c r="AG49" t="n">
         <v>970</v>
       </c>
-      <c r="AH46" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>970</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>180</v>
+      <c r="AH49" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Juticalpa</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Real Espana</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -673,16 +673,16 @@
         <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,19 +691,19 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
         <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -727,7 +727,7 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>5.8</v>
       </c>
       <c r="G3" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,16 +826,16 @@
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
         <v>1.23</v>
@@ -844,31 +844,31 @@
         <v>4.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="U3" t="n">
         <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="W3" t="n">
         <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -877,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -904,10 +904,10 @@
         <v>230</v>
       </c>
       <c r="AN3" t="n">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="AO3" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1480,10 +1480,10 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.62</v>
@@ -1513,7 +1513,7 @@
         <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S8" t="n">
         <v>2.58</v>
@@ -1525,10 +1525,10 @@
         <v>2.54</v>
       </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>24</v>
@@ -1567,7 +1567,7 @@
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
         <v>28</v>
@@ -1576,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
         <v>18</v>
@@ -1618,7 +1618,7 @@
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.46</v>
+        <v>3.95</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
         <v>2.16</v>
@@ -1759,10 +1759,10 @@
         <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,31 +1780,31 @@
         <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1816,7 +1816,7 @@
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>11.5</v>
@@ -1843,10 +1843,10 @@
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
         <v>90</v>
@@ -1888,22 +1888,22 @@
         <v>2.58</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="K11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="U11" t="n">
         <v>1.65</v>
@@ -1942,7 +1942,7 @@
         <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1954,7 +1954,7 @@
         <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1969,7 +1969,7 @@
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
         <v>3.6</v>
@@ -2038,13 +2038,13 @@
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
         <v>2.02</v>
@@ -2053,76 +2053,76 @@
         <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2158,7 +2158,7 @@
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I13" t="n">
         <v>2.8</v>
@@ -2185,7 +2185,7 @@
         <v>1.59</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
@@ -2203,10 +2203,10 @@
         <v>1.55</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2236,16 +2236,16 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
         <v>2.74</v>
@@ -2296,7 +2296,7 @@
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2311,16 +2311,16 @@
         <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
         <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
@@ -2329,7 +2329,7 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
         <v>1.85</v>
@@ -2338,7 +2338,7 @@
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
         <v>10.5</v>
@@ -2353,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2389,7 +2389,7 @@
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
         <v>75</v>
@@ -2560,16 +2560,16 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.2</v>
@@ -2602,13 +2602,13 @@
         <v>1.48</v>
       </c>
       <c r="U16" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
@@ -2695,13 +2695,13 @@
         <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.35</v>
@@ -2713,13 +2713,13 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P17" t="n">
         <v>2.16</v>
@@ -2728,25 +2728,25 @@
         <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W17" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>970</v>
@@ -2755,31 +2755,31 @@
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
         <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ17" t="n">
         <v>970</v>
@@ -2791,13 +2791,13 @@
         <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -3235,7 +3235,7 @@
         <v>1.68</v>
       </c>
       <c r="G21" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="H21" t="n">
         <v>4.8</v>
@@ -3244,7 +3244,7 @@
         <v>5.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K21" t="n">
         <v>4.7</v>
@@ -3256,43 +3256,43 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
         <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.61</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X21" t="n">
         <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Z21" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA21" t="n">
         <v>130</v>
@@ -3310,7 +3310,7 @@
         <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AG21" t="n">
         <v>10.5</v>
@@ -3319,7 +3319,7 @@
         <v>970</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -3337,7 +3337,7 @@
         <v>7.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -3508,7 +3508,7 @@
         <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
         <v>7.2</v>
@@ -3526,7 +3526,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -3556,7 +3556,7 @@
         <v>2.66</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3655,7 +3655,7 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -3664,25 +3664,25 @@
         <v>4.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R24" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
         <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3721,7 +3721,7 @@
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>50</v>
@@ -3739,7 +3739,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO24" t="n">
         <v>40</v>
@@ -3790,7 +3790,7 @@
         <v>3.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
@@ -3817,7 +3817,7 @@
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.21</v>
@@ -3838,7 +3838,7 @@
         <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>8.6</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF25" t="n">
         <v>9.800000000000001</v>
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
@@ -3943,7 +3943,7 @@
         <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>2.44</v>
@@ -3970,7 +3970,7 @@
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
@@ -4198,91 +4198,91 @@
         <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.25</v>
+        <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>1.96</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
         <v>2.3</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN28" t="n">
         <v>12.5</v>
       </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -4315,16 +4315,16 @@
         <v>2.38</v>
       </c>
       <c r="G29" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
         <v>3.75</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4351,7 +4351,7 @@
         <v>1.41</v>
       </c>
       <c r="S29" t="n">
-        <v>2.92</v>
+        <v>1.72</v>
       </c>
       <c r="T29" t="n">
         <v>1.01</v>
@@ -4360,10 +4360,10 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X29" t="n">
         <v>1000</v>
@@ -4450,19 +4450,19 @@
         <v>1.16</v>
       </c>
       <c r="G30" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J30" t="n">
         <v>9.6</v>
       </c>
       <c r="K30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
         <v>1.22</v>
@@ -4471,16 +4471,16 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O30" t="n">
         <v>1.14</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R30" t="n">
         <v>1.87</v>
@@ -4492,13 +4492,13 @@
         <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
       </c>
       <c r="W30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X30" t="n">
         <v>980</v>
@@ -4507,7 +4507,7 @@
         <v>85</v>
       </c>
       <c r="Z30" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4522,7 +4522,7 @@
         <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="AF30" t="n">
         <v>8.800000000000001</v>
@@ -4534,7 +4534,7 @@
         <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.800000000000001</v>
@@ -4546,13 +4546,13 @@
         <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="AN30" t="n">
         <v>3.1</v>
       </c>
       <c r="AO30" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
@@ -4609,31 +4609,31 @@
         <v>4.4</v>
       </c>
       <c r="O31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S31" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
@@ -4645,7 +4645,7 @@
         <v>60</v>
       </c>
       <c r="AA31" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
@@ -4669,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="AI31" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
         <v>15</v>
@@ -4684,10 +4684,10 @@
         <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
         <v>2.64</v>
@@ -4729,7 +4729,7 @@
         <v>3.1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
@@ -4759,16 +4759,16 @@
         <v>3.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.48</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.47</v>
       </c>
       <c r="X32" t="n">
         <v>970</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.62</v>
+        <v>1.45</v>
       </c>
       <c r="G33" t="n">
         <v>2.1</v>
@@ -4870,28 +4870,28 @@
         <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
@@ -4900,10 +4900,10 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -4996,7 +4996,7 @@
         <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
@@ -5008,22 +5008,22 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="O34" t="n">
         <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R34" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S34" t="n">
         <v>2.26</v>
@@ -5032,10 +5032,10 @@
         <v>1.46</v>
       </c>
       <c r="U34" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V34" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5125,7 +5125,7 @@
         <v>2.4</v>
       </c>
       <c r="G35" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H35" t="n">
         <v>2.5</v>
@@ -5173,7 +5173,7 @@
         <v>1.39</v>
       </c>
       <c r="W35" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G36" t="n">
         <v>2.18</v>
@@ -5266,10 +5266,10 @@
         <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
@@ -5290,13 +5290,13 @@
         <v>1.84</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R36" t="n">
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
         <v>1.79</v>
@@ -5308,52 +5308,52 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G37" t="n">
         <v>1.39</v>
@@ -5401,7 +5401,7 @@
         <v>9.4</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J37" t="n">
         <v>5.5</v>
@@ -5410,94 +5410,94 @@
         <v>6.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
       </c>
       <c r="N37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S37" t="n">
         <v>2.28</v>
       </c>
-      <c r="O37" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.08</v>
-      </c>
       <c r="T37" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="V37" t="n">
         <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="X37" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA37" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD37" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ37" t="n">
         <v>13</v>
       </c>
-      <c r="AG37" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AK37" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AO37" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38">
@@ -5527,7 +5527,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G38" t="n">
         <v>1.8</v>
@@ -5542,7 +5542,7 @@
         <v>4.2</v>
       </c>
       <c r="K38" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L38" t="n">
         <v>1.29</v>
@@ -5566,7 +5566,7 @@
         <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T38" t="n">
         <v>1.66</v>
@@ -5575,7 +5575,7 @@
         <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W38" t="n">
         <v>2.24</v>
@@ -5599,7 +5599,7 @@
         <v>10.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="n">
         <v>55</v>
@@ -5629,7 +5629,7 @@
         <v>90</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO38" t="n">
         <v>50</v>
@@ -5701,7 +5701,7 @@
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T39" t="n">
         <v>1.75</v>
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
         <v>5.2</v>
@@ -5836,7 +5836,7 @@
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T40" t="n">
         <v>1.83</v>
@@ -5902,7 +5902,7 @@
         <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="G42" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H42" t="n">
         <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -6091,10 +6091,10 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>2.82</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P42" t="n">
         <v>1.73</v>
@@ -6106,7 +6106,7 @@
         <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
         <v>1.86</v>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W42" t="n">
         <v>1.64</v>
@@ -6172,7 +6172,7 @@
         <v>27</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -6205,16 +6205,16 @@
         <v>2.46</v>
       </c>
       <c r="G43" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
@@ -6226,10 +6226,10 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P43" t="n">
         <v>1.55</v>
@@ -6241,10 +6241,10 @@
         <v>1.19</v>
       </c>
       <c r="S43" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U43" t="n">
         <v>1.8</v>
@@ -6253,7 +6253,7 @@
         <v>1.38</v>
       </c>
       <c r="W43" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
@@ -6298,7 +6298,7 @@
         <v>36</v>
       </c>
       <c r="AL43" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM43" t="n">
         <v>210</v>
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="G44" t="n">
         <v>1.54</v>
@@ -6349,10 +6349,10 @@
         <v>9.4</v>
       </c>
       <c r="J44" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K44" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L44" t="n">
         <v>1.45</v>
@@ -6370,7 +6370,7 @@
         <v>1.81</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>2.08</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
@@ -6379,10 +6379,10 @@
         <v>3.75</v>
       </c>
       <c r="T44" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="V44" t="n">
         <v>1.11</v>
@@ -6391,10 +6391,10 @@
         <v>2.84</v>
       </c>
       <c r="X44" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
         <v>80</v>
@@ -6607,19 +6607,19 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="G46" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="I46" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="K46" t="n">
         <v>4.2</v>
@@ -6628,91 +6628,91 @@
         <v>1.01</v>
       </c>
       <c r="M46" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>1.25</v>
+        <v>2.76</v>
       </c>
       <c r="O46" t="n">
         <v>1.35</v>
       </c>
       <c r="P46" t="n">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.35</v>
+        <v>2.12</v>
       </c>
       <c r="R46" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="T46" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U46" t="n">
         <v>1.01</v>
       </c>
       <c r="V46" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="W46" t="n">
-        <v>2.08</v>
+        <v>2.36</v>
       </c>
       <c r="X46" t="n">
         <v>970</v>
       </c>
       <c r="Y46" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD46" t="n">
         <v>26</v>
       </c>
-      <c r="Z46" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>36</v>
-      </c>
       <c r="AE46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>13.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG46" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI46" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN46" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -6742,10 +6742,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="G47" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H47" t="n">
         <v>3.9</v>
@@ -6754,10 +6754,10 @@
         <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L47" t="n">
         <v>1.46</v>
@@ -6766,10 +6766,10 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>1.76</v>
+        <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P47" t="n">
         <v>1.75</v>
@@ -6778,76 +6778,76 @@
         <v>2.18</v>
       </c>
       <c r="R47" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X47" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO47" t="n">
         <v>65</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="48">
@@ -6907,19 +6907,19 @@
         <v>1.31</v>
       </c>
       <c r="P48" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q48" t="n">
         <v>1.92</v>
       </c>
       <c r="R48" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S48" t="n">
         <v>3.3</v>
       </c>
       <c r="T48" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U48" t="n">
         <v>2.22</v>
@@ -6970,7 +6970,7 @@
         <v>36</v>
       </c>
       <c r="AK48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL48" t="n">
         <v>40</v>
@@ -6982,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="AO48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G49" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K49" t="n">
         <v>3.15</v>
@@ -7036,34 +7036,34 @@
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O49" t="n">
         <v>1.52</v>
       </c>
       <c r="P49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="R49" t="n">
         <v>1.19</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T49" t="n">
         <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V49" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X49" t="n">
         <v>9</v>
@@ -7087,7 +7087,7 @@
         <v>970</v>
       </c>
       <c r="AE49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF49" t="n">
         <v>970</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="G2" t="n">
         <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,19 +691,19 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
         <v>3.4</v>
@@ -715,7 +715,7 @@
         <v>1.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="W2" t="n">
         <v>4.5</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,7 +805,7 @@
         <v>5.8</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H3" t="n">
         <v>1.72</v>
@@ -817,7 +817,7 @@
         <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -841,7 +841,7 @@
         <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T3" t="n">
         <v>2.2</v>
@@ -856,10 +856,10 @@
         <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z3" t="n">
         <v>9.6</v>
@@ -970,13 +970,13 @@
         <v>1.08</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>1.32</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1480,7 +1480,7 @@
         <v>2.78</v>
       </c>
       <c r="G8" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
         <v>2.6</v>
@@ -1510,13 +1510,13 @@
         <v>2.38</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R8" t="n">
         <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.57</v>
@@ -1528,7 +1528,7 @@
         <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X8" t="n">
         <v>22</v>
@@ -1549,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>24</v>
@@ -1615,19 +1615,19 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.94</v>
+        <v>2.8</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,22 +1750,22 @@
         <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -1774,19 +1774,19 @@
         <v>2.8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
         <v>1.62</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
         <v>2.02</v>
@@ -1795,13 +1795,13 @@
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
         <v>7.6</v>
@@ -1843,7 +1843,7 @@
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="n">
         <v>180</v>
@@ -1882,28 +1882,28 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>2.34</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,40 +1936,40 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1981,10 +1981,10 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2050,40 +2050,40 @@
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.67</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>20</v>
       </c>
       <c r="AA12" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>9.4</v>
@@ -2092,13 +2092,13 @@
         <v>14</v>
       </c>
       <c r="AE12" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF12" t="n">
         <v>30</v>
       </c>
-      <c r="AF12" t="n">
-        <v>32</v>
-      </c>
       <c r="AG12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
         <v>18</v>
@@ -2107,19 +2107,19 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO12" t="n">
         <v>21</v>
@@ -2158,16 +2158,16 @@
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I13" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2179,34 +2179,34 @@
         <v>2.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="n">
         <v>1.22</v>
       </c>
       <c r="S13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W13" t="n">
         <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
         <v>970</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G14" t="n">
         <v>2.74</v>
@@ -2296,46 +2296,46 @@
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W14" t="n">
         <v>1.58</v>
@@ -2350,7 +2350,7 @@
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="n">
         <v>8.6</v>
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
@@ -2374,25 +2374,25 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2560,19 +2560,19 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="H16" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
         <v>2.94</v>
       </c>
       <c r="J16" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,88 +2581,88 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T16" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="U16" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V16" t="n">
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AD16" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ16" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2719,25 +2719,25 @@
         <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
         <v>2.16</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
         <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
@@ -2764,7 +2764,7 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
         <v>970</v>
@@ -2791,7 +2791,7 @@
         <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
         <v>970</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="O18" t="n">
         <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -3241,7 +3241,7 @@
         <v>4.8</v>
       </c>
       <c r="I21" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
@@ -3271,16 +3271,16 @@
         <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U21" t="n">
         <v>2.42</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="W21" t="n">
         <v>2.3</v>
@@ -3289,7 +3289,7 @@
         <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
         <v>55</v>
@@ -3301,7 +3301,7 @@
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
@@ -3334,10 +3334,10 @@
         <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.59</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>7</v>
@@ -3520,7 +3520,7 @@
         <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
@@ -3529,13 +3529,13 @@
         <v>3.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R23" t="n">
         <v>1.36</v>
@@ -3544,19 +3544,19 @@
         <v>3.6</v>
       </c>
       <c r="T23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3568,13 +3568,13 @@
         <v>230</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
         <v>110</v>
@@ -3601,7 +3601,7 @@
         <v>40</v>
       </c>
       <c r="AM23" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN23" t="n">
         <v>9.6</v>
@@ -3655,34 +3655,34 @@
         <v>3.9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="R24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3691,58 +3691,58 @@
         <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G25" t="n">
         <v>1.78</v>
@@ -3799,7 +3799,7 @@
         <v>3.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.92</v>
@@ -3847,7 +3847,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
         <v>9.800000000000001</v>
@@ -3916,7 +3916,7 @@
         <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3934,25 +3934,25 @@
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="S26" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T26" t="n">
         <v>1.87</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3976,7 +3976,7 @@
         <v>11</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD26" t="n">
         <v>34</v>
@@ -3997,7 +3997,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO26" t="n">
         <v>120</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
@@ -4186,10 +4186,10 @@
         <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
@@ -4225,7 +4225,7 @@
         <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
         <v>2.3</v>
@@ -4258,7 +4258,7 @@
         <v>11</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH28" t="n">
         <v>22</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4333,91 +4333,91 @@
         <v>1.36</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O29" t="n">
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
-        <v>1.72</v>
+        <v>2.98</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN29" t="n">
         <v>19</v>
       </c>
-      <c r="Z29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AF29" t="n">
+      <c r="AO29" t="n">
         <v>25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4453,7 +4453,7 @@
         <v>1.17</v>
       </c>
       <c r="H30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" t="n">
         <v>24</v>
@@ -4462,7 +4462,7 @@
         <v>9.6</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L30" t="n">
         <v>1.22</v>
@@ -4474,16 +4474,16 @@
         <v>7.4</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
@@ -4492,7 +4492,7 @@
         <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
@@ -4501,7 +4501,7 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="Y30" t="n">
         <v>85</v>
@@ -4513,46 +4513,46 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AD30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>15.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
         <v>240</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO30" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -4633,10 +4633,10 @@
         <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
         <v>25</v>
@@ -4666,7 +4666,7 @@
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
         <v>80</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H32" t="n">
         <v>2.64</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
@@ -4738,91 +4738,91 @@
         <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P32" t="n">
-        <v>1.26</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
         <v>2.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="W32" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y32" t="n">
         <v>970</v>
       </c>
-      <c r="Y32" t="n">
-        <v>13</v>
-      </c>
       <c r="Z32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="n">
         <v>21</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AG32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI32" t="n">
         <v>50</v>
       </c>
-      <c r="AB32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
         <v>55</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>65</v>
-      </c>
       <c r="AK32" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -4852,10 +4852,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>3.9</v>
@@ -4885,7 +4885,7 @@
         <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
@@ -4897,13 +4897,13 @@
         <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V33" t="n">
         <v>1.17</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -4927,7 +4927,7 @@
         <v>28</v>
       </c>
       <c r="AE33" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="n">
         <v>17</v>
@@ -4993,10 +4993,10 @@
         <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I34" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
@@ -5008,91 +5008,91 @@
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>2.16</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.16</v>
+        <v>2.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="S34" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="U34" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="V34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
       </c>
       <c r="X34" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
         <v>30</v>
       </c>
-      <c r="Y34" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA34" t="n">
+      <c r="AG34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK34" t="n">
         <v>36</v>
       </c>
-      <c r="AB34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AL34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN34" t="n">
         <v>28</v>
       </c>
-      <c r="AF34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO34" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -5122,58 +5122,58 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="H35" t="n">
-        <v>2.5</v>
+        <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>2.92</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
         <v>1.37</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T35" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="W35" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>970</v>
@@ -5182,52 +5182,52 @@
         <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB35" t="n">
         <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
         <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF35" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AG35" t="n">
         <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AL35" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36">
@@ -5260,13 +5260,13 @@
         <v>1.95</v>
       </c>
       <c r="G36" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -5275,7 +5275,7 @@
         <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5296,13 +5296,13 @@
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V36" t="n">
         <v>1.27</v>
@@ -5332,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
         <v>15.5</v>
@@ -5344,7 +5344,7 @@
         <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
         <v>30</v>
@@ -5398,7 +5398,7 @@
         <v>1.39</v>
       </c>
       <c r="H37" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="I37" t="n">
         <v>11.5</v>
@@ -5425,16 +5425,16 @@
         <v>2.54</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R37" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S37" t="n">
         <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
@@ -5443,19 +5443,19 @@
         <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z37" t="n">
         <v>120</v>
       </c>
       <c r="AA37" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AB37" t="n">
         <v>12.5</v>
@@ -5467,7 +5467,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="n">
         <v>11</v>
@@ -5479,7 +5479,7 @@
         <v>32</v>
       </c>
       <c r="AI37" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
@@ -5488,16 +5488,16 @@
         <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
         <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38">
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
         <v>4.7</v>
@@ -5557,7 +5557,7 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
@@ -5575,7 +5575,7 @@
         <v>2.32</v>
       </c>
       <c r="V38" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
         <v>2.24</v>
@@ -5665,16 +5665,16 @@
         <v>3.45</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I39" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K39" t="n">
         <v>4.1</v>
@@ -5695,25 +5695,25 @@
         <v>2.02</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W39" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
@@ -5743,7 +5743,7 @@
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH39" t="n">
         <v>18.5</v>
@@ -5767,7 +5767,7 @@
         <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G40" t="n">
         <v>5.2</v>
@@ -5806,7 +5806,7 @@
         <v>1.79</v>
       </c>
       <c r="I40" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5830,13 +5830,13 @@
         <v>2.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
         <v>1.83</v>
@@ -5860,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AB40" t="n">
         <v>18.5</v>
@@ -5872,7 +5872,7 @@
         <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
         <v>38</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="G42" t="n">
         <v>2.56</v>
@@ -6076,7 +6076,7 @@
         <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="J42" t="n">
         <v>3.1</v>
@@ -6091,13 +6091,13 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O42" t="n">
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q42" t="n">
         <v>2.18</v>
@@ -6115,7 +6115,7 @@
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W42" t="n">
         <v>1.64</v>
@@ -6214,7 +6214,7 @@
         <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
@@ -6226,28 +6226,28 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P43" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q43" t="n">
         <v>2.58</v>
       </c>
       <c r="R43" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T43" t="n">
         <v>2.06</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V43" t="n">
         <v>1.38</v>
@@ -6262,7 +6262,7 @@
         <v>9.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="n">
         <v>75</v>
@@ -6283,7 +6283,7 @@
         <v>15</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
         <v>23</v>
@@ -6304,7 +6304,7 @@
         <v>210</v>
       </c>
       <c r="AN43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO43" t="n">
         <v>75</v>
@@ -6367,7 +6367,7 @@
         <v>1.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q44" t="n">
         <v>2.08</v>
@@ -6631,16 +6631,16 @@
         <v>1.08</v>
       </c>
       <c r="N46" t="n">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P46" t="n">
         <v>1.75</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R46" t="n">
         <v>1.28</v>
@@ -6649,10 +6649,10 @@
         <v>3.9</v>
       </c>
       <c r="T46" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="U46" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
         <v>1.16</v>
@@ -6691,7 +6691,7 @@
         <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
@@ -6742,13 +6742,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I47" t="n">
         <v>4.3</v>
@@ -6757,7 +6757,7 @@
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L47" t="n">
         <v>1.46</v>
@@ -6781,7 +6781,7 @@
         <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T47" t="n">
         <v>1.9</v>
@@ -6790,7 +6790,7 @@
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W47" t="n">
         <v>1.79</v>
@@ -6877,7 +6877,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G48" t="n">
         <v>2.64</v>
@@ -6886,7 +6886,7 @@
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>3.3</v>
@@ -6925,7 +6925,7 @@
         <v>2.22</v>
       </c>
       <c r="V48" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W48" t="n">
         <v>1.6</v>
@@ -6952,7 +6952,7 @@
         <v>13.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF48" t="n">
         <v>17</v>
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="G49" t="n">
         <v>2.88</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J49" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K49" t="n">
         <v>3.15</v>
@@ -7039,10 +7039,10 @@
         <v>2.66</v>
       </c>
       <c r="O49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P49" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q49" t="n">
         <v>2.58</v>
@@ -7054,13 +7054,13 @@
         <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U49" t="n">
         <v>1.81</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W49" t="n">
         <v>1.53</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
         <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -685,7 +685,7 @@
         <v>6.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,25 +694,25 @@
         <v>3.7</v>
       </c>
       <c r="O2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.33</v>
       </c>
-      <c r="P2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.34</v>
-      </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>2.78</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
@@ -721,46 +721,46 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>240</v>
+        <v>310</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
         <v>6.6</v>
       </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>1.72</v>
@@ -820,25 +820,25 @@
         <v>3.75</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
         <v>2.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P3" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>4.7</v>
@@ -847,7 +847,7 @@
         <v>2.2</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
         <v>2.22</v>
@@ -856,7 +856,7 @@
         <v>1.17</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>6.4</v>
@@ -877,13 +877,13 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
         <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH3" t="n">
         <v>27</v>
@@ -892,22 +892,22 @@
         <v>55</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="AK3" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AL3" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AN3" t="n">
         <v>240</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="4">
@@ -952,22 +952,22 @@
         <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -1087,13 +1087,13 @@
         <v>1.02</v>
       </c>
       <c r="K5" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>1.25</v>
@@ -1207,28 +1207,28 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>2.02</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>2.56</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
         <v>1.25</v>
@@ -1249,16 +1249,16 @@
         <v>1.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1357,16 +1357,16 @@
         <v>1.02</v>
       </c>
       <c r="K7" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
         <v>1.01</v>
@@ -1486,7 +1486,7 @@
         <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
@@ -1495,7 +1495,7 @@
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1504,10 +1504,10 @@
         <v>5.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.66</v>
@@ -1516,16 +1516,16 @@
         <v>1.56</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
         <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W8" t="n">
         <v>1.54</v>
@@ -1540,7 +1540,7 @@
         <v>19.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
         <v>16</v>
@@ -1552,7 +1552,7 @@
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF8" t="n">
         <v>22</v>
@@ -1561,13 +1561,13 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AK8" t="n">
         <v>28</v>
@@ -1579,7 +1579,7 @@
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AO8" t="n">
         <v>15.5</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="K9" t="n">
         <v>3.05</v>
@@ -1645,7 +1645,7 @@
         <v>1.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,43 +1747,43 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>4.8</v>
@@ -1795,10 +1795,10 @@
         <v>1.86</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
@@ -1813,7 +1813,7 @@
         <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>7.6</v>
@@ -1828,7 +1828,7 @@
         <v>970</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
         <v>970</v>
@@ -1846,13 +1846,13 @@
         <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
@@ -1891,7 +1891,7 @@
         <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>14.5</v>
@@ -1966,13 +1966,13 @@
         <v>13</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
         <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2035,7 +2035,7 @@
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,37 +2047,37 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
         <v>970</v>
@@ -2086,25 +2086,25 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AE12" t="n">
         <v>970</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AJ12" t="n">
         <v>60</v>
@@ -2116,13 +2116,13 @@
         <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I13" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
@@ -2170,25 +2170,25 @@
         <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
         <v>4.7</v>
@@ -2197,22 +2197,22 @@
         <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W13" t="n">
         <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
         <v>970</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
         <v>13</v>
@@ -2230,13 +2230,13 @@
         <v>970</v>
       </c>
       <c r="AF13" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>60</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
         <v>2.74</v>
@@ -2305,43 +2305,43 @@
         <v>3.15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="R14" t="n">
         <v>1.22</v>
       </c>
       <c r="S14" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="T14" t="n">
         <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y14" t="n">
         <v>9.800000000000001</v>
@@ -2350,10 +2350,10 @@
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC14" t="n">
         <v>7.4</v>
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
@@ -2374,25 +2374,25 @@
         <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AK14" t="n">
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2560,10 +2560,10 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="I16" t="n">
         <v>2.94</v>
@@ -2575,7 +2575,7 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2584,16 +2584,16 @@
         <v>5.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q16" t="n">
         <v>1.57</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
         <v>2.38</v>
@@ -2605,19 +2605,19 @@
         <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
         <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>970</v>
@@ -2641,10 +2641,10 @@
         <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
         <v>970</v>
@@ -2662,7 +2662,7 @@
         <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
         <v>2.4</v>
@@ -2701,10 +2701,10 @@
         <v>3.35</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2719,16 +2719,16 @@
         <v>4.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
         <v>2.8</v>
@@ -2737,7 +2737,7 @@
         <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
         <v>1.37</v>
@@ -2746,10 +2746,10 @@
         <v>1.72</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
@@ -2761,7 +2761,7 @@
         <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
         <v>15.5</v>
@@ -2770,31 +2770,31 @@
         <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>970</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>970</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
         <v>70</v>
       </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
         <v>970</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.04</v>
+        <v>1.4</v>
       </c>
       <c r="G18" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
-        <v>1.04</v>
+        <v>5.9</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>950</v>
+        <v>5.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>1.26</v>
+        <v>2.04</v>
       </c>
       <c r="O18" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.26</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S18" t="n">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2881,55 +2881,55 @@
         <v>1.01</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2974,25 +2974,25 @@
         <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K19" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O19" t="n">
         <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q19" t="n">
         <v>1.37</v>
@@ -3097,28 +3097,28 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.06</v>
+        <v>3.9</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3.05</v>
       </c>
       <c r="K20" t="n">
-        <v>950</v>
+        <v>4.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
         <v>1.25</v>
@@ -3154,34 +3154,34 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="G21" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J21" t="n">
         <v>4.3</v>
       </c>
       <c r="K21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
@@ -3265,40 +3265,40 @@
         <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
         <v>2.38</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V21" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W21" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>11</v>
@@ -3310,22 +3310,22 @@
         <v>55</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
         <v>50</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>27</v>
@@ -3337,7 +3337,7 @@
         <v>7.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -3382,13 +3382,13 @@
         <v>1.02</v>
       </c>
       <c r="K22" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>1.25</v>
@@ -3520,13 +3520,13 @@
         <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
@@ -3535,13 +3535,13 @@
         <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T23" t="n">
         <v>2.08</v>
@@ -3556,7 +3556,7 @@
         <v>2.68</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3568,7 +3568,7 @@
         <v>230</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC23" t="n">
         <v>9.199999999999999</v>
@@ -3577,10 +3577,10 @@
         <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
@@ -3664,7 +3664,7 @@
         <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P24" t="n">
         <v>2.06</v>
@@ -3679,7 +3679,7 @@
         <v>3.35</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U24" t="n">
         <v>2.18</v>
@@ -3691,7 +3691,7 @@
         <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y24" t="n">
         <v>15.5</v>
@@ -3703,7 +3703,7 @@
         <v>85</v>
       </c>
       <c r="AB24" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
         <v>8.199999999999999</v>
@@ -3730,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -3787,7 +3787,7 @@
         <v>3.85</v>
       </c>
       <c r="K25" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3829,7 +3829,7 @@
         <v>13.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
         <v>40</v>
@@ -3838,10 +3838,10 @@
         <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
@@ -3871,7 +3871,7 @@
         <v>38</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN25" t="n">
         <v>12</v>
@@ -3916,7 +3916,7 @@
         <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3937,22 +3937,22 @@
         <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="S26" t="n">
         <v>2.42</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3964,10 +3964,10 @@
         <v>26</v>
       </c>
       <c r="Y26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
         <v>320</v>
@@ -3997,7 +3997,7 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4057,25 +4057,25 @@
         <v>1.02</v>
       </c>
       <c r="K27" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>1.25</v>
+        <v>2.42</v>
       </c>
       <c r="O27" t="n">
-        <v>1.02</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
@@ -4084,16 +4084,16 @@
         <v>1.47</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
         <v>1.76</v>
@@ -4186,22 +4186,22 @@
         <v>5.3</v>
       </c>
       <c r="I28" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O28" t="n">
         <v>1.32</v>
@@ -4210,7 +4210,7 @@
         <v>1.86</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.33</v>
@@ -4219,19 +4219,19 @@
         <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W28" t="n">
         <v>2.3</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
@@ -4249,7 +4249,7 @@
         <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>85</v>
@@ -4261,7 +4261,7 @@
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>85</v>
@@ -4270,7 +4270,7 @@
         <v>970</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL28" t="n">
         <v>40</v>
@@ -4312,25 +4312,25 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4360,13 +4360,13 @@
         <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
         <v>1.61</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
         <v>14</v>
@@ -4375,13 +4375,13 @@
         <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB29" t="n">
         <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
         <v>13.5</v>
@@ -4390,10 +4390,10 @@
         <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH29" t="n">
         <v>16.5</v>
@@ -4405,7 +4405,7 @@
         <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
         <v>36</v>
@@ -4414,7 +4414,7 @@
         <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
         <v>25</v>
@@ -4453,7 +4453,7 @@
         <v>1.17</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I30" t="n">
         <v>24</v>
@@ -4471,7 +4471,7 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O30" t="n">
         <v>1.13</v>
@@ -4480,13 +4480,13 @@
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R30" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T30" t="n">
         <v>2.16</v>
@@ -4501,28 +4501,28 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="Y30" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="n">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
@@ -4531,19 +4531,19 @@
         <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK30" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
         <v>240</v>
@@ -4552,7 +4552,7 @@
         <v>3.15</v>
       </c>
       <c r="AO30" t="n">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G31" t="n">
         <v>1.66</v>
@@ -4591,13 +4591,13 @@
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
@@ -4612,55 +4612,55 @@
         <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q31" t="n">
         <v>1.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S31" t="n">
         <v>2.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
         <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="n">
         <v>60</v>
       </c>
       <c r="AA31" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB31" t="n">
         <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
         <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
@@ -4669,10 +4669,10 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
         <v>17</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I32" t="n">
         <v>2.78</v>
@@ -4732,16 +4732,16 @@
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L32" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.37</v>
@@ -4750,37 +4750,37 @@
         <v>1.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R32" t="n">
         <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T32" t="n">
         <v>1.8</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
         <v>1.56</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="n">
         <v>970</v>
@@ -4789,16 +4789,16 @@
         <v>8</v>
       </c>
       <c r="AD32" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
         <v>970</v>
@@ -4852,58 +4852,58 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="H33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J33" t="n">
         <v>3.9</v>
       </c>
-      <c r="I33" t="n">
-        <v>7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K33" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="U33" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
         <v>29</v>
@@ -4993,10 +4993,10 @@
         <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
@@ -5005,7 +5005,7 @@
         <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -5017,25 +5017,25 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="R34" t="n">
         <v>1.56</v>
       </c>
       <c r="S34" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U34" t="n">
         <v>2.42</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
@@ -5053,7 +5053,7 @@
         <v>27</v>
       </c>
       <c r="AB34" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="n">
         <v>10</v>
@@ -5080,7 +5080,7 @@
         <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL34" t="n">
         <v>40</v>
@@ -5092,7 +5092,7 @@
         <v>28</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="35">
@@ -5131,16 +5131,16 @@
         <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5161,7 +5161,7 @@
         <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="T35" t="n">
         <v>1.83</v>
@@ -5170,16 +5170,16 @@
         <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="Z35" t="n">
         <v>23</v>
@@ -5188,7 +5188,7 @@
         <v>60</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
         <v>9</v>
@@ -5269,13 +5269,13 @@
         <v>4.7</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5296,7 +5296,7 @@
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
@@ -5311,58 +5311,58 @@
         <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
         <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI36" t="n">
         <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -5395,7 +5395,7 @@
         <v>1.32</v>
       </c>
       <c r="G37" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H37" t="n">
         <v>9.6</v>
@@ -5410,7 +5410,7 @@
         <v>6.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -5422,7 +5422,7 @@
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q37" t="n">
         <v>1.52</v>
@@ -5434,13 +5434,13 @@
         <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W37" t="n">
         <v>3.55</v>
@@ -5464,7 +5464,7 @@
         <v>16</v>
       </c>
       <c r="AD37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AE37" t="n">
         <v>170</v>
@@ -5476,7 +5476,7 @@
         <v>12.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI37" t="n">
         <v>130</v>
@@ -5494,7 +5494,7 @@
         <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AO37" t="n">
         <v>190</v>
@@ -5527,25 +5527,25 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="M38" t="n">
         <v>1.04</v>
@@ -5557,22 +5557,22 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R38" t="n">
         <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T38" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U38" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V38" t="n">
         <v>1.25</v>
@@ -5590,7 +5590,7 @@
         <v>42</v>
       </c>
       <c r="AA38" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB38" t="n">
         <v>11.5</v>
@@ -5617,7 +5617,7 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="n">
         <v>17</v>
@@ -5626,7 +5626,7 @@
         <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
         <v>8.6</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I39" t="n">
         <v>2.16</v>
       </c>
       <c r="J39" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5698,7 +5698,7 @@
         <v>1.86</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
         <v>3.2</v>
@@ -5713,61 +5713,61 @@
         <v>1.86</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AB39" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC39" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD39" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AF39" t="n">
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH39" t="n">
         <v>18.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ39" t="n">
         <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -5815,13 +5815,13 @@
         <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.29</v>
@@ -5839,7 +5839,7 @@
         <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U40" t="n">
         <v>2.14</v>
@@ -5872,7 +5872,7 @@
         <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF40" t="n">
         <v>38</v>
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q41" t="n">
         <v>1.3</v>
@@ -6079,7 +6079,7 @@
         <v>3.45</v>
       </c>
       <c r="J42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K42" t="n">
         <v>3.35</v>
@@ -6097,7 +6097,7 @@
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q42" t="n">
         <v>2.18</v>
@@ -6106,7 +6106,7 @@
         <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
         <v>1.86</v>
@@ -6121,7 +6121,7 @@
         <v>1.64</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6205,28 +6205,28 @@
         <v>2.46</v>
       </c>
       <c r="G43" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
         <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K43" t="n">
         <v>3.25</v>
       </c>
       <c r="L43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M43" t="n">
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
         <v>1.52</v>
@@ -6241,25 +6241,25 @@
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
         <v>1.81</v>
       </c>
       <c r="V43" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z43" t="n">
         <v>22</v>
@@ -6268,13 +6268,13 @@
         <v>75</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
         <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>55</v>
@@ -6289,10 +6289,10 @@
         <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK43" t="n">
         <v>36</v>
@@ -6301,7 +6301,7 @@
         <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
         <v>38</v>
@@ -6340,25 +6340,25 @@
         <v>1.49</v>
       </c>
       <c r="G44" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H44" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J44" t="n">
         <v>4.3</v>
       </c>
       <c r="K44" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="L44" t="n">
         <v>1.45</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
         <v>3.35</v>
@@ -6367,16 +6367,16 @@
         <v>1.37</v>
       </c>
       <c r="P44" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R44" t="n">
         <v>1.29</v>
       </c>
       <c r="S44" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T44" t="n">
         <v>2.24</v>
@@ -6385,22 +6385,22 @@
         <v>1.68</v>
       </c>
       <c r="V44" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W44" t="n">
         <v>2.84</v>
       </c>
       <c r="X44" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z44" t="n">
         <v>80</v>
       </c>
       <c r="AA44" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB44" t="n">
         <v>7</v>
@@ -6412,7 +6412,7 @@
         <v>34</v>
       </c>
       <c r="AE44" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF44" t="n">
         <v>8.4</v>
@@ -6427,10 +6427,10 @@
         <v>180</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="n">
         <v>50</v>
@@ -6442,7 +6442,7 @@
         <v>10.5</v>
       </c>
       <c r="AO44" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45">
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="G46" t="n">
         <v>1.73</v>
       </c>
       <c r="H46" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J46" t="n">
         <v>3.7</v>
       </c>
       <c r="K46" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L46" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6637,22 +6637,22 @@
         <v>1.37</v>
       </c>
       <c r="P46" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
         <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T46" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V46" t="n">
         <v>1.16</v>
@@ -6685,7 +6685,7 @@
         <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
         <v>970</v>
@@ -6712,7 +6712,7 @@
         <v>970</v>
       </c>
       <c r="AO46" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47">
@@ -6760,7 +6760,7 @@
         <v>3.4</v>
       </c>
       <c r="L47" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
@@ -6769,10 +6769,10 @@
         <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q47" t="n">
         <v>2.18</v>
@@ -6781,16 +6781,16 @@
         <v>1.28</v>
       </c>
       <c r="S47" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V47" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W47" t="n">
         <v>1.79</v>
@@ -6805,7 +6805,7 @@
         <v>29</v>
       </c>
       <c r="AA47" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AB47" t="n">
         <v>8.6</v>
@@ -6817,16 +6817,16 @@
         <v>17</v>
       </c>
       <c r="AE47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF47" t="n">
         <v>13.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI47" t="n">
         <v>70</v>
@@ -6844,10 +6844,10 @@
         <v>140</v>
       </c>
       <c r="AN47" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AO47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48">
@@ -6895,7 +6895,7 @@
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -6904,19 +6904,19 @@
         <v>3.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q48" t="n">
         <v>1.92</v>
       </c>
       <c r="R48" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T48" t="n">
         <v>1.71</v>
@@ -6982,7 +6982,7 @@
         <v>22</v>
       </c>
       <c r="AO48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -7012,61 +7012,61 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G49" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="K49" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="L49" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="O49" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P49" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R49" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S49" t="n">
         <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U49" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="V49" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X49" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
         <v>10.5</v>
@@ -7078,13 +7078,13 @@
         <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE49" t="n">
         <v>55</v>
@@ -7093,28 +7093,28 @@
         <v>970</v>
       </c>
       <c r="AG49" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
         <v>80</v>
       </c>
       <c r="AJ49" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK49" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL49" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN49" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO49" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G2" t="n">
         <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -700,19 +700,19 @@
         <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
@@ -724,19 +724,19 @@
         <v>19.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="Z2" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG2" t="n">
         <v>13</v>
@@ -754,10 +754,10 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
         <v>22</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.8</v>
+        <v>1.62</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P3" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="S3" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="V3" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,91 +937,91 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>2.24</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.95</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.94</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.09</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>2.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.02</v>
+        <v>2.78</v>
       </c>
       <c r="K5" t="n">
-        <v>970</v>
+        <v>3.35</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="P5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R5" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.37</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="G6" t="n">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>2.56</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>9.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>1.25</v>
+        <v>2.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.38</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.38</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,109 +1342,109 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>2.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>3.45</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>970</v>
+        <v>3.55</v>
       </c>
       <c r="L7" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.62</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="P7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
         <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.78</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.64</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
@@ -1507,82 +1507,82 @@
         <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
         <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z8" t="n">
         <v>22</v>
       </c>
-      <c r="Y8" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AA8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>38</v>
       </c>
-      <c r="AB8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AK8" t="n">
         <v>25</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>28</v>
       </c>
       <c r="AL8" t="n">
         <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO8" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.46</v>
@@ -1771,16 +1771,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
@@ -1789,7 +1789,7 @@
         <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
@@ -1798,13 +1798,13 @@
         <v>1.76</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1885,7 +1885,7 @@
         <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.95</v>
@@ -1897,7 +1897,7 @@
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
@@ -1960,19 +1960,19 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -2023,19 +2023,19 @@
         <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.35</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2047,16 +2047,16 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2065,16 +2065,16 @@
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W12" t="n">
         <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
         <v>1000</v>
@@ -2086,13 +2086,13 @@
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2101,7 +2101,7 @@
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI12" t="n">
         <v>970</v>
@@ -2110,19 +2110,19 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
         <v>970</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="G13" t="n">
         <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I13" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J13" t="n">
         <v>2.94</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="L13" t="n">
         <v>1.43</v>
@@ -2176,64 +2176,64 @@
         <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="P13" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
         <v>1.96</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="W13" t="n">
         <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2242,7 +2242,7 @@
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK13" t="n">
         <v>50</v>
@@ -2251,13 +2251,13 @@
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
         <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2287,52 +2287,52 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G14" t="n">
         <v>2.74</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.05</v>
       </c>
-      <c r="K14" t="n">
-        <v>3.15</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.8</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
         <v>1.42</v>
@@ -2341,22 +2341,22 @@
         <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>15</v>
@@ -2371,10 +2371,10 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
@@ -2383,16 +2383,16 @@
         <v>970</v>
       </c>
       <c r="AL14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.34</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>6.8</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,22 +2446,22 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.41</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2563,7 +2563,7 @@
         <v>2.54</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
         <v>2.94</v>
@@ -2575,7 +2575,7 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2596,7 +2596,7 @@
         <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
         <v>1.52</v>
@@ -2605,64 +2605,64 @@
         <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
         <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF16" t="n">
         <v>24</v>
       </c>
-      <c r="AA16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>970</v>
-      </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN16" t="n">
         <v>15</v>
       </c>
-      <c r="AI16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>13</v>
-      </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2731,22 +2731,22 @@
         <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T17" t="n">
         <v>1.63</v>
       </c>
       <c r="U17" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>16.5</v>
@@ -2755,16 +2755,16 @@
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="n">
         <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE17" t="n">
         <v>970</v>
@@ -2788,7 +2788,7 @@
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
         <v>70</v>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="I18" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>2.04</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.28</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>2.32</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.04</v>
+        <v>2.86</v>
       </c>
       <c r="G19" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="I19" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.01</v>
+        <v>2.76</v>
       </c>
       <c r="K19" t="n">
-        <v>970</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>1.26</v>
+        <v>2.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R19" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q19" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S19" t="n">
-        <v>1.37</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G20" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>3.95</v>
       </c>
       <c r="L20" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>1.25</v>
+        <v>2.86</v>
       </c>
       <c r="O20" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S20" t="n">
-        <v>1.38</v>
+        <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
@@ -3166,10 +3166,10 @@
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
         <v>970</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="H21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3256,46 +3256,46 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
         <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="T21" t="n">
         <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V21" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3304,40 +3304,40 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
         <v>27</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="G22" t="n">
         <v>1000</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="I22" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="P22" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.4</v>
+        <v>2.08</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G23" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>7</v>
@@ -3526,13 +3526,13 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="O23" t="n">
         <v>1.34</v>
       </c>
       <c r="P23" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q23" t="n">
         <v>2.04</v>
@@ -3541,7 +3541,7 @@
         <v>1.35</v>
       </c>
       <c r="S23" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T23" t="n">
         <v>2.08</v>
@@ -3553,7 +3553,7 @@
         <v>1.16</v>
       </c>
       <c r="W23" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="X23" t="n">
         <v>14.5</v>
@@ -3574,10 +3574,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
         <v>8.4</v>
@@ -3592,7 +3592,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
@@ -3604,7 +3604,7 @@
         <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO23" t="n">
         <v>150</v>
@@ -3649,10 +3649,10 @@
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.9</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3682,7 +3682,7 @@
         <v>1.78</v>
       </c>
       <c r="U24" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
         <v>1.32</v>
@@ -3691,7 +3691,7 @@
         <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y24" t="n">
         <v>15.5</v>
@@ -3712,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF24" t="n">
         <v>12</v>
@@ -3736,7 +3736,7 @@
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN24" t="n">
         <v>13.5</v>
@@ -3775,7 +3775,7 @@
         <v>1.76</v>
       </c>
       <c r="G25" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="H25" t="n">
         <v>5.6</v>
@@ -3784,7 +3784,7 @@
         <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K25" t="n">
         <v>3.95</v>
@@ -3802,7 +3802,7 @@
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
         <v>2.06</v>
@@ -3916,7 +3916,7 @@
         <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3940,7 +3940,7 @@
         <v>2.74</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
         <v>1.68</v>
@@ -3952,7 +3952,7 @@
         <v>1.86</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3991,13 +3991,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>95</v>
       </c>
       <c r="AJ26" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>13</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO26" t="n">
         <v>120</v>
@@ -4042,58 +4042,58 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.04</v>
+        <v>2.54</v>
       </c>
       <c r="G27" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="I27" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="J27" t="n">
-        <v>1.02</v>
+        <v>2.66</v>
       </c>
       <c r="K27" t="n">
-        <v>970</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.47</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.52</v>
-      </c>
       <c r="Q27" t="n">
-        <v>2.06</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>1.47</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,10 +4177,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G28" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="H28" t="n">
         <v>5.3</v>
@@ -4189,25 +4189,25 @@
         <v>5.7</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q28" t="n">
         <v>1.96</v>
@@ -4228,10 +4228,10 @@
         <v>1.21</v>
       </c>
       <c r="W28" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
@@ -4252,7 +4252,7 @@
         <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
         <v>970</v>
@@ -4318,7 +4318,7 @@
         <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
@@ -4330,7 +4330,7 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4360,64 +4360,64 @@
         <v>2.28</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="n">
         <v>22</v>
       </c>
-      <c r="AA29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK29" t="n">
         <v>32</v>
       </c>
-      <c r="AF29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>26</v>
-      </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AO29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
         <v>10.5</v>
@@ -4480,13 +4480,13 @@
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T30" t="n">
         <v>2.16</v>
@@ -4501,10 +4501,10 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="Y30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z30" t="n">
         <v>240</v>
@@ -4513,37 +4513,37 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC30" t="n">
         <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="n">
         <v>390</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="n">
         <v>270</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM30" t="n">
         <v>240</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
         <v>4.8</v>
@@ -4624,7 +4624,7 @@
         <v>2.8</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
@@ -4636,10 +4636,10 @@
         <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Z31" t="n">
         <v>60</v>
@@ -4669,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="n">
         <v>15.5</v>
@@ -4684,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO31" t="n">
         <v>120</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="G32" t="n">
         <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I32" t="n">
         <v>2.78</v>
@@ -4732,19 +4732,19 @@
         <v>3.25</v>
       </c>
       <c r="K32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.46</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P32" t="n">
         <v>1.75</v>
@@ -4759,7 +4759,7 @@
         <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U32" t="n">
         <v>1.98</v>
@@ -4768,31 +4768,31 @@
         <v>1.56</v>
       </c>
       <c r="W32" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AA32" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB32" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4801,10 +4801,10 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ32" t="n">
         <v>55</v>
@@ -4852,106 +4852,106 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="G33" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>3.85</v>
       </c>
       <c r="I33" t="n">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="L33" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M33" t="n">
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="T33" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="U33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="W33" t="n">
         <v>2</v>
       </c>
-      <c r="V33" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W33" t="n">
-        <v>2.16</v>
-      </c>
       <c r="X33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="G34" t="n">
         <v>3.75</v>
       </c>
       <c r="H34" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
         <v>3.7</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
         <v>1.26</v>
@@ -5017,10 +5017,10 @@
         <v>1.2</v>
       </c>
       <c r="P34" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R34" t="n">
         <v>1.56</v>
@@ -5029,70 +5029,70 @@
         <v>2.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="U34" t="n">
         <v>2.42</v>
       </c>
       <c r="V34" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
         <v>1.36</v>
       </c>
       <c r="X34" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN34" t="n">
         <v>30</v>
       </c>
-      <c r="AG34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>28</v>
-      </c>
       <c r="AO34" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35">
@@ -5131,22 +5131,22 @@
         <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>2.8</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
@@ -5155,7 +5155,7 @@
         <v>1.69</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
@@ -5167,13 +5167,13 @@
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
         <v>1.42</v>
       </c>
       <c r="W35" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
         <v>2.16</v>
@@ -5266,7 +5266,7 @@
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -5275,7 +5275,7 @@
         <v>3.95</v>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="M36" t="n">
         <v>1.07</v>
@@ -5296,7 +5296,7 @@
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
@@ -5311,58 +5311,58 @@
         <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5410,7 +5410,7 @@
         <v>6.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M37" t="n">
         <v>1.02</v>
@@ -5434,7 +5434,7 @@
         <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
@@ -5443,13 +5443,13 @@
         <v>1.1</v>
       </c>
       <c r="W37" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="X37" t="n">
         <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z37" t="n">
         <v>120</v>
@@ -5482,7 +5482,7 @@
         <v>130</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK37" t="n">
         <v>16.5</v>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
@@ -5560,13 +5560,13 @@
         <v>2.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S38" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="T38" t="n">
         <v>1.67</v>
@@ -5575,64 +5575,64 @@
         <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z38" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="n">
         <v>130</v>
       </c>
       <c r="AB38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC38" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC38" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD38" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE38" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG38" t="n">
         <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ38" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK38" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM38" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN38" t="n">
         <v>8.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
         <v>2.14</v>
@@ -5680,19 +5680,19 @@
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="Q39" t="n">
         <v>1.86</v>
@@ -5704,10 +5704,10 @@
         <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U39" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V39" t="n">
         <v>1.86</v>
@@ -5725,13 +5725,13 @@
         <v>14</v>
       </c>
       <c r="AA39" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB39" t="n">
         <v>15.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
         <v>10.5</v>
@@ -5743,10 +5743,10 @@
         <v>980</v>
       </c>
       <c r="AG39" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
         <v>980</v>
@@ -5755,19 +5755,19 @@
         <v>70</v>
       </c>
       <c r="AK39" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AL39" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM39" t="n">
         <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" t="n">
         <v>5.1</v>
       </c>
-      <c r="G40" t="n">
-        <v>5.2</v>
-      </c>
       <c r="H40" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5815,7 +5815,7 @@
         <v>4.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
@@ -5830,13 +5830,13 @@
         <v>2.1</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R40" t="n">
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T40" t="n">
         <v>1.84</v>
@@ -5845,10 +5845,10 @@
         <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="W40" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X40" t="n">
         <v>15.5</v>
@@ -5860,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="AA40" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB40" t="n">
         <v>18.5</v>
@@ -5872,7 +5872,7 @@
         <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF40" t="n">
         <v>38</v>
@@ -5890,7 +5890,7 @@
         <v>120</v>
       </c>
       <c r="AK40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL40" t="n">
         <v>65</v>
@@ -5902,7 +5902,7 @@
         <v>65</v>
       </c>
       <c r="AO40" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="41">
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q41" t="n">
         <v>1.3</v>
@@ -6070,7 +6070,7 @@
         <v>2.44</v>
       </c>
       <c r="G42" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="H42" t="n">
         <v>3.35</v>
@@ -6091,16 +6091,16 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
@@ -6118,10 +6118,10 @@
         <v>1.4</v>
       </c>
       <c r="W42" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X42" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6139,7 +6139,7 @@
         <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE42" t="n">
         <v>46</v>
@@ -6172,7 +6172,7 @@
         <v>27</v>
       </c>
       <c r="AO42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43">
@@ -6205,7 +6205,7 @@
         <v>2.46</v>
       </c>
       <c r="G43" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
@@ -6214,10 +6214,10 @@
         <v>3.6</v>
       </c>
       <c r="J43" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L43" t="n">
         <v>1.57</v>
@@ -6226,13 +6226,13 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O43" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P43" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q43" t="n">
         <v>2.58</v>
@@ -6247,22 +6247,22 @@
         <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V43" t="n">
         <v>1.39</v>
       </c>
       <c r="W43" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="X43" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA43" t="n">
         <v>75</v>
@@ -6274,7 +6274,7 @@
         <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
         <v>55</v>
@@ -6292,7 +6292,7 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK43" t="n">
         <v>36</v>
@@ -6301,13 +6301,13 @@
         <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="n">
         <v>38</v>
       </c>
       <c r="AO43" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44">
@@ -6337,7 +6337,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="G44" t="n">
         <v>1.53</v>
@@ -6346,13 +6346,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J44" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L44" t="n">
         <v>1.45</v>
@@ -6361,88 +6361,88 @@
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="O44" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="R44" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="S44" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T44" t="n">
         <v>2.24</v>
       </c>
       <c r="U44" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="V44" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X44" t="n">
         <v>14.5</v>
       </c>
       <c r="Y44" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z44" t="n">
         <v>80</v>
       </c>
       <c r="AA44" t="n">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="AB44" t="n">
         <v>7</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE44" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI44" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AJ44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM44" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="AN44" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO44" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45">
@@ -6607,7 +6607,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="G46" t="n">
         <v>1.73</v>
@@ -6616,13 +6616,13 @@
         <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L46" t="n">
         <v>1.37</v>
@@ -6634,7 +6634,7 @@
         <v>3.2</v>
       </c>
       <c r="O46" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P46" t="n">
         <v>1.76</v>
@@ -6646,13 +6646,13 @@
         <v>1.28</v>
       </c>
       <c r="S46" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T46" t="n">
         <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V46" t="n">
         <v>1.16</v>
@@ -6661,25 +6661,25 @@
         <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA46" t="n">
         <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
@@ -6691,28 +6691,28 @@
         <v>970</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK46" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN46" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AO46" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
@@ -6745,10 +6745,10 @@
         <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>4.3</v>
@@ -6757,7 +6757,7 @@
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L47" t="n">
         <v>1.47</v>
@@ -6769,10 +6769,10 @@
         <v>3.2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q47" t="n">
         <v>2.18</v>
@@ -6793,10 +6793,10 @@
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
         <v>13.5</v>
@@ -6877,13 +6877,13 @@
         </is>
       </c>
       <c r="F48" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G48" t="n">
         <v>2.54</v>
       </c>
-      <c r="G48" t="n">
-        <v>2.64</v>
-      </c>
       <c r="H48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I48" t="n">
         <v>3.3</v>
@@ -6895,13 +6895,13 @@
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
@@ -6913,25 +6913,25 @@
         <v>1.92</v>
       </c>
       <c r="R48" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S48" t="n">
         <v>3.25</v>
       </c>
       <c r="T48" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U48" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V48" t="n">
         <v>1.43</v>
       </c>
       <c r="W48" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="X48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
         <v>13.5</v>
@@ -6943,10 +6943,10 @@
         <v>55</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD48" t="n">
         <v>13.5</v>
@@ -6955,7 +6955,7 @@
         <v>36</v>
       </c>
       <c r="AF48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG48" t="n">
         <v>11.5</v>
@@ -6967,10 +6967,10 @@
         <v>46</v>
       </c>
       <c r="AJ48" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL48" t="n">
         <v>40</v>
@@ -6979,7 +6979,7 @@
         <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO48" t="n">
         <v>32</v>
@@ -7012,34 +7012,34 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="G49" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J49" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K49" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L49" t="n">
         <v>1.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N49" t="n">
         <v>2.62</v>
       </c>
       <c r="O49" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P49" t="n">
         <v>1.52</v>
@@ -7048,40 +7048,40 @@
         <v>2.56</v>
       </c>
       <c r="R49" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S49" t="n">
         <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="V49" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W49" t="n">
         <v>1.52</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y49" t="n">
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AA49" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD49" t="n">
         <v>18</v>
@@ -7093,31 +7093,31 @@
         <v>970</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH49" t="n">
         <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK49" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM49" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN49" t="n">
         <v>55</v>
       </c>
       <c r="AO49" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="G2" t="n">
         <v>1.28</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" t="n">
         <v>6</v>
@@ -706,7 +706,7 @@
         <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>2.74</v>
@@ -721,19 +721,19 @@
         <v>4.5</v>
       </c>
       <c r="X2" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC2" t="n">
         <v>18</v>
@@ -745,10 +745,10 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>470</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,106 +808,106 @@
         <v>6.2</v>
       </c>
       <c r="H3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I3" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>1.62</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q3" t="n">
         <v>2.44</v>
       </c>
       <c r="R3" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
-        <v>3.9</v>
+        <v>4.9</v>
       </c>
       <c r="T3" t="n">
         <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V3" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W3" t="n">
         <v>1.19</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -976,28 +976,28 @@
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
         <v>11.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,10 +1006,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,10 +1018,10 @@
         <v>15.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1039,7 +1039,7 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="G5" t="n">
-        <v>2.8</v>
+        <v>2.52</v>
       </c>
       <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
         <v>3.15</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="O5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S5" t="n">
         <v>3.35</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.9</v>
-      </c>
       <c r="T5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.9</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.86</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S6" t="n">
         <v>2.62</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1345,58 +1345,58 @@
         <v>2.2</v>
       </c>
       <c r="G7" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="O7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
         <v>14</v>
@@ -1408,16 +1408,16 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
         <v>17</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1435,16 +1435,16 @@
         <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,34 +1480,34 @@
         <v>2.64</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.76</v>
       </c>
-      <c r="I8" t="n">
-        <v>2.78</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1516,43 +1516,43 @@
         <v>1.57</v>
       </c>
       <c r="S8" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T8" t="n">
         <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z8" t="n">
         <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AB8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>20</v>
@@ -1561,28 +1561,28 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM8" t="n">
         <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>2.9</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,13 +1750,13 @@
         <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1771,16 +1771,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="O10" t="n">
         <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R10" t="n">
         <v>1.23</v>
@@ -1789,7 +1789,7 @@
         <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U10" t="n">
         <v>1.86</v>
@@ -1798,13 +1798,13 @@
         <v>1.76</v>
       </c>
       <c r="W10" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
         <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1885,13 +1885,13 @@
         <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
@@ -1960,22 +1960,22 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
         <v>1000</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G12" t="n">
         <v>3.6</v>
@@ -2026,22 +2026,22 @@
         <v>2.36</v>
       </c>
       <c r="I12" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
@@ -2053,7 +2053,7 @@
         <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
         <v>3.1</v>
@@ -2062,16 +2062,16 @@
         <v>1.68</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W12" t="n">
         <v>1.38</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Y12" t="n">
         <v>12</v>
@@ -2083,7 +2083,7 @@
         <v>970</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC12" t="n">
         <v>7.8</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AF12" t="n">
         <v>970</v>
@@ -2110,10 +2110,10 @@
         <v>60</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>75</v>
@@ -2170,34 +2170,34 @@
         <v>2.96</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S13" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="T13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>1.59</v>
@@ -2206,19 +2206,19 @@
         <v>1.39</v>
       </c>
       <c r="X13" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>16.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>7</v>
@@ -2227,7 +2227,7 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2257,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.13</v>
@@ -2314,37 +2314,37 @@
         <v>2.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.58</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.57</v>
       </c>
       <c r="X14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
@@ -2353,7 +2353,7 @@
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2362,7 +2362,7 @@
         <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AF14" t="n">
         <v>16</v>
@@ -2374,13 +2374,13 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="n">
         <v>970</v>
       </c>
       <c r="AK14" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
         <v>65</v>
@@ -2392,7 +2392,7 @@
         <v>970</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>2.96</v>
+        <v>1.02</v>
       </c>
       <c r="K15" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="O15" t="n">
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>1.41</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="W15" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,16 +2560,16 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
         <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K16" t="n">
         <v>4.3</v>
@@ -2590,13 +2590,13 @@
         <v>2.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
         <v>1.52</v>
@@ -2608,61 +2608,61 @@
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AA16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM16" t="n">
         <v>55</v>
       </c>
-      <c r="AB16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AN16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2716,37 +2716,37 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O17" t="n">
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>16.5</v>
@@ -2755,22 +2755,22 @@
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
         <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
@@ -2782,10 +2782,10 @@
         <v>970</v>
       </c>
       <c r="AJ17" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AL17" t="n">
         <v>970</v>
@@ -2797,7 +2797,7 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G18" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I18" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>2.84</v>
       </c>
       <c r="T18" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="V18" t="n">
         <v>1.09</v>
       </c>
       <c r="W18" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="G19" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>2.42</v>
+        <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.76</v>
+        <v>3.05</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L19" t="n">
         <v>1.41</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>2.98</v>
       </c>
       <c r="O19" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
         <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W19" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H20" t="n">
         <v>1.87</v>
@@ -3109,28 +3109,28 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R20" t="n">
         <v>1.23</v>
@@ -3139,7 +3139,7 @@
         <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="U20" t="n">
         <v>1.79</v>
@@ -3148,13 +3148,13 @@
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
@@ -3166,10 +3166,10 @@
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE20" t="n">
         <v>970</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G21" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.5</v>
@@ -3253,7 +3253,7 @@
         <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>5.5</v>
@@ -3262,37 +3262,37 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T21" t="n">
         <v>1.63</v>
       </c>
-      <c r="S21" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U21" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AA21" t="n">
         <v>110</v>
@@ -3301,16 +3301,16 @@
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AE21" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3319,13 +3319,13 @@
         <v>16.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>27</v>
@@ -3334,7 +3334,7 @@
         <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO21" t="n">
         <v>40</v>
@@ -3367,46 +3367,46 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="I22" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.06</v>
+        <v>1.42</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R22" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S22" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="T22" t="n">
         <v>1.01</v>
@@ -3415,10 +3415,10 @@
         <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="W22" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="G23" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I23" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="J23" t="n">
         <v>4.3</v>
@@ -3526,22 +3526,22 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P23" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="T23" t="n">
         <v>2.08</v>
@@ -3550,34 +3550,34 @@
         <v>1.87</v>
       </c>
       <c r="V23" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA23" t="n">
         <v>230</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
         <v>8.4</v>
@@ -3595,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL23" t="n">
         <v>40</v>
@@ -3604,7 +3604,7 @@
         <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO23" t="n">
         <v>150</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -3649,10 +3649,10 @@
         <v>4.1</v>
       </c>
       <c r="J24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.85</v>
       </c>
       <c r="L24" t="n">
         <v>1.39</v>
@@ -3688,7 +3688,7 @@
         <v>1.32</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3697,7 +3697,7 @@
         <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
         <v>85</v>
@@ -3706,7 +3706,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>16</v>
@@ -3727,10 +3727,10 @@
         <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="n">
         <v>34</v>
@@ -3742,7 +3742,7 @@
         <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="G25" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="H25" t="n">
         <v>5.6</v>
@@ -3784,10 +3784,10 @@
         <v>5.7</v>
       </c>
       <c r="J25" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3802,7 +3802,7 @@
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
         <v>2.06</v>
@@ -3811,7 +3811,7 @@
         <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
@@ -3823,7 +3823,7 @@
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X25" t="n">
         <v>13.5</v>
@@ -3832,7 +3832,7 @@
         <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA25" t="n">
         <v>150</v>
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AG25" t="n">
         <v>9.6</v>
@@ -3916,7 +3916,7 @@
         <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3940,19 +3940,19 @@
         <v>2.74</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S26" t="n">
         <v>2.42</v>
       </c>
       <c r="T26" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3961,7 +3961,7 @@
         <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
         <v>38</v>
@@ -3970,7 +3970,7 @@
         <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -3985,7 +3985,7 @@
         <v>120</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AO26" t="n">
         <v>120</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G27" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H27" t="n">
-        <v>2.94</v>
+        <v>2.68</v>
       </c>
       <c r="I27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
@@ -4069,31 +4069,31 @@
         <v>2.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>1.75</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
         <v>1.75</v>
       </c>
       <c r="H28" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I28" t="n">
         <v>5.7</v>
@@ -4213,7 +4213,7 @@
         <v>1.96</v>
       </c>
       <c r="R28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
         <v>3.45</v>
@@ -4222,7 +4222,7 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V28" t="n">
         <v>1.21</v>
@@ -4231,7 +4231,7 @@
         <v>2.32</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
@@ -4252,7 +4252,7 @@
         <v>23</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -4264,7 +4264,7 @@
         <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="n">
         <v>970</v>
@@ -4279,7 +4279,7 @@
         <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
         <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
       </c>
       <c r="J29" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K29" t="n">
         <v>3.65</v>
@@ -4342,13 +4342,13 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S29" t="n">
         <v>2.98</v>
@@ -4357,67 +4357,67 @@
         <v>1.65</v>
       </c>
       <c r="U29" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="W29" t="n">
         <v>1.6</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH29" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AI29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK29" t="n">
         <v>26</v>
       </c>
-      <c r="AA29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>32</v>
-      </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN29" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -4459,7 +4459,7 @@
         <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>10.5</v>
@@ -4474,13 +4474,13 @@
         <v>7.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P30" t="n">
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="R30" t="n">
         <v>1.87</v>
@@ -4489,10 +4489,10 @@
         <v>2.04</v>
       </c>
       <c r="T30" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
@@ -4504,7 +4504,7 @@
         <v>50</v>
       </c>
       <c r="Y30" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="n">
         <v>240</v>
@@ -4513,16 +4513,16 @@
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="n">
         <v>26</v>
       </c>
       <c r="AD30" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE30" t="n">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AF30" t="n">
         <v>8.800000000000001</v>
@@ -4534,10 +4534,10 @@
         <v>48</v>
       </c>
       <c r="AI30" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AJ30" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK30" t="n">
         <v>16</v>
@@ -4552,7 +4552,7 @@
         <v>3.15</v>
       </c>
       <c r="AO30" t="n">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -4594,7 +4594,7 @@
         <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
         <v>4.8</v>
@@ -4615,13 +4615,13 @@
         <v>2.16</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R31" t="n">
         <v>1.46</v>
       </c>
       <c r="S31" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="T31" t="n">
         <v>1.82</v>
@@ -4636,7 +4636,7 @@
         <v>2.5</v>
       </c>
       <c r="X31" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
         <v>24</v>
@@ -4684,7 +4684,7 @@
         <v>130</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO31" t="n">
         <v>120</v>
@@ -4723,7 +4723,7 @@
         <v>3.05</v>
       </c>
       <c r="H32" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="I32" t="n">
         <v>2.78</v>
@@ -4738,31 +4738,31 @@
         <v>1.46</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
         <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S32" t="n">
         <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.56</v>
@@ -4777,22 +4777,22 @@
         <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB32" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>13.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
@@ -4801,16 +4801,16 @@
         <v>14</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ32" t="n">
         <v>55</v>
       </c>
       <c r="AK32" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL32" t="n">
         <v>55</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G33" t="n">
         <v>1.99</v>
@@ -4861,13 +4861,13 @@
         <v>3.85</v>
       </c>
       <c r="I33" t="n">
-        <v>9.6</v>
+        <v>6.6</v>
       </c>
       <c r="J33" t="n">
         <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4876,13 +4876,13 @@
         <v>1.01</v>
       </c>
       <c r="N33" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>1.46</v>
+        <v>2.02</v>
       </c>
       <c r="Q33" t="n">
         <v>1.56</v>
@@ -4891,16 +4891,16 @@
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="V33" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
         <v>3.75</v>
@@ -5077,7 +5077,7 @@
         <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK34" t="n">
         <v>42</v>
@@ -5089,7 +5089,7 @@
         <v>70</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO34" t="n">
         <v>12.5</v>
@@ -5125,37 +5125,37 @@
         <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="K35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
       </c>
       <c r="N35" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O35" t="n">
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
@@ -5167,13 +5167,13 @@
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W35" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5266,7 +5266,7 @@
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J36" t="n">
         <v>3.35</v>
@@ -5287,7 +5287,7 @@
         <v>1.32</v>
       </c>
       <c r="P36" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="Q36" t="n">
         <v>1.96</v>
@@ -5311,58 +5311,58 @@
         <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK36" t="n">
         <v>23</v>
       </c>
-      <c r="AI36" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>27</v>
-      </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -5398,10 +5398,10 @@
         <v>1.38</v>
       </c>
       <c r="H37" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
         <v>5.5</v>
@@ -5413,7 +5413,7 @@
         <v>1.24</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>5.5</v>
@@ -5431,22 +5431,22 @@
         <v>1.62</v>
       </c>
       <c r="S37" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U37" t="n">
         <v>1.92</v>
       </c>
       <c r="V37" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W37" t="n">
         <v>3.6</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y37" t="n">
         <v>40</v>
@@ -5458,10 +5458,10 @@
         <v>390</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC37" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD37" t="n">
         <v>40</v>
@@ -5470,10 +5470,10 @@
         <v>170</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
         <v>28</v>
@@ -5485,16 +5485,16 @@
         <v>12</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM37" t="n">
         <v>150</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO37" t="n">
         <v>190</v>
@@ -5527,19 +5527,19 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="G38" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K38" t="n">
         <v>4.3</v>
@@ -5563,7 +5563,7 @@
         <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="S38" t="n">
         <v>2.64</v>
@@ -5575,64 +5575,64 @@
         <v>2.34</v>
       </c>
       <c r="V38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
         <v>2.26</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE38" t="n">
         <v>55</v>
       </c>
-      <c r="AA38" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>70</v>
-      </c>
       <c r="AF38" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG38" t="n">
         <v>10</v>
       </c>
       <c r="AH38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>23</v>
-      </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
@@ -5698,7 +5698,7 @@
         <v>1.86</v>
       </c>
       <c r="R39" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S39" t="n">
         <v>3.2</v>
@@ -5803,10 +5803,10 @@
         <v>5.1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I40" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5836,7 +5836,7 @@
         <v>1.42</v>
       </c>
       <c r="S40" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
         <v>1.84</v>
@@ -5863,7 +5863,7 @@
         <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5878,7 +5878,7 @@
         <v>38</v>
       </c>
       <c r="AG40" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH40" t="n">
         <v>19</v>
@@ -6067,16 +6067,16 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="G42" t="n">
         <v>2.52</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J42" t="n">
         <v>3.15</v>
@@ -6091,16 +6091,16 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O42" t="n">
         <v>1.41</v>
       </c>
       <c r="P42" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R42" t="n">
         <v>1.28</v>
@@ -6109,13 +6109,13 @@
         <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W42" t="n">
         <v>1.65</v>
@@ -6172,7 +6172,7 @@
         <v>27</v>
       </c>
       <c r="AO42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J43" t="n">
         <v>3.05</v>
@@ -6247,67 +6247,67 @@
         <v>2.08</v>
       </c>
       <c r="U43" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V43" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA43" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AE43" t="n">
         <v>55</v>
       </c>
       <c r="AF43" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG43" t="n">
         <v>15</v>
       </c>
-      <c r="AG43" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI43" t="n">
         <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK43" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL43" t="n">
         <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AO43" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -6343,10 +6343,10 @@
         <v>1.53</v>
       </c>
       <c r="H44" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="I44" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="J44" t="n">
         <v>4.4</v>
@@ -6355,34 +6355,34 @@
         <v>4.8</v>
       </c>
       <c r="L44" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
       </c>
       <c r="N44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S44" t="n">
         <v>3.55</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P44" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S44" t="n">
-        <v>3.7</v>
-      </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="U44" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="V44" t="n">
         <v>1.13</v>
@@ -6391,19 +6391,19 @@
         <v>2.88</v>
       </c>
       <c r="X44" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y44" t="n">
         <v>23</v>
       </c>
       <c r="Z44" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AB44" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC44" t="n">
         <v>10.5</v>
@@ -6415,34 +6415,34 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN44" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO44" t="n">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45">
@@ -6616,7 +6616,7 @@
         <v>5.7</v>
       </c>
       <c r="I46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J46" t="n">
         <v>3.65</v>
@@ -6625,7 +6625,7 @@
         <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6652,22 +6652,22 @@
         <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W46" t="n">
         <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Y46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
         <v>230</v>
@@ -6676,10 +6676,10 @@
         <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AG46" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
         <v>190</v>
       </c>
       <c r="AN46" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO46" t="n">
         <v>180</v>
@@ -6742,22 +6742,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G47" t="n">
         <v>2.24</v>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I47" t="n">
         <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K47" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L47" t="n">
         <v>1.47</v>
@@ -6766,28 +6766,28 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O47" t="n">
         <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R47" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>1.3</v>
@@ -6796,7 +6796,7 @@
         <v>1.8</v>
       </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y47" t="n">
         <v>13.5</v>
@@ -6877,25 +6877,25 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G48" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H48" t="n">
         <v>3.2</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J48" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K48" t="n">
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -6904,28 +6904,28 @@
         <v>3.9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P48" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R48" t="n">
         <v>1.38</v>
       </c>
       <c r="S48" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U48" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="V48" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W48" t="n">
         <v>1.65</v>
@@ -6943,7 +6943,7 @@
         <v>55</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC48" t="n">
         <v>7.6</v>
@@ -6973,16 +6973,16 @@
         <v>26</v>
       </c>
       <c r="AL48" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM48" t="n">
         <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO48" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G49" t="n">
         <v>2.94</v>
@@ -7024,28 +7024,28 @@
         <v>3.55</v>
       </c>
       <c r="J49" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K49" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
       </c>
       <c r="N49" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="O49" t="n">
         <v>1.51</v>
       </c>
       <c r="P49" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="R49" t="n">
         <v>1.19</v>
@@ -7054,34 +7054,34 @@
         <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U49" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V49" t="n">
         <v>1.39</v>
       </c>
       <c r="W49" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X49" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AB49" t="n">
         <v>8.6</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD49" t="n">
         <v>18</v>
@@ -7099,22 +7099,22 @@
         <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="n">
         <v>50</v>
       </c>
       <c r="AK49" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL49" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM49" t="n">
         <v>190</v>
       </c>
       <c r="AN49" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO49" t="n">
         <v>75</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,37 +667,37 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
         <v>6.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
@@ -706,10 +706,10 @@
         <v>1.34</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="U2" t="n">
         <v>1.45</v>
@@ -718,16 +718,16 @@
         <v>1.04</v>
       </c>
       <c r="W2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>6.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,31 +745,31 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>470</v>
+        <v>570</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H3" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="I3" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -835,10 +835,10 @@
         <v>1.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S3" t="n">
         <v>4.9</v>
@@ -847,67 +847,67 @@
         <v>2.16</v>
       </c>
       <c r="U3" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V3" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
       </c>
       <c r="AB3" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AK3" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL3" t="n">
         <v>130</v>
       </c>
-      <c r="AL3" t="n">
-        <v>150</v>
-      </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G4" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.41</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.42</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
         <v>2.3</v>
@@ -976,16 +976,16 @@
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.64</v>
@@ -994,52 +994,52 @@
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="n">
         <v>25</v>
       </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>21</v>
-      </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="G5" t="n">
         <v>2.52</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="L5" t="n">
         <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
         <v>1.36</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,37 +1207,37 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J6" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="L6" t="n">
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
         <v>2.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q6" t="n">
         <v>2.3</v>
@@ -1246,16 +1246,16 @@
         <v>1.21</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W6" t="n">
         <v>1.48</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
         <v>1000</v>
@@ -1348,19 +1348,19 @@
         <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1372,22 +1372,22 @@
         <v>1.43</v>
       </c>
       <c r="P7" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R7" t="n">
         <v>1.23</v>
       </c>
       <c r="S7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V7" t="n">
         <v>1.32</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1504,7 +1504,7 @@
         <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
         <v>2.38</v>
@@ -1522,7 +1522,7 @@
         <v>1.57</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V8" t="n">
         <v>1.56</v>
@@ -1540,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
         <v>1.44</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.1</v>
@@ -1810,7 +1810,7 @@
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1822,16 +1822,16 @@
         <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AG10" t="n">
         <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1846,13 +1846,13 @@
         <v>80</v>
       </c>
       <c r="AM10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
         <v>100</v>
       </c>
       <c r="AO10" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
@@ -1915,7 +1915,7 @@
         <v>1.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>120</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC11" t="n">
         <v>8.6</v>
@@ -1960,10 +1960,10 @@
         <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH11" t="n">
         <v>26</v>
@@ -1978,13 +1978,13 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM11" t="n">
         <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
         <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I12" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2050,13 +2050,13 @@
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
         <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T12" t="n">
         <v>1.68</v>
@@ -2065,7 +2065,7 @@
         <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
         <v>1.38</v>
@@ -2074,55 +2074,55 @@
         <v>18</v>
       </c>
       <c r="Y12" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AL12" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -2152,70 +2152,70 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K13" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
         <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="O13" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.59</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X13" t="n">
         <v>9.6</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AB13" t="n">
         <v>11</v>
@@ -2227,13 +2227,13 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH13" t="n">
         <v>21</v>
@@ -2242,13 +2242,13 @@
         <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK13" t="n">
         <v>50</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
@@ -2257,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="AO13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
         <v>2.76</v>
@@ -2299,19 +2299,19 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.55</v>
@@ -2329,67 +2329,67 @@
         <v>5.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
         <v>1.41</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AK14" t="n">
         <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AO14" t="n">
         <v>70</v>
@@ -2422,46 +2422,46 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>950</v>
+        <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.26</v>
+        <v>1.57</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.41</v>
+        <v>2.02</v>
       </c>
       <c r="T15" t="n">
         <v>1.01</v>
@@ -2470,10 +2470,10 @@
         <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="W15" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2563,7 +2563,7 @@
         <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
         <v>2.98</v>
@@ -2593,10 +2593,10 @@
         <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
         <v>1.52</v>
@@ -2608,61 +2608,61 @@
         <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Y16" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AB16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14</v>
-      </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL16" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.4</v>
@@ -2725,7 +2725,7 @@
         <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
@@ -2734,10 +2734,10 @@
         <v>2.84</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
         <v>1.35</v>
@@ -2746,58 +2746,58 @@
         <v>1.75</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AA17" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
         <v>18.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2827,76 +2827,76 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.84</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="U18" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
-        <v>2.52</v>
+        <v>2.96</v>
       </c>
       <c r="X18" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>970</v>
       </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>970</v>
@@ -2905,10 +2905,10 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AH18" t="n">
         <v>970</v>
@@ -2917,19 +2917,19 @@
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>2.58</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="J19" t="n">
         <v>3.05</v>
@@ -2980,7 +2980,7 @@
         <v>3.45</v>
       </c>
       <c r="L19" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.1</v>
@@ -2995,67 +2995,67 @@
         <v>1.68</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="T19" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U19" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V19" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W19" t="n">
         <v>1.44</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
@@ -3097,64 +3097,64 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="G20" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O20" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S20" t="n">
         <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z20" t="n">
         <v>970</v>
@@ -3166,7 +3166,7 @@
         <v>970</v>
       </c>
       <c r="AC20" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>970</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.25</v>
@@ -3262,7 +3262,7 @@
         <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
         <v>1.62</v>
@@ -3271,73 +3271,73 @@
         <v>1.62</v>
       </c>
       <c r="S21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.46</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.48</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="X21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AA21" t="n">
         <v>110</v>
       </c>
       <c r="AB21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG21" t="n">
         <v>13</v>
       </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
       <c r="AH21" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AJ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK21" t="n">
         <v>21</v>
       </c>
-      <c r="AK21" t="n">
-        <v>17</v>
-      </c>
       <c r="AL21" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN21" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3370,13 +3370,13 @@
         <v>4.2</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="H22" t="n">
         <v>1.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="J22" t="n">
         <v>2.92</v>
@@ -3385,40 +3385,40 @@
         <v>5.7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="P22" t="n">
         <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>4.1</v>
+        <v>2.52</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>2.04</v>
+        <v>1.89</v>
       </c>
       <c r="W22" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.57</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.58</v>
       </c>
       <c r="H23" t="n">
         <v>7.2</v>
@@ -3514,49 +3514,49 @@
         <v>7.4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.98</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S23" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T23" t="n">
         <v>2.08</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="V23" t="n">
         <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y23" t="n">
         <v>22</v>
@@ -3592,7 +3592,7 @@
         <v>110</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK23" t="n">
         <v>16.5</v>
@@ -3604,7 +3604,7 @@
         <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO23" t="n">
         <v>150</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
@@ -3664,31 +3664,31 @@
         <v>4.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V24" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3700,28 +3700,28 @@
         <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AC24" t="n">
         <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="n">
         <v>55</v>
@@ -3736,13 +3736,13 @@
         <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN24" t="n">
         <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="G25" t="n">
         <v>1.75</v>
@@ -3802,28 +3802,28 @@
         <v>1.35</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R25" t="n">
         <v>1.35</v>
       </c>
       <c r="S25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V25" t="n">
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="X25" t="n">
         <v>13.5</v>
@@ -3841,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
@@ -3856,13 +3856,13 @@
         <v>9.6</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
         <v>18.5</v>
@@ -3874,7 +3874,7 @@
         <v>130</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO25" t="n">
         <v>95</v>
@@ -3913,10 +3913,10 @@
         <v>1.39</v>
       </c>
       <c r="H26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I26" t="n">
         <v>9.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3934,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
         <v>2.74</v>
@@ -3943,13 +3943,13 @@
         <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S26" t="n">
         <v>2.42</v>
       </c>
       <c r="T26" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="U26" t="n">
         <v>2.12</v>
@@ -3961,16 +3961,16 @@
         <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AB26" t="n">
         <v>11</v>
@@ -3979,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AE26" t="n">
         <v>120</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AO26" t="n">
         <v>120</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.56</v>
+        <v>2.76</v>
       </c>
       <c r="G27" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>2.68</v>
+        <v>2.82</v>
       </c>
       <c r="I27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="K27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L27" t="n">
         <v>1.5</v>
@@ -4066,34 +4066,34 @@
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="P27" t="n">
         <v>1.51</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V27" t="n">
         <v>1.43</v>
       </c>
       <c r="W27" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.72</v>
       </c>
-      <c r="G28" t="n">
-        <v>1.75</v>
-      </c>
       <c r="H28" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="I28" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J28" t="n">
         <v>3.95</v>
@@ -4201,43 +4201,43 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.89</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.87</v>
       </c>
       <c r="U28" t="n">
         <v>2.02</v>
       </c>
       <c r="V28" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AA28" t="n">
         <v>170</v>
@@ -4249,31 +4249,31 @@
         <v>9.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI28" t="n">
         <v>85</v>
       </c>
       <c r="AJ28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK28" t="n">
         <v>970</v>
       </c>
-      <c r="AK28" t="n">
-        <v>20</v>
-      </c>
       <c r="AL28" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM28" t="n">
         <v>150</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="G29" t="n">
         <v>2.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
@@ -4342,13 +4342,13 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
         <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S29" t="n">
         <v>2.98</v>
@@ -4366,58 +4366,58 @@
         <v>1.6</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="Z29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="n">
         <v>22</v>
       </c>
-      <c r="AA29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE29" t="n">
+      <c r="AG29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK29" t="n">
         <v>32</v>
       </c>
-      <c r="AF29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>26</v>
-      </c>
       <c r="AL29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM29" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AO29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -4453,16 +4453,16 @@
         <v>1.17</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I30" t="n">
         <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L30" t="n">
         <v>1.22</v>
@@ -4471,25 +4471,25 @@
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="S30" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T30" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U30" t="n">
         <v>1.76</v>
@@ -4501,58 +4501,58 @@
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y30" t="n">
         <v>80</v>
       </c>
       <c r="Z30" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD30" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="n">
-        <v>400</v>
+        <v>430</v>
       </c>
       <c r="AF30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH30" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AI30" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM30" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AO30" t="n">
-        <v>480</v>
+        <v>530</v>
       </c>
     </row>
     <row r="31">
@@ -4582,10 +4582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -4597,97 +4597,97 @@
         <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>2.16</v>
+        <v>2.24</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="R31" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="T31" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>60</v>
       </c>
       <c r="AA31" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>110</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM31" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -4717,28 +4717,28 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="G32" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.68</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>2.78</v>
+        <v>2.72</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
         <v>1.46</v>
       </c>
       <c r="M32" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
         <v>3.2</v>
@@ -4747,7 +4747,7 @@
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
@@ -4762,55 +4762,55 @@
         <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W32" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="X32" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z32" t="n">
         <v>970</v>
       </c>
       <c r="AA32" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD32" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE32" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AF32" t="n">
         <v>21</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
         <v>970</v>
       </c>
       <c r="AI32" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AL32" t="n">
         <v>55</v>
@@ -4819,10 +4819,10 @@
         <v>140</v>
       </c>
       <c r="AN32" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
     </row>
     <row r="33">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G33" t="n">
         <v>1.99</v>
@@ -4867,16 +4867,16 @@
         <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="O33" t="n">
         <v>1.21</v>
@@ -4885,22 +4885,22 @@
         <v>2.02</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
       </c>
       <c r="U33" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -4990,64 +4990,64 @@
         <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J34" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K34" t="n">
         <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T34" t="n">
         <v>1.56</v>
       </c>
-      <c r="S34" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.58</v>
-      </c>
       <c r="U34" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W34" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X34" t="n">
         <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="n">
         <v>30</v>
@@ -5062,37 +5062,37 @@
         <v>13.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH34" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AI34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>65</v>
       </c>
       <c r="AK34" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL34" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AM34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN34" t="n">
         <v>28</v>
       </c>
       <c r="AO34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -5125,16 +5125,16 @@
         <v>2.62</v>
       </c>
       <c r="G35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
         <v>2.72</v>
       </c>
       <c r="I35" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
@@ -5152,10 +5152,10 @@
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
@@ -5170,10 +5170,10 @@
         <v>1.96</v>
       </c>
       <c r="V35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W35" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5182,7 +5182,7 @@
         <v>12.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AA35" t="n">
         <v>60</v>
@@ -5197,16 +5197,16 @@
         <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
         <v>970</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI35" t="n">
         <v>65</v>
@@ -5215,7 +5215,7 @@
         <v>55</v>
       </c>
       <c r="AK35" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL35" t="n">
         <v>65</v>
@@ -5224,10 +5224,10 @@
         <v>150</v>
       </c>
       <c r="AN35" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
     </row>
     <row r="36">
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="H36" t="n">
         <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J36" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K36" t="n">
         <v>3.95</v>
@@ -5284,7 +5284,7 @@
         <v>3.45</v>
       </c>
       <c r="O36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P36" t="n">
         <v>1.86</v>
@@ -5296,7 +5296,7 @@
         <v>1.32</v>
       </c>
       <c r="S36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
@@ -5308,61 +5308,61 @@
         <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="X36" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC36" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD36" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH36" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ36" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO36" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -5398,10 +5398,10 @@
         <v>1.38</v>
       </c>
       <c r="H37" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J37" t="n">
         <v>5.5</v>
@@ -5413,7 +5413,7 @@
         <v>1.24</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
         <v>5.5</v>
@@ -5428,16 +5428,16 @@
         <v>1.52</v>
       </c>
       <c r="R37" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S37" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U37" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V37" t="n">
         <v>1.09</v>
@@ -5446,16 +5446,16 @@
         <v>3.6</v>
       </c>
       <c r="X37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y37" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Z37" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AA37" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB37" t="n">
         <v>11.5</v>
@@ -5464,19 +5464,19 @@
         <v>14.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AE37" t="n">
         <v>170</v>
       </c>
       <c r="AF37" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI37" t="n">
         <v>130</v>
@@ -5488,16 +5488,16 @@
         <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM37" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN37" t="n">
         <v>4.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
@@ -5557,13 +5557,13 @@
         <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S38" t="n">
         <v>2.64</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="U38" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V38" t="n">
         <v>1.25</v>
@@ -5581,16 +5581,16 @@
         <v>2.26</v>
       </c>
       <c r="X38" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Y38" t="n">
         <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB38" t="n">
         <v>11.5</v>
@@ -5608,7 +5608,7 @@
         <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AH38" t="n">
         <v>17</v>
@@ -5617,13 +5617,13 @@
         <v>55</v>
       </c>
       <c r="AJ38" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK38" t="n">
         <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM38" t="n">
         <v>75</v>
@@ -5632,7 +5632,7 @@
         <v>8.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G39" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="I39" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J39" t="n">
         <v>3.9</v>
@@ -5680,70 +5680,70 @@
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="n">
         <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S39" t="n">
         <v>3.2</v>
       </c>
       <c r="T39" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="W39" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
         <v>17</v>
       </c>
       <c r="Y39" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AD39" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
         <v>17.5</v>
@@ -5752,10 +5752,10 @@
         <v>980</v>
       </c>
       <c r="AJ39" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="n">
         <v>48</v>
@@ -5767,7 +5767,7 @@
         <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
@@ -5797,10 +5797,10 @@
         </is>
       </c>
       <c r="F40" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="G40" t="n">
         <v>5</v>
-      </c>
-      <c r="G40" t="n">
-        <v>5.1</v>
       </c>
       <c r="H40" t="n">
         <v>1.81</v>
@@ -5824,13 +5824,13 @@
         <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R40" t="n">
         <v>1.42</v>
@@ -5845,10 +5845,10 @@
         <v>2.14</v>
       </c>
       <c r="V40" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X40" t="n">
         <v>15.5</v>
@@ -5863,7 +5863,7 @@
         <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5884,7 +5884,7 @@
         <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
         <v>120</v>
@@ -5899,10 +5899,10 @@
         <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO40" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -5944,7 +5944,7 @@
         <v>1000</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
         <v>1000</v>
@@ -5956,13 +5956,13 @@
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="Q41" t="n">
         <v>1.3</v>
@@ -6067,7 +6067,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G42" t="n">
         <v>2.52</v>
@@ -6091,19 +6091,19 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O42" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
         <v>4</v>
@@ -6112,7 +6112,7 @@
         <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V42" t="n">
         <v>1.39</v>
@@ -6121,7 +6121,7 @@
         <v>1.65</v>
       </c>
       <c r="X42" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6151,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
         <v>60</v>
@@ -6241,28 +6241,28 @@
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U43" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA43" t="n">
         <v>70</v>
@@ -6274,19 +6274,19 @@
         <v>7.2</v>
       </c>
       <c r="AD43" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
         <v>55</v>
       </c>
       <c r="AF43" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
         <v>75</v>
@@ -6304,7 +6304,7 @@
         <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO43" t="n">
         <v>70</v>
@@ -6340,7 +6340,7 @@
         <v>1.51</v>
       </c>
       <c r="G44" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H44" t="n">
         <v>7.8</v>
@@ -6370,13 +6370,13 @@
         <v>1.97</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S44" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T44" t="n">
         <v>2.18</v>
@@ -6388,16 +6388,16 @@
         <v>1.13</v>
       </c>
       <c r="W44" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="X44" t="n">
         <v>15</v>
       </c>
       <c r="Y44" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z44" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA44" t="n">
         <v>340</v>
@@ -6415,7 +6415,7 @@
         <v>1000</v>
       </c>
       <c r="AF44" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AG44" t="n">
         <v>10.5</v>
@@ -6427,10 +6427,10 @@
         <v>150</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL44" t="n">
         <v>44</v>
@@ -6439,7 +6439,7 @@
         <v>210</v>
       </c>
       <c r="AN44" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO44" t="n">
         <v>250</v>
@@ -6484,7 +6484,7 @@
         <v>1000</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
         <v>1000</v>
@@ -6511,13 +6511,13 @@
         <v>1.18</v>
       </c>
       <c r="S45" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="T45" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U45" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V45" t="n">
         <v>1.01</v>
@@ -6613,7 +6613,7 @@
         <v>1.73</v>
       </c>
       <c r="H46" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="I46" t="n">
         <v>6.8</v>
@@ -6640,7 +6640,7 @@
         <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
         <v>1.28</v>
@@ -6652,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="V46" t="n">
         <v>1.17</v>
@@ -6661,55 +6661,55 @@
         <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA46" t="n">
         <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AK46" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
         <v>190</v>
       </c>
       <c r="AN46" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO46" t="n">
         <v>180</v>
@@ -6745,16 +6745,16 @@
         <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H47" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
         <v>4.3</v>
       </c>
       <c r="J47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
         <v>3.3</v>
@@ -6766,16 +6766,16 @@
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O47" t="n">
         <v>1.41</v>
       </c>
       <c r="P47" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
         <v>1.29</v>
@@ -6787,13 +6787,13 @@
         <v>1.9</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V47" t="n">
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X47" t="n">
         <v>13</v>
@@ -6802,7 +6802,7 @@
         <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA47" t="n">
         <v>100</v>
@@ -6811,10 +6811,10 @@
         <v>8.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE47" t="n">
         <v>60</v>
@@ -6826,7 +6826,7 @@
         <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
         <v>70</v>
@@ -6883,13 +6883,13 @@
         <v>2.52</v>
       </c>
       <c r="H48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
         <v>3.35</v>
       </c>
       <c r="J48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K48" t="n">
         <v>3.45</v>
@@ -6901,34 +6901,34 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O48" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R48" t="n">
         <v>1.38</v>
       </c>
       <c r="S48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T48" t="n">
         <v>1.75</v>
       </c>
       <c r="U48" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="V48" t="n">
         <v>1.42</v>
       </c>
       <c r="W48" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X48" t="n">
         <v>14.5</v>
@@ -6982,7 +6982,7 @@
         <v>20</v>
       </c>
       <c r="AO48" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -7012,19 +7012,19 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="G49" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H49" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I49" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="K49" t="n">
         <v>3.1</v>
@@ -7039,13 +7039,13 @@
         <v>2.64</v>
       </c>
       <c r="O49" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P49" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="R49" t="n">
         <v>1.19</v>
@@ -7054,55 +7054,55 @@
         <v>5.1</v>
       </c>
       <c r="T49" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="X49" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y49" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA49" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB49" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD49" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE49" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>55</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>50</v>
       </c>
       <c r="AK49" t="n">
         <v>46</v>
@@ -7114,10 +7114,10 @@
         <v>190</v>
       </c>
       <c r="AN49" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO49" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50">
@@ -7159,7 +7159,7 @@
         <v>1000</v>
       </c>
       <c r="J50" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K50" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -676,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
         <v>6.2</v>
@@ -685,7 +685,7 @@
         <v>6.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,13 +697,13 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
@@ -712,7 +712,7 @@
         <v>2.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
@@ -721,10 +721,10 @@
         <v>4.8</v>
       </c>
       <c r="X2" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Z2" t="n">
         <v>330</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,22 +745,22 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="AJ2" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AK2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -805,19 +805,19 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="I3" t="n">
         <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -826,16 +826,16 @@
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
       </c>
       <c r="P3" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
@@ -844,7 +844,7 @@
         <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="n">
         <v>1.77</v>
@@ -853,19 +853,19 @@
         <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
         <v>9.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="Z3" t="n">
         <v>10.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>14</v>
@@ -874,28 +874,28 @@
         <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AK3" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AL3" t="n">
         <v>130</v>
@@ -904,7 +904,7 @@
         <v>230</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO3" t="n">
         <v>22</v>
@@ -943,16 +943,16 @@
         <v>2.56</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -967,16 +967,16 @@
         <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.9</v>
@@ -985,7 +985,7 @@
         <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
         <v>1.64</v>
@@ -994,25 +994,25 @@
         <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
         <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1021,10 +1021,10 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI4" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>44</v>
@@ -1075,55 +1075,55 @@
         <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="K5" t="n">
         <v>3.55</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
         <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q5" t="n">
         <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S5" t="n">
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1213,52 +1213,52 @@
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K6" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
         <v>1.43</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1348,10 +1348,10 @@
         <v>2.46</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.05</v>
@@ -1360,7 +1360,7 @@
         <v>3.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1384,10 +1384,10 @@
         <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V7" t="n">
         <v>1.32</v>
@@ -1417,7 +1417,7 @@
         <v>19.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
         <v>17</v>
@@ -1426,7 +1426,7 @@
         <v>14</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1435,10 +1435,10 @@
         <v>40</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1480,10 +1480,10 @@
         <v>2.64</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="H8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I8" t="n">
         <v>2.76</v>
@@ -1504,7 +1504,7 @@
         <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P8" t="n">
         <v>2.38</v>
@@ -1528,7 +1528,7 @@
         <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R9" t="n">
         <v>1.15</v>
@@ -1654,70 +1654,70 @@
         <v>6.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
         <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL9" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN9" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AO9" t="n">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1756,55 +1756,55 @@
         <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K10" t="n">
         <v>3.2</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.84</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
@@ -1819,7 +1819,7 @@
         <v>7.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>980</v>
@@ -1828,28 +1828,28 @@
         <v>980</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
         <v>110</v>
       </c>
       <c r="AK10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN10" t="n">
         <v>80</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>100</v>
       </c>
       <c r="AO10" t="n">
         <v>980</v>
@@ -1882,34 +1882,34 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="G11" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P11" t="n">
         <v>1.6</v>
@@ -1918,22 +1918,22 @@
         <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
         <v>11</v>
@@ -1942,7 +1942,7 @@
         <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>120</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
         <v>36</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H12" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="I12" t="n">
         <v>2.42</v>
@@ -2050,79 +2050,79 @@
         <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T12" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="X12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AF12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK12" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM12" t="n">
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.5</v>
       </c>
       <c r="I13" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J13" t="n">
         <v>2.98</v>
@@ -2170,46 +2170,46 @@
         <v>3.05</v>
       </c>
       <c r="L13" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N13" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="O13" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.64</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.63</v>
       </c>
       <c r="W13" t="n">
         <v>1.37</v>
       </c>
       <c r="X13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z13" t="n">
         <v>15.5</v>
@@ -2227,7 +2227,7 @@
         <v>12.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2245,16 +2245,16 @@
         <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL13" t="n">
         <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO13" t="n">
         <v>34</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G14" t="n">
         <v>2.76</v>
@@ -2299,10 +2299,10 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K14" t="n">
         <v>3</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.05</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,16 +2311,16 @@
         <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P14" t="n">
         <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2329,10 +2329,10 @@
         <v>5.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
         <v>1.41</v>
@@ -2341,7 +2341,7 @@
         <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Y14" t="n">
         <v>9.4</v>
@@ -2353,40 +2353,40 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>55</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
         <v>85</v>
       </c>
       <c r="AJ14" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="n">
         <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
         <v>44</v>
@@ -2431,7 +2431,7 @@
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2440,37 +2440,37 @@
         <v>6.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M15" t="n">
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.41</v>
       </c>
       <c r="P15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.02</v>
+        <v>2.86</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="W15" t="n">
         <v>1.75</v>
@@ -2575,7 +2575,7 @@
         <v>4.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -2596,7 +2596,7 @@
         <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
         <v>1.52</v>
@@ -2611,58 +2611,58 @@
         <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="Y16" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AA16" t="n">
         <v>55</v>
       </c>
       <c r="AB16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF16" t="n">
         <v>20</v>
       </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>16.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G17" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.45</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2725,79 +2725,79 @@
         <v>2.12</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T17" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X17" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AJ17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -2836,7 +2836,7 @@
         <v>8.6</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>4.2</v>
@@ -2845,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -2866,13 +2866,13 @@
         <v>1.3</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V18" t="n">
         <v>1.1</v>
@@ -2881,19 +2881,19 @@
         <v>2.96</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="Z18" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC18" t="n">
         <v>11</v>
@@ -2905,19 +2905,19 @@
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG18" t="n">
         <v>11.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK18" t="n">
         <v>19</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2992,7 +2992,7 @@
         <v>1.43</v>
       </c>
       <c r="P19" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q19" t="n">
         <v>2.26</v>
@@ -3001,7 +3001,7 @@
         <v>1.25</v>
       </c>
       <c r="S19" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
         <v>1.9</v>
@@ -3109,13 +3109,13 @@
         <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
         <v>3.85</v>
       </c>
       <c r="L20" t="n">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
         <v>1.09</v>
@@ -3130,7 +3130,7 @@
         <v>1.64</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R20" t="n">
         <v>1.22</v>
@@ -3139,10 +3139,10 @@
         <v>4.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
         <v>2</v>
@@ -3154,22 +3154,22 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
         <v>970</v>
       </c>
       <c r="AB20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
         <v>8.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
         <v>970</v>
@@ -3241,7 +3241,7 @@
         <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>4</v>
@@ -3250,34 +3250,34 @@
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
         <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
@@ -3286,58 +3286,58 @@
         <v>2.16</v>
       </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y21" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Z21" t="n">
         <v>970</v>
       </c>
       <c r="AA21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
         <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>970</v>
       </c>
       <c r="AJ21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
     </row>
     <row r="22">
@@ -3373,16 +3373,16 @@
         <v>7.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="I22" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="J22" t="n">
         <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.43</v>
@@ -3391,7 +3391,7 @@
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="O22" t="n">
         <v>1.41</v>
@@ -3400,7 +3400,7 @@
         <v>1.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
@@ -3418,7 +3418,7 @@
         <v>1.89</v>
       </c>
       <c r="W22" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G23" t="n">
         <v>1.56</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.57</v>
       </c>
       <c r="H23" t="n">
         <v>7.2</v>
@@ -3553,7 +3553,7 @@
         <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="X23" t="n">
         <v>15.5</v>
@@ -3571,7 +3571,7 @@
         <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD23" t="n">
         <v>27</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3676,10 +3676,10 @@
         <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="U24" t="n">
         <v>2.24</v>
@@ -3688,7 +3688,7 @@
         <v>1.33</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3700,7 +3700,7 @@
         <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
         <v>10.5</v>
@@ -3742,7 +3742,7 @@
         <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -3775,7 +3775,7 @@
         <v>1.73</v>
       </c>
       <c r="G25" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H25" t="n">
         <v>5.6</v>
@@ -3793,16 +3793,16 @@
         <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
         <v>3.75</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q25" t="n">
         <v>2.04</v>
@@ -3823,10 +3823,10 @@
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
         <v>18</v>
@@ -3841,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG25" t="n">
         <v>9.6</v>
@@ -3952,7 +3952,7 @@
         <v>1.84</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3985,13 +3985,13 @@
         <v>120</v>
       </c>
       <c r="AF26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG26" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
         <v>95</v>
@@ -4012,7 +4012,7 @@
         <v>4.9</v>
       </c>
       <c r="AO26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4045,16 +4045,16 @@
         <v>2.76</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.72</v>
+        <v>2.86</v>
       </c>
       <c r="K27" t="n">
         <v>3.25</v>
@@ -4072,28 +4072,28 @@
         <v>1.52</v>
       </c>
       <c r="P27" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S27" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4111,7 +4111,7 @@
         <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4177,19 +4177,19 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="G28" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H28" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I28" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
@@ -4198,7 +4198,7 @@
         <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
         <v>3.7</v>
@@ -4207,10 +4207,10 @@
         <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R28" t="n">
         <v>1.35</v>
@@ -4222,31 +4222,31 @@
         <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W28" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y28" t="n">
         <v>970</v>
       </c>
       <c r="Z28" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB28" t="n">
         <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD28" t="n">
         <v>970</v>
@@ -4264,7 +4264,7 @@
         <v>970</v>
       </c>
       <c r="AI28" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
         <v>17.5</v>
@@ -4276,10 +4276,10 @@
         <v>970</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>120</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="G29" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
@@ -4342,13 +4342,13 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
         <v>1.78</v>
       </c>
       <c r="R29" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S29" t="n">
         <v>2.98</v>
@@ -4363,61 +4363,61 @@
         <v>1.48</v>
       </c>
       <c r="W29" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y29" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AI29" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AJ29" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AK29" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AM29" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AO29" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30">
@@ -4459,22 +4459,22 @@
         <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K30" t="n">
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P30" t="n">
         <v>3.25</v>
@@ -4483,16 +4483,16 @@
         <v>1.39</v>
       </c>
       <c r="R30" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S30" t="n">
         <v>2.02</v>
       </c>
       <c r="T30" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
@@ -4507,43 +4507,43 @@
         <v>80</v>
       </c>
       <c r="Z30" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>27</v>
       </c>
       <c r="AD30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="AF30" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AL30" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM30" t="n">
         <v>260</v>
@@ -4552,7 +4552,7 @@
         <v>3.05</v>
       </c>
       <c r="AO30" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31">
@@ -4585,34 +4585,34 @@
         <v>1.55</v>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.22</v>
       </c>
       <c r="P31" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="Q31" t="n">
         <v>1.67</v>
@@ -4621,7 +4621,7 @@
         <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="T31" t="n">
         <v>1.79</v>
@@ -4633,13 +4633,13 @@
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X31" t="n">
         <v>25</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z31" t="n">
         <v>60</v>
@@ -4648,43 +4648,43 @@
         <v>210</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC31" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM31" t="n">
         <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AO31" t="n">
         <v>110</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="G32" t="n">
         <v>3.2</v>
       </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I32" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K32" t="n">
         <v>3.45</v>
@@ -4753,19 +4753,19 @@
         <v>2.12</v>
       </c>
       <c r="R32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S32" t="n">
         <v>3.85</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
         <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W32" t="n">
         <v>1.47</v>
@@ -4786,19 +4786,19 @@
         <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE32" t="n">
         <v>970</v>
       </c>
       <c r="AF32" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH32" t="n">
         <v>970</v>
@@ -4807,7 +4807,7 @@
         <v>970</v>
       </c>
       <c r="AJ32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK32" t="n">
         <v>970</v>
@@ -4822,7 +4822,7 @@
         <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -4855,7 +4855,7 @@
         <v>1.64</v>
       </c>
       <c r="G33" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
         <v>3.85</v>
@@ -4864,10 +4864,10 @@
         <v>6.6</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4882,16 +4882,16 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="R33" t="n">
         <v>1.36</v>
       </c>
       <c r="S33" t="n">
-        <v>2.54</v>
+        <v>2.4</v>
       </c>
       <c r="T33" t="n">
         <v>1.56</v>
@@ -4903,7 +4903,7 @@
         <v>1.18</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4996,16 +4996,16 @@
         <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J34" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L34" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -5017,19 +5017,19 @@
         <v>1.19</v>
       </c>
       <c r="P34" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R34" t="n">
         <v>1.6</v>
       </c>
       <c r="S34" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="T34" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="U34" t="n">
         <v>2.5</v>
@@ -5041,52 +5041,52 @@
         <v>1.37</v>
       </c>
       <c r="X34" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y34" t="n">
         <v>17</v>
       </c>
       <c r="Z34" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AA34" t="n">
         <v>30</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC34" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD34" t="n">
         <v>13.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
       </c>
       <c r="AG34" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM34" t="n">
         <v>65</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>60</v>
       </c>
       <c r="AN34" t="n">
         <v>28</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H35" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I35" t="n">
         <v>3.25</v>
       </c>
       <c r="J35" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
         <v>3.6</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5152,10 +5152,10 @@
         <v>1.39</v>
       </c>
       <c r="P35" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="R35" t="n">
         <v>1.26</v>
@@ -5167,13 +5167,13 @@
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V35" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W35" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="X35" t="n">
         <v>14</v>
@@ -5257,16 +5257,16 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -5290,13 +5290,13 @@
         <v>1.86</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R36" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T36" t="n">
         <v>1.8</v>
@@ -5305,10 +5305,10 @@
         <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="G37" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H37" t="n">
         <v>9.4</v>
@@ -5413,7 +5413,7 @@
         <v>1.24</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
         <v>5.5</v>
@@ -5434,7 +5434,7 @@
         <v>2.28</v>
       </c>
       <c r="T37" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U37" t="n">
         <v>1.94</v>
@@ -5443,10 +5443,10 @@
         <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="X37" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Y37" t="n">
         <v>970</v>
@@ -5464,16 +5464,16 @@
         <v>14.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AE37" t="n">
         <v>170</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG37" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH37" t="n">
         <v>30</v>
@@ -5488,7 +5488,7 @@
         <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>38</v>
+        <v>970</v>
       </c>
       <c r="AM37" t="n">
         <v>140</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J38" t="n">
         <v>4.2</v>
@@ -5551,49 +5551,49 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P38" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q38" t="n">
         <v>1.65</v>
       </c>
       <c r="R38" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S38" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="T38" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U38" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="V38" t="n">
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="X38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
         <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA38" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC38" t="n">
         <v>9.800000000000001</v>
@@ -5662,25 +5662,25 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="I39" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J39" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
@@ -5689,7 +5689,7 @@
         <v>3.95</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P39" t="n">
         <v>2.06</v>
@@ -5698,25 +5698,25 @@
         <v>1.9</v>
       </c>
       <c r="R39" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="W39" t="n">
         <v>1.41</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y39" t="n">
         <v>10.5</v>
@@ -5725,16 +5725,16 @@
         <v>14.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE39" t="n">
         <v>23</v>
@@ -5743,31 +5743,31 @@
         <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH39" t="n">
         <v>17.5</v>
       </c>
       <c r="AI39" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ39" t="n">
         <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL39" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AM39" t="n">
         <v>90</v>
       </c>
       <c r="AN39" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AO39" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
@@ -5803,10 +5803,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I40" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
         <v>2.08</v>
@@ -5863,7 +5863,7 @@
         <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC40" t="n">
         <v>8.800000000000001</v>
@@ -5887,7 +5887,7 @@
         <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK40" t="n">
         <v>60</v>
@@ -5974,10 +5974,10 @@
         <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U41" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V41" t="n">
         <v>1.01</v>
@@ -6067,10 +6067,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G42" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
@@ -6085,13 +6085,13 @@
         <v>3.35</v>
       </c>
       <c r="L42" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M42" t="n">
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6118,10 +6118,10 @@
         <v>1.39</v>
       </c>
       <c r="W42" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X42" t="n">
-        <v>11.5</v>
+        <v>14</v>
       </c>
       <c r="Y42" t="n">
         <v>12</v>
@@ -6133,7 +6133,7 @@
         <v>65</v>
       </c>
       <c r="AB42" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC42" t="n">
         <v>7.4</v>
@@ -6151,7 +6151,7 @@
         <v>12</v>
       </c>
       <c r="AH42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI42" t="n">
         <v>60</v>
@@ -6163,7 +6163,7 @@
         <v>30</v>
       </c>
       <c r="AL42" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AM42" t="n">
         <v>140</v>
@@ -6205,7 +6205,7 @@
         <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H43" t="n">
         <v>3.25</v>
@@ -6232,19 +6232,19 @@
         <v>1.53</v>
       </c>
       <c r="P43" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R43" t="n">
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T43" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U43" t="n">
         <v>1.81</v>
@@ -6253,13 +6253,13 @@
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X43" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z43" t="n">
         <v>21</v>
@@ -6280,7 +6280,7 @@
         <v>55</v>
       </c>
       <c r="AF43" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AG43" t="n">
         <v>13</v>
@@ -6301,10 +6301,10 @@
         <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN43" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AO43" t="n">
         <v>70</v>
@@ -6343,7 +6343,7 @@
         <v>1.54</v>
       </c>
       <c r="H44" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I44" t="n">
         <v>8.6</v>
@@ -6352,10 +6352,10 @@
         <v>4.4</v>
       </c>
       <c r="K44" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -6364,22 +6364,22 @@
         <v>3.75</v>
       </c>
       <c r="O44" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="Q44" t="n">
         <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S44" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U44" t="n">
         <v>1.81</v>
@@ -6400,10 +6400,10 @@
         <v>1000</v>
       </c>
       <c r="AA44" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AB44" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC44" t="n">
         <v>10.5</v>
@@ -6418,19 +6418,19 @@
         <v>8.4</v>
       </c>
       <c r="AG44" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
         <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL44" t="n">
         <v>44</v>
@@ -6439,7 +6439,7 @@
         <v>210</v>
       </c>
       <c r="AN44" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO44" t="n">
         <v>250</v>
@@ -6625,7 +6625,7 @@
         <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6640,7 +6640,7 @@
         <v>1.76</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
         <v>1.28</v>
@@ -6649,10 +6649,10 @@
         <v>3.75</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U46" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="V46" t="n">
         <v>1.17</v>
@@ -6661,55 +6661,55 @@
         <v>2.36</v>
       </c>
       <c r="X46" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Z46" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA46" t="n">
         <v>230</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
       </c>
       <c r="AF46" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG46" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
       </c>
       <c r="AJ46" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
         <v>190</v>
       </c>
       <c r="AN46" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AO46" t="n">
         <v>180</v>
@@ -6745,7 +6745,7 @@
         <v>2.18</v>
       </c>
       <c r="G47" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
@@ -6757,10 +6757,10 @@
         <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
@@ -6769,22 +6769,22 @@
         <v>3.3</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P47" t="n">
         <v>1.79</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R47" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S47" t="n">
         <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
@@ -6793,16 +6793,16 @@
         <v>1.3</v>
       </c>
       <c r="W47" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X47" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
         <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA47" t="n">
         <v>100</v>
@@ -6811,13 +6811,13 @@
         <v>8.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD47" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF47" t="n">
         <v>13.5</v>
@@ -6826,7 +6826,7 @@
         <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI47" t="n">
         <v>70</v>
@@ -6847,7 +6847,7 @@
         <v>22</v>
       </c>
       <c r="AO47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -6877,16 +6877,16 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="G48" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I48" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="J48" t="n">
         <v>3.35</v>
@@ -6895,67 +6895,67 @@
         <v>3.45</v>
       </c>
       <c r="L48" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O48" t="n">
         <v>1.3</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="R48" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T48" t="n">
         <v>1.75</v>
       </c>
       <c r="U48" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V48" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W48" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X48" t="n">
         <v>14.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z48" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB48" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC48" t="n">
         <v>7.6</v>
       </c>
       <c r="AD48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG48" t="n">
         <v>11.5</v>
@@ -6964,13 +6964,13 @@
         <v>16</v>
       </c>
       <c r="AI48" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ48" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL48" t="n">
         <v>38</v>
@@ -6979,10 +6979,10 @@
         <v>90</v>
       </c>
       <c r="AN48" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AO48" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
@@ -7012,16 +7012,16 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="G49" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="H49" t="n">
         <v>3.05</v>
       </c>
       <c r="I49" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J49" t="n">
         <v>2.86</v>
@@ -7030,28 +7030,28 @@
         <v>3.1</v>
       </c>
       <c r="L49" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N49" t="n">
         <v>2.64</v>
       </c>
       <c r="O49" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P49" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="R49" t="n">
         <v>1.19</v>
       </c>
       <c r="S49" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="T49" t="n">
         <v>2</v>
@@ -7063,7 +7063,7 @@
         <v>1.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X49" t="n">
         <v>9</v>
@@ -7072,43 +7072,43 @@
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA49" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC49" t="n">
         <v>7.2</v>
       </c>
       <c r="AD49" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF49" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AG49" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI49" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ49" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK49" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AL49" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM49" t="n">
         <v>190</v>
@@ -7186,13 +7186,13 @@
         <v>1.18</v>
       </c>
       <c r="S50" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T50" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U50" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V50" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -673,7 +673,7 @@
         <v>1.26</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
@@ -697,22 +697,22 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
         <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="V2" t="n">
         <v>1.04</v>
@@ -754,7 +754,7 @@
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="AJ2" t="n">
         <v>10</v>
@@ -808,7 +808,7 @@
         <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="I3" t="n">
         <v>2.02</v>
@@ -820,13 +820,13 @@
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="O3" t="n">
         <v>1.49</v>
@@ -835,7 +835,7 @@
         <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R3" t="n">
         <v>1.22</v>
@@ -844,10 +844,10 @@
         <v>4.9</v>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U3" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V3" t="n">
         <v>1.98</v>
@@ -955,7 +955,7 @@
         <v>3.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -985,7 +985,7 @@
         <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
         <v>1.64</v>
@@ -1075,10 +1075,10 @@
         <v>2.32</v>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
         <v>3.75</v>
@@ -1087,10 +1087,10 @@
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
@@ -1099,7 +1099,7 @@
         <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
         <v>1.76</v>
@@ -1123,7 +1123,7 @@
         <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1198,118 +1198,118 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SSD Dolomiti Bellunesi</t>
+          <t>Novara</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Pergolettese</t>
+          <t>Albinoleffe</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.68</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.05</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1333,55 +1333,55 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Novara</t>
+          <t>SSD Dolomiti Bellunesi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Albinoleffe</t>
+          <t>Pergolettese</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P7" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.26</v>
+        <v>2.36</v>
       </c>
       <c r="R7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.93</v>
@@ -1390,52 +1390,52 @@
         <v>1.88</v>
       </c>
       <c r="V7" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I8" t="n">
         <v>2.74</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.76</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>5.2</v>
@@ -1507,7 +1507,7 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1519,34 +1519,34 @@
         <v>2.62</v>
       </c>
       <c r="T8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
         <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X8" t="n">
         <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1561,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
@@ -1576,13 +1576,13 @@
         <v>32</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
         <v>16.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
         <v>4.4</v>
@@ -1645,7 +1645,7 @@
         <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="R9" t="n">
         <v>1.15</v>
@@ -1663,7 +1663,7 @@
         <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
         <v>9</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1756,7 +1756,7 @@
         <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J10" t="n">
         <v>3.15</v>
@@ -1771,16 +1771,16 @@
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O10" t="n">
         <v>1.46</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>1.25</v>
@@ -1789,70 +1789,70 @@
         <v>4.6</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U10" t="n">
         <v>1.89</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF10" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH10" t="n">
         <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="n">
         <v>60</v>
       </c>
       <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN10" t="n">
         <v>75</v>
       </c>
-      <c r="AM10" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>80</v>
-      </c>
       <c r="AO10" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,40 +1906,40 @@
         <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>2.68</v>
+        <v>2.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.46</v>
       </c>
       <c r="R11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
       </c>
       <c r="U11" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W11" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>34</v>
@@ -1951,13 +1951,13 @@
         <v>8.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1966,22 +1966,22 @@
         <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK11" t="n">
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
         <v>34</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H12" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="I12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2047,82 +2047,82 @@
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V12" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AK12" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
@@ -2158,19 +2158,19 @@
         <v>3.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="I13" t="n">
         <v>2.54</v>
       </c>
       <c r="J13" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M13" t="n">
         <v>1.12</v>
@@ -2182,13 +2182,13 @@
         <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S13" t="n">
         <v>4.8</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
         <v>1.64</v>
@@ -2239,19 +2239,19 @@
         <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
         <v>70</v>
       </c>
       <c r="AK13" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
         <v>65</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
         <v>2.76</v>
@@ -2302,7 +2302,7 @@
         <v>2.98</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2314,7 +2314,7 @@
         <v>2.68</v>
       </c>
       <c r="O14" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P14" t="n">
         <v>1.55</v>
@@ -2326,10 +2326,10 @@
         <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U14" t="n">
         <v>1.82</v>
@@ -2374,7 +2374,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="n">
         <v>44</v>
@@ -2383,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="AL14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM14" t="n">
         <v>180</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -2413,55 +2413,55 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Inter Milan (Res)</t>
+          <t>Pro Vercelli</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Lumezzane</t>
+          <t>LR Vicenza Virtus</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.32</v>
+        <v>7.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>1.73</v>
       </c>
       <c r="I15" t="n">
-        <v>5.9</v>
+        <v>2.14</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="O15" t="n">
-        <v>1.41</v>
+        <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>2.86</v>
+        <v>1.65</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
@@ -2470,10 +2470,10 @@
         <v>1.05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="W15" t="n">
-        <v>1.75</v>
+        <v>1.16</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2560,10 +2560,10 @@
         <v>2.46</v>
       </c>
       <c r="G16" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="I16" t="n">
         <v>2.98</v>
@@ -2572,7 +2572,7 @@
         <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.23</v>
@@ -2581,34 +2581,34 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
         <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U16" t="n">
         <v>2.66</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
         <v>980</v>
@@ -2620,7 +2620,7 @@
         <v>980</v>
       </c>
       <c r="AA16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
         <v>16.5</v>
@@ -2635,7 +2635,7 @@
         <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2650,7 +2650,7 @@
         <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
@@ -2659,7 +2659,7 @@
         <v>55</v>
       </c>
       <c r="AN16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO16" t="n">
         <v>16.5</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
         <v>3.45</v>
@@ -2722,16 +2722,16 @@
         <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="R17" t="n">
         <v>1.46</v>
       </c>
       <c r="S17" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T17" t="n">
         <v>1.65</v>
@@ -2752,7 +2752,7 @@
         <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA17" t="n">
         <v>65</v>
@@ -2767,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AF17" t="n">
         <v>18</v>
@@ -2779,16 +2779,16 @@
         <v>15.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AK17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM17" t="n">
         <v>75</v>
@@ -2818,118 +2818,118 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Aurora Pro Patria 1919</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SS Virtus Verona 1921</t>
+          <t>Cittadella</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.43</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
         <v>8.6</v>
       </c>
-      <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W18" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X18" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
       <c r="AD18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>8.199999999999999</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AH18" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,109 +2953,109 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Arzignanochiampo</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A.C. Trento S.C.S.D.</t>
+          <t>Lecco</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.94</v>
+        <v>2.72</v>
       </c>
       <c r="G19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H19" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="I19" t="n">
-        <v>2.84</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>2.98</v>
+        <v>2.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="P19" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="T19" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="U19" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Aurora Pro Patria 1919</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cittadella</t>
+          <t>SS Virtus Verona 1921</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.88</v>
+        <v>8.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="J20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S20" t="n">
         <v>3.3</v>
       </c>
-      <c r="K20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4.1</v>
-      </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
         <v>970</v>
       </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3235,7 +3235,7 @@
         <v>1.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
         <v>4.5</v>
@@ -3250,7 +3250,7 @@
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3262,19 +3262,19 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="Q21" t="n">
         <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="S21" t="n">
         <v>2.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U21" t="n">
         <v>2.54</v>
@@ -3283,7 +3283,7 @@
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="X21" t="n">
         <v>28</v>
@@ -3298,10 +3298,10 @@
         <v>120</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
@@ -3310,7 +3310,7 @@
         <v>970</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG21" t="n">
         <v>11</v>
@@ -3358,55 +3358,55 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pro Vercelli</t>
+          <t>Inter Milan (Res)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LR Vicenza Virtus</t>
+          <t>Lumezzane</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>7.4</v>
+        <v>2.32</v>
       </c>
       <c r="H22" t="n">
-        <v>1.71</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.12</v>
+        <v>5.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="O22" t="n">
         <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.14</v>
+        <v>1.74</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,10 +3415,10 @@
         <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.89</v>
+        <v>1.2</v>
       </c>
       <c r="W22" t="n">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3517,7 +3517,7 @@
         <v>4.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L23" t="n">
         <v>1.43</v>
@@ -3526,7 +3526,7 @@
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3559,7 +3559,7 @@
         <v>15.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
         <v>60</v>
@@ -3580,7 +3580,7 @@
         <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG23" t="n">
         <v>9.800000000000001</v>
@@ -3604,7 +3604,7 @@
         <v>160</v>
       </c>
       <c r="AN23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO23" t="n">
         <v>150</v>
@@ -3661,16 +3661,16 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O24" t="n">
         <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R24" t="n">
         <v>1.42</v>
@@ -3679,10 +3679,10 @@
         <v>3.25</v>
       </c>
       <c r="T24" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U24" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
         <v>1.33</v>
@@ -3706,7 +3706,7 @@
         <v>10.5</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
         <v>15.5</v>
@@ -3715,7 +3715,7 @@
         <v>44</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG24" t="n">
         <v>10.5</v>
@@ -3724,10 +3724,10 @@
         <v>17</v>
       </c>
       <c r="AI24" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G25" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I25" t="n">
         <v>5.6</v>
       </c>
-      <c r="I25" t="n">
-        <v>5.7</v>
-      </c>
       <c r="J25" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K25" t="n">
         <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3796,34 +3796,34 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O25" t="n">
         <v>1.34</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q25" t="n">
         <v>2.04</v>
       </c>
       <c r="R25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T25" t="n">
         <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V25" t="n">
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X25" t="n">
         <v>14</v>
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AG25" t="n">
         <v>9.6</v>
@@ -3913,10 +3913,10 @@
         <v>1.39</v>
       </c>
       <c r="H26" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I26" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3934,25 +3934,25 @@
         <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S26" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T26" t="n">
         <v>1.84</v>
       </c>
       <c r="U26" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3961,19 +3961,19 @@
         <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z26" t="n">
         <v>85</v>
       </c>
       <c r="AA26" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -3991,7 +3991,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
         <v>95</v>
@@ -4009,7 +4009,7 @@
         <v>110</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO26" t="n">
         <v>110</v>
@@ -4033,109 +4033,109 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Arzignanochiampo</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Lecco</t>
+          <t>A.C. Trento S.C.S.D.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="G27" t="n">
         <v>3.25</v>
       </c>
       <c r="H27" t="n">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="J27" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W27" t="n">
         <v>1.44</v>
       </c>
-      <c r="W27" t="n">
-        <v>1.46</v>
-      </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
         <v>1000</v>
@@ -4144,10 +4144,10 @@
         <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4177,46 +4177,46 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="G28" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="H28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
         <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="R28" t="n">
         <v>1.35</v>
       </c>
       <c r="S28" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
         <v>1.89</v>
@@ -4225,22 +4225,22 @@
         <v>2.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W28" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="X28" t="n">
         <v>16</v>
       </c>
       <c r="Y28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB28" t="n">
         <v>8.6</v>
@@ -4270,19 +4270,19 @@
         <v>17.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
         <v>970</v>
       </c>
       <c r="AM28" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H29" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.5</v>
@@ -4330,7 +4330,7 @@
         <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
@@ -4345,28 +4345,28 @@
         <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R29" t="n">
         <v>1.43</v>
       </c>
       <c r="S29" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="U29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W29" t="n">
         <v>1.64</v>
       </c>
       <c r="X29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>14</v>
@@ -4414,7 +4414,7 @@
         <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>970</v>
@@ -4453,37 +4453,37 @@
         <v>1.17</v>
       </c>
       <c r="H30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I30" t="n">
         <v>24</v>
       </c>
       <c r="J30" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="K30" t="n">
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O30" t="n">
         <v>1.12</v>
       </c>
       <c r="P30" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="R30" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
         <v>2.02</v>
@@ -4492,7 +4492,7 @@
         <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
         <v>1.04</v>
@@ -4504,10 +4504,10 @@
         <v>55</v>
       </c>
       <c r="Y30" t="n">
-        <v>80</v>
+        <v>970</v>
       </c>
       <c r="Z30" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4516,16 +4516,16 @@
         <v>15</v>
       </c>
       <c r="AC30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD30" t="n">
         <v>80</v>
       </c>
       <c r="AE30" t="n">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="AF30" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
         <v>14.5</v>
@@ -4537,7 +4537,7 @@
         <v>280</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK30" t="n">
         <v>16</v>
@@ -4549,10 +4549,10 @@
         <v>260</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="AO30" t="n">
-        <v>490</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31">
@@ -4594,13 +4594,13 @@
         <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="K31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M31" t="n">
         <v>1.05</v>
@@ -4630,7 +4630,7 @@
         <v>2.06</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
         <v>2.56</v>
@@ -4720,16 +4720,16 @@
         <v>2.96</v>
       </c>
       <c r="G32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H32" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I32" t="n">
         <v>2.68</v>
       </c>
       <c r="J32" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K32" t="n">
         <v>3.45</v>
@@ -4741,7 +4741,7 @@
         <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
@@ -4756,19 +4756,19 @@
         <v>1.28</v>
       </c>
       <c r="S32" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>1.59</v>
       </c>
       <c r="W32" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X32" t="n">
         <v>15</v>
@@ -4777,7 +4777,7 @@
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>970</v>
@@ -4786,7 +4786,7 @@
         <v>11.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>12.5</v>
@@ -4798,10 +4798,10 @@
         <v>970</v>
       </c>
       <c r="AG32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>970</v>
@@ -4852,22 +4852,22 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="H33" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I33" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
@@ -4882,28 +4882,28 @@
         <v>1.21</v>
       </c>
       <c r="P33" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="S33" t="n">
-        <v>2.4</v>
+        <v>2.66</v>
       </c>
       <c r="T33" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="U33" t="n">
         <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W33" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="X33" t="n">
         <v>1000</v>
@@ -4996,76 +4996,76 @@
         <v>2.02</v>
       </c>
       <c r="I34" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K34" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="O34" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="Q34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.55</v>
       </c>
-      <c r="R34" t="n">
-        <v>1.6</v>
-      </c>
       <c r="S34" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="T34" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="U34" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V34" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
         <v>1.37</v>
       </c>
       <c r="X34" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Y34" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD34" t="n">
         <v>13.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG34" t="n">
         <v>17.5</v>
@@ -5074,25 +5074,25 @@
         <v>17.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AJ34" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL34" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM34" t="n">
         <v>65</v>
       </c>
       <c r="AN34" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="35">
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G35" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I35" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5161,13 +5161,13 @@
         <v>1.26</v>
       </c>
       <c r="S35" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T35" t="n">
         <v>1.83</v>
       </c>
       <c r="U35" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V35" t="n">
         <v>1.45</v>
@@ -5194,7 +5194,7 @@
         <v>9</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE35" t="n">
         <v>970</v>
@@ -5203,7 +5203,7 @@
         <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AH35" t="n">
         <v>970</v>
@@ -5218,7 +5218,7 @@
         <v>970</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
         <v>150</v>
@@ -5260,19 +5260,19 @@
         <v>1.96</v>
       </c>
       <c r="G36" t="n">
-        <v>1.97</v>
+        <v>2.16</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L36" t="n">
         <v>1.41</v>
@@ -5308,61 +5308,61 @@
         <v>1.28</v>
       </c>
       <c r="W36" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
         <v>18</v>
       </c>
       <c r="Z36" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AA36" t="n">
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC36" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
         <v>70</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AJ36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK36" t="n">
         <v>27</v>
       </c>
       <c r="AL36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM36" t="n">
         <v>130</v>
       </c>
       <c r="AN36" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -5392,112 +5392,112 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="G37" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="H37" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="I37" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="J37" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="K37" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="O37" t="n">
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="T37" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U37" t="n">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="V37" t="n">
         <v>1.09</v>
       </c>
       <c r="W37" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="X37" t="n">
         <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="Z37" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AA37" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC37" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AD37" t="n">
         <v>970</v>
       </c>
       <c r="AE37" t="n">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="AF37" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG37" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI37" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AJ37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK37" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL37" t="n">
         <v>970</v>
       </c>
       <c r="AM37" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="AO37" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
@@ -5551,31 +5551,31 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P38" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R38" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S38" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T38" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U38" t="n">
-        <v>2.48</v>
+        <v>2.36</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W38" t="n">
         <v>2.28</v>
@@ -5584,16 +5584,16 @@
         <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z38" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA38" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB38" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC38" t="n">
         <v>9.800000000000001</v>
@@ -5608,10 +5608,10 @@
         <v>12.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI38" t="n">
         <v>55</v>
@@ -5623,16 +5623,16 @@
         <v>16.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM38" t="n">
         <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39">
@@ -5662,16 +5662,16 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G39" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="I39" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J39" t="n">
         <v>3.85</v>
@@ -5683,10 +5683,10 @@
         <v>1.38</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O39" t="n">
         <v>1.31</v>
@@ -5704,16 +5704,16 @@
         <v>3.3</v>
       </c>
       <c r="T39" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="U39" t="n">
         <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W39" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
         <v>16</v>
@@ -5722,7 +5722,7 @@
         <v>10.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA39" t="n">
         <v>29</v>
@@ -5734,7 +5734,7 @@
         <v>8.4</v>
       </c>
       <c r="AD39" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE39" t="n">
         <v>23</v>
@@ -5743,7 +5743,7 @@
         <v>25</v>
       </c>
       <c r="AG39" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH39" t="n">
         <v>17.5</v>
@@ -5755,19 +5755,19 @@
         <v>65</v>
       </c>
       <c r="AK39" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM39" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN39" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -5803,10 +5803,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.82</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.83</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P40" t="n">
         <v>2.08</v>
@@ -5842,7 +5842,7 @@
         <v>1.84</v>
       </c>
       <c r="U40" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V40" t="n">
         <v>2.2</v>
@@ -5863,10 +5863,10 @@
         <v>18.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD40" t="n">
         <v>9.6</v>
@@ -5899,7 +5899,7 @@
         <v>100</v>
       </c>
       <c r="AN40" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO40" t="n">
         <v>11</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G42" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>3.4</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J42" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L42" t="n">
         <v>1.46</v>
@@ -6091,7 +6091,7 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6103,22 +6103,22 @@
         <v>2.18</v>
       </c>
       <c r="R42" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T42" t="n">
         <v>1.87</v>
       </c>
       <c r="U42" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V42" t="n">
         <v>1.39</v>
       </c>
       <c r="W42" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X42" t="n">
         <v>14</v>
@@ -6205,19 +6205,19 @@
         <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="H43" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
         <v>3.45</v>
       </c>
       <c r="J43" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L43" t="n">
         <v>1.57</v>
@@ -6226,7 +6226,7 @@
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="O43" t="n">
         <v>1.53</v>
@@ -6253,22 +6253,22 @@
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AA43" t="n">
         <v>70</v>
       </c>
       <c r="AB43" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC43" t="n">
         <v>7.2</v>
@@ -6286,25 +6286,25 @@
         <v>13</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AI43" t="n">
         <v>75</v>
       </c>
       <c r="AJ43" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AK43" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL43" t="n">
         <v>65</v>
       </c>
       <c r="AM43" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN43" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AO43" t="n">
         <v>70</v>
@@ -6367,13 +6367,13 @@
         <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="Q44" t="n">
         <v>1.98</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S44" t="n">
         <v>3.55</v>
@@ -6409,7 +6409,7 @@
         <v>10.5</v>
       </c>
       <c r="AD44" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE44" t="n">
         <v>1000</v>
@@ -6436,7 +6436,7 @@
         <v>44</v>
       </c>
       <c r="AM44" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN44" t="n">
         <v>8.800000000000001</v>
@@ -6625,7 +6625,7 @@
         <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6664,7 +6664,7 @@
         <v>13.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z46" t="n">
         <v>55</v>
@@ -6679,7 +6679,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD46" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE46" t="n">
         <v>130</v>
@@ -6691,19 +6691,19 @@
         <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AI46" t="n">
         <v>130</v>
       </c>
       <c r="AJ46" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK46" t="n">
         <v>970</v>
       </c>
-      <c r="AK46" t="n">
-        <v>21</v>
-      </c>
       <c r="AL46" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM46" t="n">
         <v>190</v>
@@ -6742,7 +6742,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G47" t="n">
         <v>2.24</v>
@@ -6751,10 +6751,10 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K47" t="n">
         <v>3.35</v>
@@ -6778,19 +6778,19 @@
         <v>2.18</v>
       </c>
       <c r="R47" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S47" t="n">
         <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
       </c>
       <c r="V47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W47" t="n">
         <v>1.8</v>
@@ -6802,25 +6802,25 @@
         <v>13.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA47" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB47" t="n">
         <v>8.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE47" t="n">
         <v>55</v>
       </c>
       <c r="AF47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG47" t="n">
         <v>11</v>
@@ -6832,22 +6832,22 @@
         <v>70</v>
       </c>
       <c r="AJ47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK47" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL47" t="n">
         <v>44</v>
       </c>
       <c r="AM47" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO47" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
@@ -6910,7 +6910,7 @@
         <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R48" t="n">
         <v>1.39</v>
@@ -6922,7 +6922,7 @@
         <v>1.75</v>
       </c>
       <c r="U48" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V48" t="n">
         <v>1.4</v>
@@ -7072,7 +7072,7 @@
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA49" t="n">
         <v>65</v>
@@ -7096,7 +7096,7 @@
         <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI49" t="n">
         <v>80</v>
@@ -7105,7 +7105,7 @@
         <v>50</v>
       </c>
       <c r="AK49" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AL49" t="n">
         <v>65</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-11.xlsx
@@ -667,67 +667,67 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.24</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.26</v>
-      </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.9</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z2" t="n">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>7.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,19 +748,19 @@
         <v>7.2</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AK2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H3" t="n">
         <v>1.99</v>
@@ -820,7 +820,7 @@
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -892,13 +892,13 @@
         <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AK3" t="n">
         <v>95</v>
       </c>
       <c r="AL3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="n">
         <v>230</v>
@@ -979,7 +979,7 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.91</v>
@@ -991,16 +991,16 @@
         <v>1.64</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
         <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AB4" t="n">
         <v>10.5</v>
@@ -1012,7 +1012,7 @@
         <v>18.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
         <v>18</v>
@@ -1021,19 +1021,19 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AJ4" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="n">
         <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
@@ -1072,31 +1072,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I5" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
         <v>1.09</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="O5" t="n">
         <v>1.39</v>
@@ -1120,13 +1120,13 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W5" t="n">
         <v>1.64</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1156,13 +1156,13 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1216,16 +1216,16 @@
         <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
         <v>3.05</v>
       </c>
       <c r="K6" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L6" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1237,7 +1237,7 @@
         <v>1.43</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.26</v>
@@ -1249,19 +1249,19 @@
         <v>3.9</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
         <v>1.69</v>
       </c>
       <c r="X6" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>14</v>
@@ -1270,7 +1270,7 @@
         <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>9.800000000000001</v>
@@ -1282,7 +1282,7 @@
         <v>19.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>70</v>
+        <v>240</v>
       </c>
       <c r="AF6" t="n">
         <v>17</v>
@@ -1291,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1303,7 +1303,7 @@
         <v>32</v>
       </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
@@ -1360,7 +1360,7 @@
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1396,7 +1396,7 @@
         <v>1.48</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1480,19 +1480,19 @@
         <v>2.66</v>
       </c>
       <c r="G8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="I8" t="n">
         <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
         <v>1.29</v>
@@ -1504,10 +1504,10 @@
         <v>5.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
         <v>1.67</v>
@@ -1525,7 +1525,7 @@
         <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
         <v>1.58</v>
@@ -1540,13 +1540,13 @@
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
@@ -1558,16 +1558,16 @@
         <v>20</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK8" t="n">
         <v>25</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
         <v>2.26</v>
@@ -1621,7 +1621,7 @@
         <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.94</v>
@@ -1630,7 +1630,7 @@
         <v>3.15</v>
       </c>
       <c r="L9" t="n">
-        <v>1.53</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.15</v>
@@ -1642,7 +1642,7 @@
         <v>1.65</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="Q9" t="n">
         <v>2.96</v>
@@ -1657,16 +1657,16 @@
         <v>2.32</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="Y9" t="n">
         <v>13.5</v>
@@ -1699,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ9" t="n">
         <v>36</v>
@@ -1714,10 +1714,10 @@
         <v>320</v>
       </c>
       <c r="AN9" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO9" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
         <v>2.3</v>
@@ -1762,22 +1762,22 @@
         <v>3.15</v>
       </c>
       <c r="K10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
         <v>2.38</v>
@@ -1786,13 +1786,13 @@
         <v>1.25</v>
       </c>
       <c r="S10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T10" t="n">
         <v>1.99</v>
       </c>
       <c r="U10" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>1.76</v>
@@ -1831,7 +1831,7 @@
         <v>16.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1852,7 +1852,7 @@
         <v>75</v>
       </c>
       <c r="AO10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -1885,10 +1885,10 @@
         <v>2.18</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
         <v>4.4</v>
@@ -1912,7 +1912,7 @@
         <v>1.49</v>
       </c>
       <c r="P11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q11" t="n">
         <v>2.46</v>
@@ -1921,7 +1921,7 @@
         <v>1.22</v>
       </c>
       <c r="S11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T11" t="n">
         <v>2.06</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
         <v>8.6</v>
@@ -1957,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1966,10 +1966,10 @@
         <v>13.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>380</v>
       </c>
       <c r="AJ11" t="n">
         <v>32</v>
@@ -1978,10 +1978,10 @@
         <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN11" t="n">
         <v>34</v>
@@ -2020,22 +2020,22 @@
         <v>3.45</v>
       </c>
       <c r="G12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2044,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
         <v>1.96</v>
@@ -2056,25 +2056,25 @@
         <v>1.38</v>
       </c>
       <c r="S12" t="n">
-        <v>1.9</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
         <v>1.62</v>
       </c>
       <c r="U12" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="W12" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
         <v>21</v>
@@ -2083,22 +2083,22 @@
         <v>40</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="n">
         <v>1000</v>
@@ -2107,22 +2107,22 @@
         <v>980</v>
       </c>
       <c r="AJ12" t="n">
-        <v>90</v>
+        <v>440</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -2152,37 +2152,37 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I13" t="n">
         <v>2.48</v>
       </c>
-      <c r="I13" t="n">
-        <v>2.54</v>
-      </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K13" t="n">
         <v>3.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N13" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
       </c>
       <c r="P13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q13" t="n">
         <v>2.46</v>
@@ -2194,25 +2194,25 @@
         <v>4.8</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
         <v>9.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
         <v>36</v>
@@ -2221,7 +2221,7 @@
         <v>11</v>
       </c>
       <c r="AC13" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD13" t="n">
         <v>12.5</v>
@@ -2230,34 +2230,34 @@
         <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
         <v>55</v>
       </c>
       <c r="AJ13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
         <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
         <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2290,7 +2290,7 @@
         <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H14" t="n">
         <v>3.3</v>
@@ -2299,7 +2299,7 @@
         <v>3.4</v>
       </c>
       <c r="J14" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>3.05</v>
@@ -2311,16 +2311,16 @@
         <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.55</v>
       </c>
       <c r="P14" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2329,10 +2329,10 @@
         <v>5.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
         <v>1.41</v>
@@ -2341,7 +2341,7 @@
         <v>1.57</v>
       </c>
       <c r="X14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="Y14" t="n">
         <v>9.4</v>
@@ -2353,13 +2353,13 @@
         <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14" t="n">
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE14" t="n">
         <v>55</v>
@@ -2371,7 +2371,7 @@
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>75</v>
@@ -2380,7 +2380,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
         <v>65</v>
@@ -2392,7 +2392,7 @@
         <v>44</v>
       </c>
       <c r="AO14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
@@ -2452,16 +2452,16 @@
         <v>1.06</v>
       </c>
       <c r="P15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
         <v>1.18</v>
       </c>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.05</v>
       </c>
       <c r="T15" t="n">
         <v>1.05</v>
@@ -2491,7 +2491,7 @@
         <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD15" t="n">
         <v>1000</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="J16" t="n">
         <v>3.9</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
         <v>1.23</v>
@@ -2581,43 +2581,43 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
         <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="Q16" t="n">
         <v>1.55</v>
       </c>
       <c r="R16" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="S16" t="n">
-        <v>2.28</v>
+        <v>2.22</v>
       </c>
       <c r="T16" t="n">
         <v>1.53</v>
       </c>
       <c r="U16" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="X16" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="Y16" t="n">
         <v>18.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AA16" t="n">
         <v>50</v>
@@ -2632,10 +2632,10 @@
         <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AF16" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
         <v>12.5</v>
@@ -2647,22 +2647,22 @@
         <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>130</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL16" t="n">
         <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
         <v>12</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.65</v>
@@ -2713,91 +2713,91 @@
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="P17" t="n">
         <v>2.14</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="V17" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W17" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>440</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF17" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>11.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN17" t="n">
         <v>14.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18">
@@ -2839,13 +2839,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.85</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
@@ -2863,10 +2863,10 @@
         <v>2.28</v>
       </c>
       <c r="R18" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
         <v>2.04</v>
@@ -2881,37 +2881,37 @@
         <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y18" t="n">
-        <v>980</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
         <v>8.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>2.72</v>
       </c>
       <c r="G19" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H19" t="n">
         <v>2.76</v>
@@ -2977,10 +2977,10 @@
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3010,16 +3010,16 @@
         <v>1.84</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="n">
         <v>1000</v>
@@ -3028,10 +3028,10 @@
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3046,7 +3046,7 @@
         <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>1.43</v>
       </c>
       <c r="G20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H20" t="n">
         <v>8.6</v>
@@ -3112,7 +3112,7 @@
         <v>4.2</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L20" t="n">
         <v>1.41</v>
@@ -3121,13 +3121,13 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q20" t="n">
         <v>2.02</v>
@@ -3136,7 +3136,7 @@
         <v>1.3</v>
       </c>
       <c r="S20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T20" t="n">
         <v>2.22</v>
@@ -3148,7 +3148,7 @@
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,25 +3232,25 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="G21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3265,37 +3265,37 @@
         <v>2.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T21" t="n">
         <v>1.61</v>
       </c>
       <c r="U21" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
         <v>1.25</v>
       </c>
       <c r="W21" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="X21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Z21" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AA21" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
@@ -3304,31 +3304,31 @@
         <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
-        <v>970</v>
+        <v>50</v>
       </c>
       <c r="AF21" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH21" t="n">
         <v>16</v>
       </c>
       <c r="AI21" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM21" t="n">
         <v>65</v>
@@ -3337,7 +3337,7 @@
         <v>7.8</v>
       </c>
       <c r="AO21" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
@@ -3376,7 +3376,7 @@
         <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J22" t="n">
         <v>3</v>
@@ -3391,22 +3391,22 @@
         <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>1.76</v>
+        <v>2.16</v>
       </c>
       <c r="O22" t="n">
         <v>1.41</v>
       </c>
       <c r="P22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
         <v>1.18</v>
       </c>
       <c r="S22" t="n">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
       <c r="T22" t="n">
         <v>1.05</v>
@@ -3415,7 +3415,7 @@
         <v>1.05</v>
       </c>
       <c r="V22" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
         <v>1.75</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="G23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="H23" t="n">
         <v>7.2</v>
@@ -3514,19 +3514,19 @@
         <v>7.4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K23" t="n">
         <v>4.6</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M23" t="n">
         <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
         <v>1.32</v>
@@ -3538,10 +3538,10 @@
         <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S23" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.08</v>
@@ -3553,7 +3553,7 @@
         <v>1.15</v>
       </c>
       <c r="W23" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="X23" t="n">
         <v>15.5</v>
@@ -3577,7 +3577,7 @@
         <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="n">
         <v>8.199999999999999</v>
@@ -3586,7 +3586,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>110</v>
@@ -3598,10 +3598,10 @@
         <v>16.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM23" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN23" t="n">
         <v>8.800000000000001</v>
@@ -3643,10 +3643,10 @@
         <v>2.1</v>
       </c>
       <c r="H24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.95</v>
       </c>
       <c r="J24" t="n">
         <v>3.75</v>
@@ -3661,34 +3661,34 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S24" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
         <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W24" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="X24" t="n">
         <v>16</v>
@@ -3697,13 +3697,13 @@
         <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA24" t="n">
         <v>75</v>
       </c>
       <c r="AB24" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>8.199999999999999</v>
@@ -3712,7 +3712,7 @@
         <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF24" t="n">
         <v>13</v>
@@ -3721,19 +3721,19 @@
         <v>10.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ24" t="n">
         <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM24" t="n">
         <v>85</v>
@@ -3742,7 +3742,7 @@
         <v>13.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.75</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.76</v>
-      </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.44</v>
@@ -3796,37 +3796,37 @@
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O25" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R25" t="n">
         <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>1.21</v>
       </c>
       <c r="W25" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>18</v>
@@ -3841,7 +3841,7 @@
         <v>8</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD25" t="n">
         <v>21</v>
@@ -3853,13 +3853,13 @@
         <v>9.6</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
         <v>17</v>
@@ -3868,7 +3868,7 @@
         <v>18.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
         <v>130</v>
@@ -3913,10 +3913,10 @@
         <v>1.39</v>
       </c>
       <c r="H26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I26" t="n">
         <v>9.4</v>
-      </c>
-      <c r="I26" t="n">
-        <v>9.6</v>
       </c>
       <c r="J26" t="n">
         <v>5.8</v>
@@ -3937,22 +3937,22 @@
         <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="R26" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T26" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U26" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>1.11</v>
@@ -3961,19 +3961,19 @@
         <v>3.55</v>
       </c>
       <c r="X26" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y26" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA26" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AC26" t="n">
         <v>13</v>
@@ -4003,7 +4003,7 @@
         <v>13</v>
       </c>
       <c r="AL26" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM26" t="n">
         <v>110</v>
@@ -4012,7 +4012,7 @@
         <v>4.8</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="G27" t="n">
         <v>3.25</v>
@@ -4051,13 +4051,13 @@
         <v>2.58</v>
       </c>
       <c r="I27" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="J27" t="n">
         <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.38</v>
@@ -4072,10 +4072,10 @@
         <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
         <v>1.25</v>
@@ -4090,7 +4090,7 @@
         <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
         <v>1.44</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G28" t="n">
         <v>1.73</v>
@@ -4186,7 +4186,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J28" t="n">
         <v>3.9</v>
@@ -4198,19 +4198,19 @@
         <v>1.38</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
         <v>3.6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P28" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R28" t="n">
         <v>1.35</v>
@@ -4219,10 +4219,10 @@
         <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U28" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
         <v>1.18</v>
@@ -4231,16 +4231,16 @@
         <v>2.36</v>
       </c>
       <c r="X28" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z28" t="n">
         <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB28" t="n">
         <v>8.6</v>
@@ -4249,10 +4249,10 @@
         <v>9.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AE28" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>10.5</v>
@@ -4261,28 +4261,28 @@
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>970</v>
+        <v>40</v>
       </c>
       <c r="AI28" t="n">
-        <v>90</v>
+        <v>330</v>
       </c>
       <c r="AJ28" t="n">
         <v>17.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL28" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
         <v>11</v>
       </c>
       <c r="AO28" t="n">
-        <v>130</v>
+        <v>530</v>
       </c>
     </row>
     <row r="29">
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="G29" t="n">
         <v>2.56</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
         <v>1.37</v>
@@ -4342,10 +4342,10 @@
         <v>1.27</v>
       </c>
       <c r="P29" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R29" t="n">
         <v>1.43</v>
@@ -4360,64 +4360,64 @@
         <v>2.32</v>
       </c>
       <c r="V29" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
         <v>1.64</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y29" t="n">
         <v>14</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA29" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
         <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG29" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI29" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AJ29" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AK29" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AL29" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM29" t="n">
         <v>80</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO29" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30">
@@ -4447,67 +4447,67 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.16</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.17</v>
-      </c>
       <c r="H30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I30" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K30" t="n">
         <v>11</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M30" t="n">
         <v>1.02</v>
       </c>
       <c r="N30" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P30" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="S30" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T30" t="n">
         <v>2.22</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="V30" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="X30" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y30" t="n">
-        <v>970</v>
+        <v>110</v>
       </c>
       <c r="Z30" t="n">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="AA30" t="n">
         <v>1000</v>
@@ -4519,40 +4519,40 @@
         <v>28</v>
       </c>
       <c r="AD30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE30" t="n">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>55</v>
       </c>
       <c r="AI30" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>8.4</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
         <v>55</v>
       </c>
       <c r="AM30" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN30" t="n">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AO30" t="n">
-        <v>520</v>
+        <v>590</v>
       </c>
     </row>
     <row r="31">
@@ -4585,7 +4585,7 @@
         <v>1.55</v>
       </c>
       <c r="G31" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="H31" t="n">
         <v>6</v>
@@ -4633,16 +4633,16 @@
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="X31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y31" t="n">
         <v>25</v>
       </c>
       <c r="Z31" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AA31" t="n">
         <v>210</v>
@@ -4657,7 +4657,7 @@
         <v>25</v>
       </c>
       <c r="AE31" t="n">
-        <v>100</v>
+        <v>420</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
@@ -4669,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="AI31" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AJ31" t="n">
         <v>15.5</v>
@@ -4678,16 +4678,16 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>970</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN31" t="n">
         <v>7.4</v>
       </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32">
@@ -4726,7 +4726,7 @@
         <v>2.56</v>
       </c>
       <c r="I32" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="J32" t="n">
         <v>3.35</v>
@@ -4750,7 +4750,7 @@
         <v>1.78</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R32" t="n">
         <v>1.28</v>
@@ -4759,28 +4759,28 @@
         <v>4</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W32" t="n">
         <v>1.46</v>
       </c>
       <c r="X32" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y32" t="n">
         <v>10</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA32" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AB32" t="n">
         <v>11.5</v>
@@ -4792,37 +4792,37 @@
         <v>12.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>970</v>
+        <v>90</v>
       </c>
       <c r="AF32" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AG32" t="n">
         <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI32" t="n">
-        <v>970</v>
+        <v>130</v>
       </c>
       <c r="AJ32" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AK32" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM32" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN32" t="n">
         <v>970</v>
       </c>
       <c r="AO32" t="n">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33">
@@ -4876,25 +4876,25 @@
         <v>1.03</v>
       </c>
       <c r="N33" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="O33" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P33" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="R33" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S33" t="n">
         <v>2.66</v>
       </c>
       <c r="T33" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U33" t="n">
         <v>1.05</v>
@@ -4921,7 +4921,7 @@
         <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4990,16 +4990,16 @@
         <v>3.3</v>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J34" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K34" t="n">
         <v>4.3</v>
@@ -5017,16 +5017,16 @@
         <v>1.21</v>
       </c>
       <c r="P34" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q34" t="n">
         <v>1.61</v>
       </c>
       <c r="R34" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="T34" t="n">
         <v>1.59</v>
@@ -5035,64 +5035,64 @@
         <v>2.44</v>
       </c>
       <c r="V34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W34" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X34" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Z34" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF34" t="n">
         <v>29</v>
       </c>
-      <c r="AB34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF34" t="n">
+      <c r="AG34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI34" t="n">
         <v>32</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>34</v>
       </c>
       <c r="AJ34" t="n">
         <v>60</v>
       </c>
       <c r="AK34" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL34" t="n">
         <v>42</v>
       </c>
-      <c r="AL34" t="n">
-        <v>44</v>
-      </c>
       <c r="AM34" t="n">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="AN34" t="n">
         <v>26</v>
       </c>
       <c r="AO34" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="35">
@@ -5134,13 +5134,13 @@
         <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K35" t="n">
         <v>3.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M35" t="n">
         <v>1.09</v>
@@ -5176,7 +5176,7 @@
         <v>1.5</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="Y35" t="n">
         <v>12.5</v>
@@ -5191,7 +5191,7 @@
         <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AD35" t="n">
         <v>1000</v>
@@ -5257,19 +5257,19 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G36" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K36" t="n">
         <v>3.9</v>
@@ -5281,13 +5281,13 @@
         <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.33</v>
       </c>
       <c r="P36" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q36" t="n">
         <v>1.97</v>
@@ -5305,10 +5305,10 @@
         <v>2.02</v>
       </c>
       <c r="V36" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W36" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="X36" t="n">
         <v>15</v>
@@ -5332,7 +5332,7 @@
         <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -5344,25 +5344,25 @@
         <v>22</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>330</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
       </c>
       <c r="AK36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AM36" t="n">
-        <v>130</v>
+        <v>430</v>
       </c>
       <c r="AN36" t="n">
         <v>19</v>
       </c>
       <c r="AO36" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
@@ -5395,7 +5395,7 @@
         <v>1.27</v>
       </c>
       <c r="G37" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="H37" t="n">
         <v>11.5</v>
@@ -5407,7 +5407,7 @@
         <v>6.4</v>
       </c>
       <c r="K37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L37" t="n">
         <v>1.25</v>
@@ -5422,16 +5422,16 @@
         <v>1.17</v>
       </c>
       <c r="P37" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q37" t="n">
         <v>1.48</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S37" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="T37" t="n">
         <v>1.93</v>
@@ -5449,7 +5449,7 @@
         <v>970</v>
       </c>
       <c r="Y37" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z37" t="n">
         <v>140</v>
@@ -5527,16 +5527,16 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G38" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H38" t="n">
         <v>4.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
         <v>4.2</v>
@@ -5548,19 +5548,19 @@
         <v>1.32</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
         <v>5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R38" t="n">
         <v>1.55</v>
@@ -5575,10 +5575,10 @@
         <v>2.36</v>
       </c>
       <c r="V38" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
@@ -5596,7 +5596,7 @@
         <v>11.5</v>
       </c>
       <c r="AC38" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD38" t="n">
         <v>19</v>
@@ -5629,7 +5629,7 @@
         <v>75</v>
       </c>
       <c r="AN38" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AO38" t="n">
         <v>48</v>
@@ -5662,31 +5662,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G39" t="n">
         <v>3.45</v>
       </c>
       <c r="H39" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="I39" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="J39" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K39" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L39" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M39" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="O39" t="n">
         <v>1.31</v>
@@ -5695,13 +5695,13 @@
         <v>2.06</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R39" t="n">
         <v>1.38</v>
       </c>
       <c r="S39" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T39" t="n">
         <v>1.79</v>
@@ -5710,28 +5710,28 @@
         <v>2.18</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X39" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y39" t="n">
         <v>10.5</v>
       </c>
       <c r="Z39" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB39" t="n">
         <v>14</v>
       </c>
-      <c r="AA39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC39" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD39" t="n">
         <v>11</v>
@@ -5740,34 +5740,34 @@
         <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG39" t="n">
         <v>14.5</v>
       </c>
       <c r="AH39" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI39" t="n">
         <v>36</v>
       </c>
       <c r="AJ39" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="n">
         <v>40</v>
       </c>
       <c r="AL39" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AM39" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN39" t="n">
         <v>36</v>
       </c>
       <c r="AO39" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="40">
@@ -5797,16 +5797,16 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I40" t="n">
         <v>1.81</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1.82</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -5824,7 +5824,7 @@
         <v>4.2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P40" t="n">
         <v>2.08</v>
@@ -5839,22 +5839,22 @@
         <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U40" t="n">
         <v>2.16</v>
       </c>
       <c r="V40" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W40" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X40" t="n">
         <v>15.5</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
         <v>11</v>
@@ -5866,40 +5866,40 @@
         <v>18</v>
       </c>
       <c r="AC40" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD40" t="n">
         <v>9.6</v>
       </c>
       <c r="AE40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF40" t="n">
         <v>38</v>
       </c>
       <c r="AG40" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
         <v>19</v>
       </c>
       <c r="AI40" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="n">
+        <v>65</v>
+      </c>
+      <c r="AL40" t="n">
         <v>60</v>
       </c>
-      <c r="AL40" t="n">
-        <v>65</v>
-      </c>
       <c r="AM40" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN40" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO40" t="n">
         <v>11</v>
@@ -5932,46 +5932,46 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="G41" t="n">
-        <v>1000</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>1.04</v>
+        <v>2.4</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="K41" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="L41" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>1.3</v>
+        <v>2.76</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
       </c>
       <c r="P41" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.3</v>
+        <v>1.83</v>
       </c>
       <c r="R41" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S41" t="n">
-        <v>1.3</v>
+        <v>2.68</v>
       </c>
       <c r="T41" t="n">
         <v>1.05</v>
@@ -5980,10 +5980,10 @@
         <v>1.05</v>
       </c>
       <c r="V41" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W41" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="X41" t="n">
         <v>1000</v>
@@ -6067,22 +6067,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="G42" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.55</v>
       </c>
       <c r="J42" t="n">
         <v>3.25</v>
       </c>
       <c r="K42" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L42" t="n">
         <v>1.46</v>
@@ -6091,7 +6091,7 @@
         <v>1.09</v>
       </c>
       <c r="N42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O42" t="n">
         <v>1.4</v>
@@ -6103,22 +6103,22 @@
         <v>2.18</v>
       </c>
       <c r="R42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S42" t="n">
         <v>4.1</v>
       </c>
       <c r="T42" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U42" t="n">
         <v>2.06</v>
       </c>
       <c r="V42" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="W42" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="X42" t="n">
         <v>14</v>
@@ -6130,7 +6130,7 @@
         <v>24</v>
       </c>
       <c r="AA42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB42" t="n">
         <v>9.4</v>
@@ -6139,10 +6139,10 @@
         <v>7.4</v>
       </c>
       <c r="AD42" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AF42" t="n">
         <v>15.5</v>
@@ -6154,7 +6154,7 @@
         <v>18.5</v>
       </c>
       <c r="AI42" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ42" t="n">
         <v>36</v>
@@ -6172,7 +6172,7 @@
         <v>27</v>
       </c>
       <c r="AO42" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43">
@@ -6205,13 +6205,13 @@
         <v>2.56</v>
       </c>
       <c r="G43" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J43" t="n">
         <v>3.1</v>
@@ -6220,55 +6220,55 @@
         <v>3.15</v>
       </c>
       <c r="L43" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M43" t="n">
         <v>1.12</v>
       </c>
       <c r="N43" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O43" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P43" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="R43" t="n">
         <v>1.2</v>
       </c>
       <c r="S43" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="T43" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U43" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="V43" t="n">
         <v>1.41</v>
       </c>
       <c r="W43" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X43" t="n">
         <v>10.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA43" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB43" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC43" t="n">
         <v>7.2</v>
@@ -6277,19 +6277,19 @@
         <v>15</v>
       </c>
       <c r="AE43" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AF43" t="n">
         <v>15.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AI43" t="n">
-        <v>75</v>
+        <v>460</v>
       </c>
       <c r="AJ43" t="n">
         <v>980</v>
@@ -6298,7 +6298,7 @@
         <v>980</v>
       </c>
       <c r="AL43" t="n">
-        <v>65</v>
+        <v>460</v>
       </c>
       <c r="AM43" t="n">
         <v>200</v>
@@ -6307,7 +6307,7 @@
         <v>980</v>
       </c>
       <c r="AO43" t="n">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44">
@@ -6343,7 +6343,7 @@
         <v>1.54</v>
       </c>
       <c r="H44" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I44" t="n">
         <v>8.6</v>
@@ -6370,7 +6370,7 @@
         <v>1.97</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R44" t="n">
         <v>1.35</v>
@@ -6379,7 +6379,7 @@
         <v>3.55</v>
       </c>
       <c r="T44" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="U44" t="n">
         <v>1.81</v>
@@ -6397,7 +6397,7 @@
         <v>24</v>
       </c>
       <c r="Z44" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AA44" t="n">
         <v>330</v>
@@ -6424,7 +6424,7 @@
         <v>28</v>
       </c>
       <c r="AI44" t="n">
-        <v>140</v>
+        <v>520</v>
       </c>
       <c r="AJ44" t="n">
         <v>13.5</v>
@@ -6472,22 +6472,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="G45" t="n">
         <v>1000</v>
       </c>
       <c r="H45" t="n">
-        <v>1.04</v>
+        <v>1.49</v>
       </c>
       <c r="I45" t="n">
-        <v>1000</v>
+        <v>2.66</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>3.05</v>
       </c>
       <c r="K45" t="n">
-        <v>1000</v>
+        <v>940</v>
       </c>
       <c r="L45" t="n">
         <v>1.01</v>
@@ -6520,10 +6520,10 @@
         <v>1.05</v>
       </c>
       <c r="V45" t="n">
-        <v>1.01</v>
+        <v>1.6</v>
       </c>
       <c r="W45" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="X45" t="n">
         <v>1000</v>
@@ -6607,25 +6607,25 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G46" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H46" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I46" t="n">
         <v>6.8</v>
       </c>
       <c r="J46" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
         <v>4.2</v>
       </c>
       <c r="L46" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="M46" t="n">
         <v>1.08</v>
@@ -6652,37 +6652,37 @@
         <v>1.99</v>
       </c>
       <c r="U46" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
         <v>1.17</v>
       </c>
       <c r="W46" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z46" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AA46" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AB46" t="n">
         <v>7.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AE46" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AF46" t="n">
         <v>10</v>
@@ -6691,22 +6691,22 @@
         <v>10.5</v>
       </c>
       <c r="AH46" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AI46" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK46" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AL46" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AM46" t="n">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="AN46" t="n">
         <v>14</v>
@@ -6745,13 +6745,13 @@
         <v>2.16</v>
       </c>
       <c r="G47" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="H47" t="n">
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J47" t="n">
         <v>3.25</v>
@@ -6760,13 +6760,13 @@
         <v>3.35</v>
       </c>
       <c r="L47" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="M47" t="n">
         <v>1.09</v>
       </c>
       <c r="N47" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O47" t="n">
         <v>1.4</v>
@@ -6775,7 +6775,7 @@
         <v>1.79</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
         <v>1.29</v>
@@ -6784,7 +6784,7 @@
         <v>4.1</v>
       </c>
       <c r="T47" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U47" t="n">
         <v>2.02</v>
@@ -6793,7 +6793,7 @@
         <v>1.31</v>
       </c>
       <c r="W47" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X47" t="n">
         <v>11.5</v>
@@ -6811,7 +6811,7 @@
         <v>8.6</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AD47" t="n">
         <v>16</v>
@@ -6826,7 +6826,7 @@
         <v>11</v>
       </c>
       <c r="AH47" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI47" t="n">
         <v>70</v>
@@ -6844,7 +6844,7 @@
         <v>130</v>
       </c>
       <c r="AN47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO47" t="n">
         <v>65</v>
@@ -6877,10 +6877,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="G48" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H48" t="n">
         <v>3.4</v>
@@ -6910,7 +6910,7 @@
         <v>1.98</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R48" t="n">
         <v>1.39</v>
@@ -6919,10 +6919,10 @@
         <v>3.25</v>
       </c>
       <c r="T48" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="U48" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="V48" t="n">
         <v>1.4</v>
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="G49" t="n">
         <v>2.86</v>
@@ -7024,7 +7024,7 @@
         <v>3.45</v>
       </c>
       <c r="J49" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
         <v>3.1</v>
@@ -7036,7 +7036,7 @@
         <v>1.12</v>
       </c>
       <c r="N49" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O49" t="n">
         <v>1.52</v>
@@ -7054,7 +7054,7 @@
         <v>5</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U49" t="n">
         <v>1.8</v>
@@ -7072,7 +7072,7 @@
         <v>10.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AA49" t="n">
         <v>65</v>
@@ -7090,22 +7090,22 @@
         <v>55</v>
       </c>
       <c r="AF49" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG49" t="n">
         <v>13.5</v>
       </c>
       <c r="AH49" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AI49" t="n">
         <v>80</v>
       </c>
       <c r="AJ49" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AK49" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AL49" t="n">
         <v>65</v>
